--- a/game_design/TreeWars_balancing.xlsx
+++ b/game_design/TreeWars_balancing.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tree" sheetId="1" r:id="rId1"/>
+    <sheet name="Environment" sheetId="2" r:id="rId2"/>
+    <sheet name="Mechanics" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="divider">Tree!$B$76</definedName>
+    <definedName name="exponent">Tree!$B$77</definedName>
+    <definedName name="Light_units_generated_standard">Tree!$B$47</definedName>
+    <definedName name="Set_foilage_density">Tree!$D$67</definedName>
+    <definedName name="Set_light_input">Tree!$F$67</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>Basics</t>
   </si>
@@ -120,12 +127,6 @@
     <t>Light units required by tree top size</t>
   </si>
   <si>
-    <t>Free light units by width (foilage density = 5)</t>
-  </si>
-  <si>
-    <t>Free light units by width (foilage density = 3)</t>
-  </si>
-  <si>
     <t>Tree top size by width and height</t>
   </si>
   <si>
@@ -133,6 +134,324 @@
   </si>
   <si>
     <t>exponent:</t>
+  </si>
+  <si>
+    <t>Set foilage density:</t>
+  </si>
+  <si>
+    <t>Free light units by width</t>
+  </si>
+  <si>
+    <t>Set light input:</t>
+  </si>
+  <si>
+    <t>Weather Effects</t>
+  </si>
+  <si>
+    <t>Weather effects length (seconds):</t>
+  </si>
+  <si>
+    <t>Effect name:</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Effect1:</t>
+  </si>
+  <si>
+    <t>Effect2:</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Adds 2 points of light input</t>
+  </si>
+  <si>
+    <t>Increases synthesis rate by 25% points</t>
+  </si>
+  <si>
+    <t>Adds +5% points soil moisture</t>
+  </si>
+  <si>
+    <t>Hazard name:</t>
+  </si>
+  <si>
+    <t>Cold spell</t>
+  </si>
+  <si>
+    <t>Reduces foilage density by 1 level</t>
+  </si>
+  <si>
+    <t>Drought</t>
+  </si>
+  <si>
+    <t>Reduces soil moisture by 20% points</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>5% chance for each height level above minimum height to break off</t>
+  </si>
+  <si>
+    <t>(tree top size/(root areas*root strength)) % chance to uproot and kill tree</t>
+  </si>
+  <si>
+    <t>Reduces water pool by 20%</t>
+  </si>
+  <si>
+    <t>Cancels out with Sunshine</t>
+  </si>
+  <si>
+    <t>Cancels out with Rain</t>
+  </si>
+  <si>
+    <t>Ends Spring</t>
+  </si>
+  <si>
+    <t>10% chance of gaining a bonus feature</t>
+  </si>
+  <si>
+    <t>Bonus Features</t>
+  </si>
+  <si>
+    <t>Feature name:</t>
+  </si>
+  <si>
+    <t>Symbiotic Fungus Colony</t>
+  </si>
+  <si>
+    <t>Adds 10% synthesis output</t>
+  </si>
+  <si>
+    <t>Bird Nest</t>
+  </si>
+  <si>
+    <t>Adds 1 weather effect point per 10 s</t>
+  </si>
+  <si>
+    <t>Nutrient Synthesis rule</t>
+  </si>
+  <si>
+    <t>Nutrient Synthesis</t>
+  </si>
+  <si>
+    <t>(light_level/water_level)^(SIGN(light_level-water_level))</t>
+  </si>
+  <si>
+    <t>Root Areas</t>
+  </si>
+  <si>
+    <t>Water intake</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>root branching level</t>
+  </si>
+  <si>
+    <t>Tree top size water requirement</t>
+  </si>
+  <si>
+    <t>(size*3)</t>
+  </si>
+  <si>
+    <t>Water generated:</t>
+  </si>
+  <si>
+    <t>humidity intake per second (%):</t>
+  </si>
+  <si>
+    <t>soil_humidity*humidity_intake/8</t>
+  </si>
+  <si>
+    <t>Mechanic description</t>
+  </si>
+  <si>
+    <t>Trees take in Water through the Roots</t>
+  </si>
+  <si>
+    <t>Roots grow in the Soil hexes</t>
+  </si>
+  <si>
+    <t>Roots can grow into an enemy soil hex if their Strength is at least equal to the enemy root's Strength</t>
+  </si>
+  <si>
+    <t>A high Root Strength decreases risk of uprooting in a Storm</t>
+  </si>
+  <si>
+    <t>The Branching level indicates how much Soil Humidity a root converts into Water every second</t>
+  </si>
+  <si>
+    <t>A soil hex's soil humidity is reduced when a root converts humidity into water</t>
+  </si>
+  <si>
+    <t>Roots can grow into any free hex adjacent to an already existing root</t>
+  </si>
+  <si>
+    <t>Every horizontal segment has a Light input</t>
+  </si>
+  <si>
+    <t>Trees take in Water and Energy to generate Nutrients</t>
+  </si>
+  <si>
+    <t>Trees convert Light input into Energy through their Foilage</t>
+  </si>
+  <si>
+    <t>Trees take in Light for every horizontal segment their Treetop occupies</t>
+  </si>
+  <si>
+    <t>Treetop growth is not limited in Height</t>
+  </si>
+  <si>
+    <t>A treetop's Width can never grow greater than twice its Height</t>
+  </si>
+  <si>
+    <t>When growing in width, treetops always grow one space on BOTH sides</t>
+  </si>
+  <si>
+    <t>When growing in width, treetops can overlap with other treetops</t>
+  </si>
+  <si>
+    <t>If two or more treetops overlap, the tree with the greater Height converts first, only then is the remaining light converted by the next higher tree</t>
+  </si>
+  <si>
+    <t>If two or more trees have the same height, they share Light input evenly</t>
+  </si>
+  <si>
+    <t>A treetop's area determines how much Water and Energy the tree requires to sustain itself every second</t>
+  </si>
+  <si>
+    <t>Water and Energy are first taken from the intake</t>
+  </si>
+  <si>
+    <t>If an intake is not sufficient to sustain the tree, the tree takes the resource from its Reserves</t>
+  </si>
+  <si>
+    <t>Any Water and Energy left over after sustaining the tree is partially converted into Nutrients, the rest is stored in the tree's Reserves</t>
+  </si>
+  <si>
+    <t>A tree tries to convert 50% of the greater intake into nutrients</t>
+  </si>
+  <si>
+    <t>One unit of Water and one unit of Energy are converted into one unit of Nutrient</t>
+  </si>
+  <si>
+    <t>A tree's roots have a Strength level (1-5)</t>
+  </si>
+  <si>
+    <t>A tree's roots have a Branching level (1-5)</t>
+  </si>
+  <si>
+    <t>Treetops can grow in Height (4-10) and Width (3-19)</t>
+  </si>
+  <si>
+    <t>Light input varies by weather (10 or 12)</t>
+  </si>
+  <si>
+    <t>A tree's Foilage has a Density level (0-5)</t>
+  </si>
+  <si>
+    <t>Foilage density determines how much Light input is converted into Energy (34%-100%)</t>
+  </si>
+  <si>
+    <t>Every Soil hex has a soil humidity (0%-100%)</t>
+  </si>
+  <si>
+    <t>If a tree has depleted a Reserve, it takes Damage</t>
+  </si>
+  <si>
+    <t>When a tree takes damage, it converts Health into Nutrients</t>
+  </si>
+  <si>
+    <t>When a tree's Health reaches zero, it is killed (GAME OVER)</t>
+  </si>
+  <si>
+    <t>Missing Water or Energy is taken from the Reserve</t>
+  </si>
+  <si>
+    <t>If a Reserve is depleted, no more Nutrients are generated</t>
+  </si>
+  <si>
+    <t>Nutrients are used to grow all aspects of the tree (see above)</t>
+  </si>
+  <si>
+    <t>A player gains Weather points over time</t>
+  </si>
+  <si>
+    <t>Sunshine increases the Light input to 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather Effects last for 10 seconds or until Canceled </t>
+  </si>
+  <si>
+    <t>Sunshine cancels out Rain</t>
+  </si>
+  <si>
+    <t>Weather points can be used to activate Weather Effects (Sunshine, Rain, Spring)</t>
+  </si>
+  <si>
+    <t>Rain adds +5% points humidity to all soil hexes every second</t>
+  </si>
+  <si>
+    <t>Rain cancels out Sunshine</t>
+  </si>
+  <si>
+    <t>Spring increases maximum Water/Energy conversion to 75%</t>
+  </si>
+  <si>
+    <t>When a player activates a Weather Effect a random enemy player is awarded a Hazard point</t>
+  </si>
+  <si>
+    <t>Hazard points can be spent to to activate Hazards (Cold Snap, Drought, Storm)</t>
+  </si>
+  <si>
+    <t>When two effects cancel out, the new effect's duration is reduced by the current effect's remaining duration</t>
+  </si>
+  <si>
+    <t>Cold Snap</t>
+  </si>
+  <si>
+    <t>A Cold Snap reduces all trees' Foilage density by one (to a minimum of zero)</t>
+  </si>
+  <si>
+    <t>A Cold Snap ends Spring immediately</t>
+  </si>
+  <si>
+    <t>A Drought reduces all soil hexes' humidity by 20% points</t>
+  </si>
+  <si>
+    <t>A Drought reduces all trees' Water Reserves by 20%</t>
+  </si>
+  <si>
+    <t>A Storm has a chance to uproot and kill a tree (GAME OVER)</t>
+  </si>
+  <si>
+    <t>A Storm blows either from left to right or from right to left</t>
+  </si>
+  <si>
+    <t>The chance that a tree is uprooted is (tree top size/(root areas*root strength)) %</t>
+  </si>
+  <si>
+    <t>A Storm "hits" trees in sequence (i.e. a storm blowing from left to right hits the left-most tree first, then the second tree from the left and so on)</t>
+  </si>
+  <si>
+    <t>A Storm has a chance to break off Height from a treetop</t>
+  </si>
+  <si>
+    <t>Heigth levels that are required to support a tree's Width cannot break off</t>
+  </si>
+  <si>
+    <t>Any additional Height levels have a 5% chance to break off</t>
+  </si>
+  <si>
+    <t>This chance is divided by 2 for every tree the sotrm has already hit</t>
   </si>
 </sst>
 </file>
@@ -190,117 +509,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -649,10 +858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,20 +872,23 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -689,8 +901,14 @@
       <c r="E4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -704,7 +922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -712,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -720,7 +938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -728,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -737,7 +955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -746,12 +964,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -762,7 +980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -957,7 +1175,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,39 +1561,39 @@
         <v>0</v>
       </c>
       <c r="B50" s="2">
-        <f>$C26/100*$B$47*B$49</f>
+        <f>$C26/100*Light_units_generated_standard*B$49</f>
         <v>10.200000000000001</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" ref="C50:J50" si="3">$C26/100*$B$47*C$49</f>
+        <f>$C26/100*Light_units_generated_standard*C$49</f>
         <v>17</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*D$49</f>
         <v>23.800000000000004</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*E$49</f>
         <v>30.6</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*F$49</f>
         <v>37.400000000000006</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*G$49</f>
         <v>44.2</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*H$49</f>
         <v>51.000000000000007</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*I$49</f>
         <v>57.800000000000004</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="3"/>
+        <f>$C26/100*Light_units_generated_standard*J$49</f>
         <v>64.600000000000009</v>
       </c>
     </row>
@@ -1384,39 +1602,39 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" ref="B51:J55" si="4">$C27/100*$B$47*B$49</f>
+        <f>$C27/100*Light_units_generated_standard*B$49</f>
         <v>20.400000000000002</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*C$49</f>
         <v>34</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*D$49</f>
         <v>47.600000000000009</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*E$49</f>
         <v>61.2</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*F$49</f>
         <v>74.800000000000011</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*G$49</f>
         <v>88.4</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*H$49</f>
         <v>102.00000000000001</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*I$49</f>
         <v>115.60000000000001</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="4"/>
+        <f>$C27/100*Light_units_generated_standard*J$49</f>
         <v>129.20000000000002</v>
       </c>
     </row>
@@ -1425,39 +1643,39 @@
         <v>2</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*B$49</f>
         <v>22.799999999999997</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*C$49</f>
         <v>38</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*D$49</f>
         <v>53.199999999999996</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*E$49</f>
         <v>68.399999999999991</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*F$49</f>
         <v>83.6</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*G$49</f>
         <v>98.8</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*H$49</f>
         <v>114</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*I$49</f>
         <v>129.19999999999999</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="4"/>
+        <f>$C28/100*Light_units_generated_standard*J$49</f>
         <v>144.4</v>
       </c>
     </row>
@@ -1466,39 +1684,39 @@
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*B$49</f>
         <v>25.200000000000003</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*C$49</f>
         <v>42</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*D$49</f>
         <v>58.800000000000004</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*E$49</f>
         <v>75.600000000000009</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*F$49</f>
         <v>92.4</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*G$49</f>
         <v>109.2</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*H$49</f>
         <v>126</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*I$49</f>
         <v>142.80000000000001</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="4"/>
+        <f>$C29/100*Light_units_generated_standard*J$49</f>
         <v>159.6</v>
       </c>
     </row>
@@ -1507,39 +1725,39 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*B$49</f>
         <v>27.6</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*C$49</f>
         <v>46.000000000000007</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*D$49</f>
         <v>64.400000000000006</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*E$49</f>
         <v>82.800000000000011</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*F$49</f>
         <v>101.20000000000002</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*G$49</f>
         <v>119.60000000000001</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*H$49</f>
         <v>138.00000000000003</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*I$49</f>
         <v>156.4</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="4"/>
+        <f>$C30/100*Light_units_generated_standard*J$49</f>
         <v>174.8</v>
       </c>
     </row>
@@ -1548,39 +1766,39 @@
         <v>5</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*B$49</f>
         <v>30</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*C$49</f>
         <v>50</v>
       </c>
       <c r="D55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*D$49</f>
         <v>70</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*E$49</f>
         <v>90</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*F$49</f>
         <v>110</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*G$49</f>
         <v>130</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*H$49</f>
         <v>150</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*I$49</f>
         <v>170</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="4"/>
+        <f>$C31/100*Light_units_generated_standard*J$49</f>
         <v>190</v>
       </c>
     </row>
@@ -1643,35 +1861,35 @@
         <v>0</v>
       </c>
       <c r="B60" s="2">
-        <f>(B$59*$C26-(B$59-2)*$C27)/100*$B$47</f>
+        <f>(B$59*$C26-(B$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-3.4000000000000004</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" ref="C60:I60" si="5">(C$59*$C26-(C$59-2)*$C27)/100*$B$47</f>
+        <f>(C$59*$C26-(C$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-10.199999999999999</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" si="5"/>
+        <f>(D$59*$C26-(D$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-17</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="5"/>
+        <f>(E$59*$C26-(E$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-23.799999999999997</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="5"/>
+        <f>(F$59*$C26-(F$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-30.6</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="5"/>
+        <f>(G$59*$C26-(G$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-37.400000000000006</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="5"/>
+        <f>(H$59*$C26-(H$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-44.2</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="5"/>
+        <f>(I$59*$C26-(I$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-51</v>
       </c>
       <c r="J60" s="2"/>
@@ -1681,35 +1899,35 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" ref="B61:I64" si="6">(B$59*$C27-(B$59-2)*$C28)/100*$B$47</f>
+        <f>(B$59*$C27-(B$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>11.200000000000001</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="6"/>
+        <f>(C$59*$C27-(C$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>9.6</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" si="6"/>
+        <f>(D$59*$C27-(D$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>8</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="6"/>
+        <f>(E$59*$C27-(E$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>6.4</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="6"/>
+        <f>(F$59*$C27-(F$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>4.8</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="6"/>
+        <f>(G$59*$C27-(G$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>3.2</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="6"/>
+        <f>(H$59*$C27-(H$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>1.6</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="6"/>
+        <f>(I$59*$C27-(I$59-2)*$C28)/100*Light_units_generated_standard</f>
         <v>0</v>
       </c>
       <c r="J61" s="2"/>
@@ -1719,35 +1937,35 @@
         <v>2</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="6"/>
+        <f>(B$59*$C28-(B$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>12.8</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="6"/>
+        <f>(C$59*$C28-(C$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>11.200000000000001</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" si="6"/>
+        <f>(D$59*$C28-(D$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>9.6</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="6"/>
+        <f>(E$59*$C28-(E$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>8</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="6"/>
+        <f>(F$59*$C28-(F$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>6.4</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="6"/>
+        <f>(G$59*$C28-(G$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>4.8</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="6"/>
+        <f>(H$59*$C28-(H$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>3.2</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="6"/>
+        <f>(I$59*$C28-(I$59-2)*$C29)/100*Light_units_generated_standard</f>
         <v>1.6</v>
       </c>
       <c r="J62" s="2"/>
@@ -1757,35 +1975,35 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="6"/>
+        <f>(B$59*$C29-(B$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>14.399999999999999</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="6"/>
+        <f>(C$59*$C29-(C$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>12.8</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="6"/>
+        <f>(D$59*$C29-(D$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>11.200000000000001</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="6"/>
+        <f>(E$59*$C29-(E$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>9.6</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="6"/>
+        <f>(F$59*$C29-(F$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>8</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="6"/>
+        <f>(G$59*$C29-(G$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>6.4</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="6"/>
+        <f>(H$59*$C29-(H$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>4.8</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="6"/>
+        <f>(I$59*$C29-(I$59-2)*$C30)/100*Light_units_generated_standard</f>
         <v>3.2</v>
       </c>
       <c r="J63" s="2"/>
@@ -1795,40 +2013,40 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="6"/>
+        <f>(B$59*$C30-(B$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>16</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="6"/>
+        <f>(C$59*$C30-(C$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>14.399999999999999</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" si="6"/>
+        <f>(D$59*$C30-(D$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>12.8</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="6"/>
+        <f>(E$59*$C30-(E$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>11.200000000000001</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="6"/>
+        <f>(F$59*$C30-(F$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>9.6</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="6"/>
+        <f>(G$59*$C30-(G$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>8</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="6"/>
+        <f>(H$59*$C30-(H$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>6.4</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="6"/>
+        <f>(I$59*$C30-(I$59-2)*$C31)/100*Light_units_generated_standard</f>
         <v>4.8</v>
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1839,20 +2057,29 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="K67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>84</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -1883,602 +2110,695 @@
       <c r="J68">
         <v>19</v>
       </c>
-      <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68">
-        <v>5</v>
-      </c>
-      <c r="M68">
-        <v>7</v>
-      </c>
-      <c r="N68">
-        <v>9</v>
-      </c>
-      <c r="O68">
-        <v>11</v>
-      </c>
-      <c r="P68">
-        <v>13</v>
-      </c>
-      <c r="Q68">
-        <v>15</v>
-      </c>
-      <c r="R68">
-        <v>17</v>
-      </c>
-      <c r="S68">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
       <c r="B69">
-        <f>IF(B$68&lt;2*$A69,$C$29/100*B$68*$B$47-($A69*B$68/$B$77)^$B$78,"N/A")</f>
-        <v>9.094824156799806</v>
+        <f>IF(B$68&lt;2*$A69,Set_foilage_density/100*B$68*Set_light_input-($A69*B$68/divider)^exponent,"N/A")</f>
+        <v>14.133739060297231</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:J69" si="7">IF(C$68&lt;2*$A69,$C$29/100*C$68*$B$47-($A69*C$68/$B$77)^$B$78,"N/A")</f>
-        <v>16.825114763331111</v>
+        <f>IF(C$68&lt;2*$A69,Set_foilage_density/100*C$68*Set_light_input-($A69*C$68/divider)^exponent,"N/A")</f>
+        <v>25.223145943577325</v>
       </c>
       <c r="D69">
-        <f t="shared" si="7"/>
-        <v>25.012709271425585</v>
+        <f>IF(D$68&lt;2*$A69,Set_foilage_density/100*D$68*Set_light_input-($A69*D$68/divider)^exponent,"N/A")</f>
+        <v>36.76982588570651</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E$68&lt;2*$A69,Set_foilage_density/100*E$68*Set_light_input-($A69*E$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(F$68&lt;2*$A69,Set_foilage_density/100*F$68*Set_light_input-($A69*F$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(G$68&lt;2*$A69,Set_foilage_density/100*G$68*Set_light_input-($A69*G$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H$68&lt;2*$A69,Set_foilage_density/100*H$68*Set_light_input-($A69*H$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(I$68&lt;2*$A69,Set_foilage_density/100*I$68*Set_light_input-($A69*I$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="7"/>
-        <v>N/A</v>
-      </c>
-      <c r="K69">
-        <f>IF(K$68&lt;2*$A69,$C$31/100*K$68*$B$47-($A69*K$68/$B$77)^$B$78,"N/A")</f>
-        <v>13.894824156799807</v>
-      </c>
-      <c r="L69">
-        <f t="shared" ref="L69:S69" si="8">IF(L$68&lt;2*$A69,$C$31/100*L$68*$B$47-($A69*L$68/$B$77)^$B$78,"N/A")</f>
-        <v>24.825114763331111</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="8"/>
-        <v>36.212709271425588</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-      <c r="P69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-      <c r="Q69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-      <c r="R69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-      <c r="S69" t="str">
-        <f t="shared" si="8"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A69,Set_foilage_density/100*J$68*Set_light_input-($A69*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:J75" si="9">IF(B$68&lt;2*$A70,$C$29/100*B$68*$B$47-($A70*B$68/$B$77)^$B$78,"N/A")</f>
-        <v>5.6245739558420276</v>
+        <f>IF(B$68&lt;2*$A70,Set_foilage_density/100*B$68*Set_light_input-($A70*B$68/divider)^exponent,"N/A")</f>
+        <v>10.663162440087536</v>
       </c>
       <c r="C70">
-        <f t="shared" si="9"/>
-        <v>11.400576006213168</v>
+        <f>IF(C$68&lt;2*$A70,Set_foilage_density/100*C$68*Set_light_input-($A70*C$68/divider)^exponent,"N/A")</f>
+        <v>19.798038192885137</v>
       </c>
       <c r="D70">
-        <f t="shared" si="9"/>
-        <v>17.732419159588105</v>
+        <f>IF(D$68&lt;2*$A70,Set_foilage_density/100*D$68*Set_light_input-($A70*D$68/divider)^exponent,"N/A")</f>
+        <v>29.488720189424008</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
-        <v>24.438455662388158</v>
+        <f>IF(E$68&lt;2*$A70,Set_foilage_density/100*E$68*Set_light_input-($A70*E$68/divider)^exponent,"N/A")</f>
+        <v>39.553574924127119</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F$68&lt;2*$A70,Set_foilage_density/100*F$68*Set_light_input-($A70*F$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(G$68&lt;2*$A70,Set_foilage_density/100*G$68*Set_light_input-($A70*G$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(H$68&lt;2*$A70,Set_foilage_density/100*H$68*Set_light_input-($A70*H$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(I$68&lt;2*$A70,Set_foilage_density/100*I$68*Set_light_input-($A70*I$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="K70">
-        <f t="shared" ref="K70:S75" si="10">IF(K$68&lt;2*$A70,$C$31/100*K$68*$B$47-($A70*K$68/$B$77)^$B$78,"N/A")</f>
-        <v>10.424573955842028</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="10"/>
-        <v>19.400576006213168</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="10"/>
-        <v>28.932419159588108</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="10"/>
-        <v>38.838455662388164</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="P70" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="R70" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="S70" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A70,Set_foilage_density/100*J$68*Set_light_input-($A70*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6</v>
       </c>
       <c r="B71">
-        <f t="shared" si="9"/>
-        <v>2.2409695533584468</v>
+        <f>IF(B$68&lt;2*$A71,Set_foilage_density/100*B$68*Set_light_input-($A71*B$68/divider)^exponent,"N/A")</f>
+        <v>7.2792253112845628</v>
       </c>
       <c r="C71">
-        <f t="shared" si="9"/>
-        <v>6.1114780573213778</v>
+        <f>IF(C$68&lt;2*$A71,Set_foilage_density/100*C$68*Set_light_input-($A71*C$68/divider)^exponent,"N/A")</f>
+        <v>14.508362858123391</v>
       </c>
       <c r="D71">
-        <f t="shared" si="9"/>
-        <v>10.633904572088881</v>
+        <f>IF(D$68&lt;2*$A71,Set_foilage_density/100*D$68*Set_light_input-($A71*D$68/divider)^exponent,"N/A")</f>
+        <v>22.389380050695053</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
-        <v>15.595203604011381</v>
+        <f>IF(E$68&lt;2*$A71,Set_foilage_density/100*E$68*Set_light_input-($A71*E$68/divider)^exponent,"N/A")</f>
+        <v>30.709247282725549</v>
       </c>
       <c r="F71">
-        <f t="shared" si="9"/>
-        <v>20.885032174381934</v>
+        <f>IF(F$68&lt;2*$A71,Set_foilage_density/100*F$68*Set_light_input-($A71*F$68/divider)^exponent,"N/A")</f>
+        <v>39.357629041480976</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(G$68&lt;2*$A71,Set_foilage_density/100*G$68*Set_light_input-($A71*G$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(H$68&lt;2*$A71,Set_foilage_density/100*H$68*Set_light_input-($A71*H$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(I$68&lt;2*$A71,Set_foilage_density/100*I$68*Set_light_input-($A71*I$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="10"/>
-        <v>7.0409695533584475</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="10"/>
-        <v>14.111478057321378</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="10"/>
-        <v>21.833904572088883</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="10"/>
-        <v>29.995203604011387</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="10"/>
-        <v>38.485032174381928</v>
-      </c>
-      <c r="P71" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="Q71" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="R71" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="S71" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A71,Set_foilage_density/100*J$68*Set_light_input-($A71*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
       <c r="B72">
-        <f t="shared" si="9"/>
-        <v>-1.0722393636297092</v>
+        <f>IF(B$68&lt;2*$A72,Set_foilage_density/100*B$68*Set_light_input-($A72*B$68/divider)^exponent,"N/A")</f>
+        <v>3.9656788209434417</v>
       </c>
       <c r="C72">
-        <f t="shared" si="9"/>
-        <v>0.9324191595881075</v>
+        <f>IF(C$68&lt;2*$A72,Set_foilage_density/100*C$68*Set_light_input-($A72*C$68/divider)^exponent,"N/A")</f>
+        <v>9.3287201894240113</v>
       </c>
       <c r="D72">
-        <f t="shared" si="9"/>
-        <v>3.6830737328187411</v>
+        <f>IF(D$68&lt;2*$A72,Set_foilage_density/100*D$68*Set_light_input-($A72*D$68/divider)^exponent,"N/A")</f>
+        <v>15.437716144118653</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
-        <v>6.9359343485742784</v>
+        <f>IF(E$68&lt;2*$A72,Set_foilage_density/100*E$68*Set_light_input-($A72*E$68/divider)^exponent,"N/A")</f>
+        <v>22.048894060985958</v>
       </c>
       <c r="F72">
-        <f t="shared" si="9"/>
-        <v>10.564734475024153</v>
+        <f>IF(F$68&lt;2*$A72,Set_foilage_density/100*F$68*Set_light_input-($A72*F$68/divider)^exponent,"N/A")</f>
+        <v>29.035995538977545</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
-        <v>14.49246868660596</v>
+        <f>IF(G$68&lt;2*$A72,Set_foilage_density/100*G$68*Set_light_input-($A72*G$68/divider)^exponent,"N/A")</f>
+        <v>36.322019720214584</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(H$68&lt;2*$A72,Set_foilage_density/100*H$68*Set_light_input-($A72*H$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(I$68&lt;2*$A72,Set_foilage_density/100*I$68*Set_light_input-($A72*I$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="10"/>
-        <v>3.7277606363702915</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="10"/>
-        <v>8.9324191595881075</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="10"/>
-        <v>14.883073732818744</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="10"/>
-        <v>21.335934348574284</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="10"/>
-        <v>28.164734475024147</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="10"/>
-        <v>35.292468686605957</v>
-      </c>
-      <c r="Q72" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="R72" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="S72" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A72,Set_foilage_density/100*J$68*Set_light_input-($A72*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
       <c r="B73">
-        <f t="shared" si="9"/>
-        <v>-4.3263538752905824</v>
+        <f>IF(B$68&lt;2*$A73,Set_foilage_density/100*B$68*Set_light_input-($A73*B$68/divider)^exponent,"N/A")</f>
+        <v>0.71122286267887347</v>
       </c>
       <c r="C73">
-        <f t="shared" si="9"/>
-        <v>-4.1542660263193412</v>
+        <f>IF(C$68&lt;2*$A73,Set_foilage_density/100*C$68*Set_light_input-($A73*C$68/divider)^exponent,"N/A")</f>
+        <v>4.2414461783403894</v>
       </c>
       <c r="D73">
-        <f t="shared" si="9"/>
-        <v>-3.1437820643490824</v>
+        <f>IF(D$68&lt;2*$A73,Set_foilage_density/100*D$68*Set_light_input-($A73*D$68/divider)^exponent,"N/A")</f>
+        <v>8.6100213806505721</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
-        <v>-1.5688881514545301</v>
+        <f>IF(E$68&lt;2*$A73,Set_foilage_density/100*E$68*Set_light_input-($A73*E$68/divider)^exponent,"N/A")</f>
+        <v>13.542981068570242</v>
       </c>
       <c r="F73">
-        <f t="shared" si="9"/>
-        <v>0.42850963995741154</v>
+        <f>IF(F$68&lt;2*$A73,Set_foilage_density/100*F$68*Set_light_input-($A73*F$68/divider)^exponent,"N/A")</f>
+        <v>18.898427905880382</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
-        <v>2.7618678898905102</v>
+        <f>IF(G$68&lt;2*$A73,Set_foilage_density/100*G$68*Set_light_input-($A73*G$68/divider)^exponent,"N/A")</f>
+        <v>24.589823361054428</v>
       </c>
       <c r="H73">
-        <f t="shared" si="9"/>
-        <v>5.3730709947855786</v>
+        <f>IF(H$68&lt;2*$A73,Set_foilage_density/100*H$68*Set_light_input-($A73*H$68/divider)^exponent,"N/A")</f>
+        <v>30.559054878056912</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(I$68&lt;2*$A73,Set_foilage_density/100*I$68*Set_light_input-($A73*I$68/divider)^exponent,"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="10"/>
-        <v>0.47364612470941836</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="10"/>
-        <v>3.8457339736806588</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="10"/>
-        <v>8.0562179356509205</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="10"/>
-        <v>12.831111848545476</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="10"/>
-        <v>18.028509639957406</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="10"/>
-        <v>23.561867889890507</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="10"/>
-        <v>29.373070994785579</v>
-      </c>
-      <c r="R73" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-      <c r="S73" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A73,Set_foilage_density/100*J$68*Set_light_input-($A73*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>9</v>
       </c>
       <c r="B74">
-        <f t="shared" si="9"/>
-        <v>-7.5296692803493563</v>
+        <f>IF(B$68&lt;2*$A74,Set_foilage_density/100*B$68*Set_light_input-($A74*B$68/divider)^exponent,"N/A")</f>
+        <v>-2.492437173322287</v>
       </c>
       <c r="C74">
-        <f t="shared" si="9"/>
-        <v>-9.1615443376118364</v>
+        <f>IF(C$68&lt;2*$A74,Set_foilage_density/100*C$68*Set_light_input-($A74*C$68/divider)^exponent,"N/A")</f>
+        <v>-0.76642507587287412</v>
       </c>
       <c r="D74">
-        <f t="shared" si="9"/>
-        <v>-9.8640656514257188</v>
+        <f>IF(D$68&lt;2*$A74,Set_foilage_density/100*D$68*Set_light_input-($A74*D$68/divider)^exponent,"N/A")</f>
+        <v>1.8888940609859617</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
-        <v>-9.9409441544031125</v>
+        <f>IF(E$68&lt;2*$A74,Set_foilage_density/100*E$68*Set_light_input-($A74*E$68/divider)^exponent,"N/A")</f>
+        <v>5.1698293427634212</v>
       </c>
       <c r="F74">
-        <f t="shared" si="9"/>
-        <v>-9.5494813148651758</v>
+        <f>IF(F$68&lt;2*$A74,Set_foilage_density/100*F$68*Set_light_input-($A74*F$68/divider)^exponent,"N/A")</f>
+        <v>8.9190885923653695</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
-        <v>-8.7856096521749834</v>
+        <f>IF(G$68&lt;2*$A74,Set_foilage_density/100*G$68*Set_light_input-($A74*G$68/divider)^exponent,"N/A")</f>
+        <v>13.040744469723336</v>
       </c>
       <c r="H74">
-        <f t="shared" si="9"/>
-        <v>-7.7137497342277754</v>
+        <f>IF(H$68&lt;2*$A74,Set_foilage_density/100*H$68*Set_light_input-($A74*H$68/divider)^exponent,"N/A")</f>
+        <v>17.470379624245055</v>
       </c>
       <c r="I74">
-        <f t="shared" si="9"/>
-        <v>-6.3800303727618655</v>
+        <f>IF(I$68&lt;2*$A74,Set_foilage_density/100*I$68*Set_light_input-($A74*I$68/divider)^exponent,"N/A")</f>
+        <v>22.161867392269414</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="9"/>
-        <v>N/A</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="10"/>
-        <v>-2.7296692803493556</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="10"/>
-        <v>-1.1615443376118364</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="10"/>
-        <v>1.3359343485742841</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="10"/>
-        <v>4.4590558455968932</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="10"/>
-        <v>8.0505186851348185</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="10"/>
-        <v>12.014390347825014</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="10"/>
-        <v>16.286250265772225</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="10"/>
-        <v>20.819969627238152</v>
-      </c>
-      <c r="S74" t="str">
-        <f t="shared" si="10"/>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A74,Set_foilage_density/100*J$68*Set_light_input-($A74*J$68/divider)^exponent,"N/A")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10</v>
       </c>
       <c r="B75">
-        <f t="shared" si="9"/>
-        <v>-10.688521942678623</v>
+        <f>IF(B$68&lt;2*$A75,Set_foilage_density/100*B$68*Set_light_input-($A75*B$68/divider)^exponent,"N/A")</f>
+        <v>-5.6516371418766127</v>
       </c>
       <c r="C75">
-        <f t="shared" si="9"/>
-        <v>-14.099320492801198</v>
+        <f>IF(C$68&lt;2*$A75,Set_foilage_density/100*C$68*Set_light_input-($A75*C$68/divider)^exponent,"N/A")</f>
+        <v>-5.7047976032470658</v>
       </c>
       <c r="D75">
-        <f t="shared" si="9"/>
-        <v>-16.491070181519845</v>
+        <f>IF(D$68&lt;2*$A75,Set_foilage_density/100*D$68*Set_light_input-($A75*D$68/divider)^exponent,"N/A")</f>
+        <v>-4.7389581387866855</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
-        <v>-18.196794125442409</v>
+        <f>IF(E$68&lt;2*$A75,Set_foilage_density/100*E$68*Set_light_input-($A75*E$68/divider)^exponent,"N/A")</f>
+        <v>-3.0871206368255741</v>
       </c>
       <c r="F75">
-        <f t="shared" si="9"/>
-        <v>-19.38897549722482</v>
+        <f>IF(F$68&lt;2*$A75,Set_foilage_density/100*F$68*Set_light_input-($A75*F$68/divider)^exponent,"N/A")</f>
+        <v>-0.92175846730008004</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
-        <v>-20.172805592773031</v>
+        <f>IF(G$68&lt;2*$A75,Set_foilage_density/100*G$68*Set_light_input-($A75*G$68/divider)^exponent,"N/A")</f>
+        <v>1.651942518107262</v>
       </c>
       <c r="H75">
-        <f t="shared" si="9"/>
-        <v>-20.618922429987009</v>
+        <f>IF(H$68&lt;2*$A75,Set_foilage_density/100*H$68*Set_light_input-($A75*H$68/divider)^exponent,"N/A")</f>
+        <v>4.5633476715435108</v>
       </c>
       <c r="I75">
-        <f t="shared" si="9"/>
-        <v>-20.777906870471895</v>
+        <f>IF(I$68&lt;2*$A75,Set_foilage_density/100*I$68*Set_light_input-($A75*I$68/divider)^exponent,"N/A")</f>
+        <v>7.7618783738264199</v>
       </c>
       <c r="J75">
-        <f t="shared" si="9"/>
-        <v>-20.687686152213757</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="10"/>
-        <v>-5.8885219426786222</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="10"/>
-        <v>-6.0993204928011977</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="10"/>
-        <v>-5.2910701815198422</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="10"/>
-        <v>-3.7967941254424034</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="10"/>
-        <v>-1.7889754972248255</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="10"/>
-        <v>0.62719440722696618</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="10"/>
-        <v>3.3810775700129909</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="10"/>
-        <v>6.4220931295281218</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="10"/>
-        <v>9.7123138477862483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(J$68&lt;2*$A75,Set_foilage_density/100*J$68*Set_light_input-($A75*J$68/divider)^exponent,"N/A")</f>
+        <v>11.209608958440725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B77">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>38</v>
+        <f>ROUND(LOG(190)/(LOG(190)-LOG(B76))*0.99,4)</f>
+        <v>0.87450000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>190</v>
       </c>
       <c r="B78">
-        <f>LOG(190)/(LOG(190)-LOG(B77))*0.99</f>
-        <v>0.87447880043187665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>190</v>
-      </c>
-      <c r="B79">
-        <f>(190/B77)^B78</f>
-        <v>180.28768615221375</v>
+        <f>(190/B76)^B77</f>
+        <v>180.31039104155926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82">
+        <f>F82</f>
+        <v>50</v>
+      </c>
+      <c r="E82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <f>$F$82*$F$83*A83/100</f>
+        <v>2.5</v>
+      </c>
+      <c r="C83">
+        <f>F$82*(1-F$83/100)^A83</f>
+        <v>47.5</v>
+      </c>
+      <c r="D83">
+        <f>C82*F$83/8</f>
+        <v>31.25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f>$F$82*$F$83*A84/100</f>
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:C102" si="3">F$82*(1-F$83/100)^A84</f>
+        <v>45.125</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:D102" si="4">C83*F$83/8</f>
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <f>$F$82*$F$83*A85/100</f>
+        <v>7.5</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>42.868749999999991</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>28.203125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <f>$F$82*$F$83*A86/100</f>
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>40.725312500000001</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>26.792968749999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <f>$F$82*$F$83*A87/100</f>
+        <v>12.5</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>38.689046875000003</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>25.453320312500001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <f>$F$82*$F$83*A88/100</f>
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>36.754594531249992</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>24.180654296875002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <f>$F$82*$F$83*A89/100</f>
+        <v>17.5</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>34.916864804687499</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>22.971621582031247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <f>$F$82*$F$83*A90/100</f>
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>33.17102156445312</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>21.823040502929686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <f>$F$82*$F$83*A91/100</f>
+        <v>22.5</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>31.512470486230466</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>20.731888477783201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <f>$F$82*$F$83*A92/100</f>
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>29.936846961918945</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>19.695294053894042</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93">
+        <f>$F$82*$F$83*A93/100</f>
+        <v>27.5</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>28.440004613822996</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>18.710529351199341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <f>$F$82*$F$83*A94/100</f>
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>27.018004383131846</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>17.775002883639374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <f>$F$82*$F$83*A95/100</f>
+        <v>32.5</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>25.667104163975253</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>16.886252739457404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <f>$F$82*$F$83*A96/100</f>
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>24.38374895577649</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>16.041940102484531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <f>$F$82*$F$83*A97/100</f>
+        <v>37.5</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>23.164561507987667</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>15.239843097360307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <f>$F$82*$F$83*A98/100</f>
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>22.006333432588281</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>14.477850942492292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <f>$F$82*$F$83*A99/100</f>
+        <v>42.5</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>20.906016760958867</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>13.753958395367675</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <f>$F$82*$F$83*A100/100</f>
+        <v>45</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>19.860715922910924</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>13.066260475599291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <f>$F$82*$F$83*A101/100</f>
+        <v>47.5</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>18.867680126765375</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>12.412947451819328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <f>$F$82*$F$83*A102/100</f>
+        <v>50</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>17.924296120427108</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>11.79230007922836</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B60:I64">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2490,25 +2810,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:J75">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:S75">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:S75">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:S75">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67">
+      <formula1>"8,10,12"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67">
+      <formula1>C26:C31</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2517,12 +2855,149 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2530,12 +3005,462 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>68</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/game_design/TreeWars_balancing.xlsx
+++ b/game_design/TreeWars_balancing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t>Basics</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Tree top size water requirement</t>
   </si>
   <si>
-    <t>(size*3)</t>
-  </si>
-  <si>
     <t>Water generated:</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>The Branching level indicates how much Soil Humidity a root converts into Water every second</t>
   </si>
   <si>
-    <t>A soil hex's soil humidity is reduced when a root converts humidity into water</t>
-  </si>
-  <si>
     <t>Roots can grow into any free hex adjacent to an already existing root</t>
   </si>
   <si>
@@ -452,6 +446,30 @@
   </si>
   <si>
     <t>This chance is divided by 2 for every tree the sotrm has already hit</t>
+  </si>
+  <si>
+    <t>A tree requires (treetop_size/0,5)^0,8745 units of Energy per second</t>
+  </si>
+  <si>
+    <t>Tree top size</t>
+  </si>
+  <si>
+    <t>A soil hex's soil humidity is reduced by (branching_level)% when a root converts humidity into water</t>
+  </si>
+  <si>
+    <t>A tree requires treetop_size^1,65/10 units of Water per second</t>
+  </si>
+  <si>
+    <t>A tree's roots serve as it Water Reserve</t>
+  </si>
+  <si>
+    <t>Each root area can store 10 units of water</t>
+  </si>
+  <si>
+    <t>A tree's foilage serves as its Energy Reserve</t>
+  </si>
+  <si>
+    <t>Each treetop area can store foilage_density*2 units of Energy</t>
   </si>
 </sst>
 </file>
@@ -509,7 +527,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -858,10 +916,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,39 +1619,39 @@
         <v>0</v>
       </c>
       <c r="B50" s="2">
-        <f>$C26/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B50:J50" si="3">$C26/100*Light_units_generated_standard*B$49</f>
         <v>10.200000000000001</v>
       </c>
       <c r="C50" s="2">
-        <f>$C26/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D50" s="2">
-        <f>$C26/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="3"/>
         <v>23.800000000000004</v>
       </c>
       <c r="E50" s="2">
-        <f>$C26/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="3"/>
         <v>30.6</v>
       </c>
       <c r="F50" s="2">
-        <f>$C26/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="3"/>
         <v>37.400000000000006</v>
       </c>
       <c r="G50" s="2">
-        <f>$C26/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="3"/>
         <v>44.2</v>
       </c>
       <c r="H50" s="2">
-        <f>$C26/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="3"/>
         <v>51.000000000000007</v>
       </c>
       <c r="I50" s="2">
-        <f>$C26/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="3"/>
         <v>57.800000000000004</v>
       </c>
       <c r="J50" s="2">
-        <f>$C26/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="3"/>
         <v>64.600000000000009</v>
       </c>
     </row>
@@ -1602,39 +1660,39 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <f>$C27/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B51:J51" si="4">$C27/100*Light_units_generated_standard*B$49</f>
         <v>20.400000000000002</v>
       </c>
       <c r="C51" s="2">
-        <f>$C27/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D51" s="2">
-        <f>$C27/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="4"/>
         <v>47.600000000000009</v>
       </c>
       <c r="E51" s="2">
-        <f>$C27/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="4"/>
         <v>61.2</v>
       </c>
       <c r="F51" s="2">
-        <f>$C27/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="4"/>
         <v>74.800000000000011</v>
       </c>
       <c r="G51" s="2">
-        <f>$C27/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="4"/>
         <v>88.4</v>
       </c>
       <c r="H51" s="2">
-        <f>$C27/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="4"/>
         <v>102.00000000000001</v>
       </c>
       <c r="I51" s="2">
-        <f>$C27/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="4"/>
         <v>115.60000000000001</v>
       </c>
       <c r="J51" s="2">
-        <f>$C27/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="4"/>
         <v>129.20000000000002</v>
       </c>
     </row>
@@ -1643,39 +1701,39 @@
         <v>2</v>
       </c>
       <c r="B52" s="2">
-        <f>$C28/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B52:J52" si="5">$C28/100*Light_units_generated_standard*B$49</f>
         <v>22.799999999999997</v>
       </c>
       <c r="C52" s="2">
-        <f>$C28/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D52" s="2">
-        <f>$C28/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="5"/>
         <v>53.199999999999996</v>
       </c>
       <c r="E52" s="2">
-        <f>$C28/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="5"/>
         <v>68.399999999999991</v>
       </c>
       <c r="F52" s="2">
-        <f>$C28/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="5"/>
         <v>83.6</v>
       </c>
       <c r="G52" s="2">
-        <f>$C28/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="5"/>
         <v>98.8</v>
       </c>
       <c r="H52" s="2">
-        <f>$C28/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="I52" s="2">
-        <f>$C28/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="5"/>
         <v>129.19999999999999</v>
       </c>
       <c r="J52" s="2">
-        <f>$C28/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="5"/>
         <v>144.4</v>
       </c>
     </row>
@@ -1684,39 +1742,39 @@
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <f>$C29/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B53:J53" si="6">$C29/100*Light_units_generated_standard*B$49</f>
         <v>25.200000000000003</v>
       </c>
       <c r="C53" s="2">
-        <f>$C29/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D53" s="2">
-        <f>$C29/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="6"/>
         <v>58.800000000000004</v>
       </c>
       <c r="E53" s="2">
-        <f>$C29/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="6"/>
         <v>75.600000000000009</v>
       </c>
       <c r="F53" s="2">
-        <f>$C29/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="6"/>
         <v>92.4</v>
       </c>
       <c r="G53" s="2">
-        <f>$C29/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="6"/>
         <v>109.2</v>
       </c>
       <c r="H53" s="2">
-        <f>$C29/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="I53" s="2">
-        <f>$C29/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="6"/>
         <v>142.80000000000001</v>
       </c>
       <c r="J53" s="2">
-        <f>$C29/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="6"/>
         <v>159.6</v>
       </c>
     </row>
@@ -1725,39 +1783,39 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <f>$C30/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B54:J54" si="7">$C30/100*Light_units_generated_standard*B$49</f>
         <v>27.6</v>
       </c>
       <c r="C54" s="2">
-        <f>$C30/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="7"/>
         <v>46.000000000000007</v>
       </c>
       <c r="D54" s="2">
-        <f>$C30/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="7"/>
         <v>64.400000000000006</v>
       </c>
       <c r="E54" s="2">
-        <f>$C30/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="7"/>
         <v>82.800000000000011</v>
       </c>
       <c r="F54" s="2">
-        <f>$C30/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="7"/>
         <v>101.20000000000002</v>
       </c>
       <c r="G54" s="2">
-        <f>$C30/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="7"/>
         <v>119.60000000000001</v>
       </c>
       <c r="H54" s="2">
-        <f>$C30/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="7"/>
         <v>138.00000000000003</v>
       </c>
       <c r="I54" s="2">
-        <f>$C30/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="7"/>
         <v>156.4</v>
       </c>
       <c r="J54" s="2">
-        <f>$C30/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="7"/>
         <v>174.8</v>
       </c>
     </row>
@@ -1766,39 +1824,39 @@
         <v>5</v>
       </c>
       <c r="B55" s="2">
-        <f>$C31/100*Light_units_generated_standard*B$49</f>
+        <f t="shared" ref="B55:J55" si="8">$C31/100*Light_units_generated_standard*B$49</f>
         <v>30</v>
       </c>
       <c r="C55" s="2">
-        <f>$C31/100*Light_units_generated_standard*C$49</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="D55" s="2">
-        <f>$C31/100*Light_units_generated_standard*D$49</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="E55" s="2">
-        <f>$C31/100*Light_units_generated_standard*E$49</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="F55" s="2">
-        <f>$C31/100*Light_units_generated_standard*F$49</f>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="G55" s="2">
-        <f>$C31/100*Light_units_generated_standard*G$49</f>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="H55" s="2">
-        <f>$C31/100*Light_units_generated_standard*H$49</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="I55" s="2">
-        <f>$C31/100*Light_units_generated_standard*I$49</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="J55" s="2">
-        <f>$C31/100*Light_units_generated_standard*J$49</f>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
     </row>
@@ -1861,35 +1919,35 @@
         <v>0</v>
       </c>
       <c r="B60" s="2">
-        <f>(B$59*$C26-(B$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" ref="B60:I64" si="9">(B$59*$C26-(B$59-2)*$C27)/100*Light_units_generated_standard</f>
         <v>-3.4000000000000004</v>
       </c>
       <c r="C60" s="2">
-        <f>(C$59*$C26-(C$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-10.199999999999999</v>
       </c>
       <c r="D60" s="2">
-        <f>(D$59*$C26-(D$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-17</v>
       </c>
       <c r="E60" s="2">
-        <f>(E$59*$C26-(E$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-23.799999999999997</v>
       </c>
       <c r="F60" s="2">
-        <f>(F$59*$C26-(F$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-30.6</v>
       </c>
       <c r="G60" s="2">
-        <f>(G$59*$C26-(G$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-37.400000000000006</v>
       </c>
       <c r="H60" s="2">
-        <f>(H$59*$C26-(H$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-44.2</v>
       </c>
       <c r="I60" s="2">
-        <f>(I$59*$C26-(I$59-2)*$C27)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>-51</v>
       </c>
       <c r="J60" s="2"/>
@@ -1899,35 +1957,35 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <f>(B$59*$C27-(B$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="C61" s="2">
-        <f>(C$59*$C27-(C$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="D61" s="2">
-        <f>(D$59*$C27-(D$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E61" s="2">
-        <f>(E$59*$C27-(E$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>6.4</v>
       </c>
       <c r="F61" s="2">
-        <f>(F$59*$C27-(F$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="G61" s="2">
-        <f>(G$59*$C27-(G$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="H61" s="2">
-        <f>(H$59*$C27-(H$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="I61" s="2">
-        <f>(I$59*$C27-(I$59-2)*$C28)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J61" s="2"/>
@@ -1937,35 +1995,35 @@
         <v>2</v>
       </c>
       <c r="B62" s="2">
-        <f>(B$59*$C28-(B$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="C62" s="2">
-        <f>(C$59*$C28-(C$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="D62" s="2">
-        <f>(D$59*$C28-(D$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="E62" s="2">
-        <f>(E$59*$C28-(E$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="F62" s="2">
-        <f>(F$59*$C28-(F$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>6.4</v>
       </c>
       <c r="G62" s="2">
-        <f>(G$59*$C28-(G$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="H62" s="2">
-        <f>(H$59*$C28-(H$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="I62" s="2">
-        <f>(I$59*$C28-(I$59-2)*$C29)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="J62" s="2"/>
@@ -1975,35 +2033,35 @@
         <v>3</v>
       </c>
       <c r="B63" s="2">
-        <f>(B$59*$C29-(B$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>14.399999999999999</v>
       </c>
       <c r="C63" s="2">
-        <f>(C$59*$C29-(C$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="D63" s="2">
-        <f>(D$59*$C29-(D$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="E63" s="2">
-        <f>(E$59*$C29-(E$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="F63" s="2">
-        <f>(F$59*$C29-(F$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G63" s="2">
-        <f>(G$59*$C29-(G$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>6.4</v>
       </c>
       <c r="H63" s="2">
-        <f>(H$59*$C29-(H$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="I63" s="2">
-        <f>(I$59*$C29-(I$59-2)*$C30)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
       <c r="J63" s="2"/>
@@ -2013,35 +2071,35 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <f>(B$59*$C30-(B$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C64" s="2">
-        <f>(C$59*$C30-(C$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>14.399999999999999</v>
       </c>
       <c r="D64" s="2">
-        <f>(D$59*$C30-(D$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>12.8</v>
       </c>
       <c r="E64" s="2">
-        <f>(E$59*$C30-(E$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>11.200000000000001</v>
       </c>
       <c r="F64" s="2">
-        <f>(F$59*$C30-(F$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="G64" s="2">
-        <f>(G$59*$C30-(G$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="H64" s="2">
-        <f>(H$59*$C30-(H$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>6.4</v>
       </c>
       <c r="I64" s="2">
-        <f>(I$59*$C30-(I$59-2)*$C31)/100*Light_units_generated_standard</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="J64" s="2"/>
@@ -2116,39 +2174,39 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <f>IF(B$68&lt;2*$A69,Set_foilage_density/100*B$68*Set_light_input-($A69*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" ref="B69:J75" si="10">IF(B$68&lt;2*$A69,Set_foilage_density/100*B$68*Set_light_input-($A69*B$68/divider)^exponent,"N/A")</f>
         <v>14.133739060297231</v>
       </c>
       <c r="C69">
-        <f>IF(C$68&lt;2*$A69,Set_foilage_density/100*C$68*Set_light_input-($A69*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>25.223145943577325</v>
       </c>
       <c r="D69">
-        <f>IF(D$68&lt;2*$A69,Set_foilage_density/100*D$68*Set_light_input-($A69*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>36.76982588570651</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(E$68&lt;2*$A69,Set_foilage_density/100*E$68*Set_light_input-($A69*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(F$68&lt;2*$A69,Set_foilage_density/100*F$68*Set_light_input-($A69*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(G$68&lt;2*$A69,Set_foilage_density/100*G$68*Set_light_input-($A69*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="H69" t="str">
-        <f>IF(H$68&lt;2*$A69,Set_foilage_density/100*H$68*Set_light_input-($A69*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(I$68&lt;2*$A69,Set_foilage_density/100*I$68*Set_light_input-($A69*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="J69" t="str">
-        <f>IF(J$68&lt;2*$A69,Set_foilage_density/100*J$68*Set_light_input-($A69*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2157,39 +2215,39 @@
         <v>5</v>
       </c>
       <c r="B70">
-        <f>IF(B$68&lt;2*$A70,Set_foilage_density/100*B$68*Set_light_input-($A70*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>10.663162440087536</v>
       </c>
       <c r="C70">
-        <f>IF(C$68&lt;2*$A70,Set_foilage_density/100*C$68*Set_light_input-($A70*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>19.798038192885137</v>
       </c>
       <c r="D70">
-        <f>IF(D$68&lt;2*$A70,Set_foilage_density/100*D$68*Set_light_input-($A70*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>29.488720189424008</v>
       </c>
       <c r="E70">
-        <f>IF(E$68&lt;2*$A70,Set_foilage_density/100*E$68*Set_light_input-($A70*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>39.553574924127119</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(F$68&lt;2*$A70,Set_foilage_density/100*F$68*Set_light_input-($A70*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(G$68&lt;2*$A70,Set_foilage_density/100*G$68*Set_light_input-($A70*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="H70" t="str">
-        <f>IF(H$68&lt;2*$A70,Set_foilage_density/100*H$68*Set_light_input-($A70*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(I$68&lt;2*$A70,Set_foilage_density/100*I$68*Set_light_input-($A70*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="J70" t="str">
-        <f>IF(J$68&lt;2*$A70,Set_foilage_density/100*J$68*Set_light_input-($A70*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2198,39 +2256,39 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <f>IF(B$68&lt;2*$A71,Set_foilage_density/100*B$68*Set_light_input-($A71*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>7.2792253112845628</v>
       </c>
       <c r="C71">
-        <f>IF(C$68&lt;2*$A71,Set_foilage_density/100*C$68*Set_light_input-($A71*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>14.508362858123391</v>
       </c>
       <c r="D71">
-        <f>IF(D$68&lt;2*$A71,Set_foilage_density/100*D$68*Set_light_input-($A71*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>22.389380050695053</v>
       </c>
       <c r="E71">
-        <f>IF(E$68&lt;2*$A71,Set_foilage_density/100*E$68*Set_light_input-($A71*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>30.709247282725549</v>
       </c>
       <c r="F71">
-        <f>IF(F$68&lt;2*$A71,Set_foilage_density/100*F$68*Set_light_input-($A71*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>39.357629041480976</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(G$68&lt;2*$A71,Set_foilage_density/100*G$68*Set_light_input-($A71*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="H71" t="str">
-        <f>IF(H$68&lt;2*$A71,Set_foilage_density/100*H$68*Set_light_input-($A71*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(I$68&lt;2*$A71,Set_foilage_density/100*I$68*Set_light_input-($A71*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="J71" t="str">
-        <f>IF(J$68&lt;2*$A71,Set_foilage_density/100*J$68*Set_light_input-($A71*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2239,39 +2297,39 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <f>IF(B$68&lt;2*$A72,Set_foilage_density/100*B$68*Set_light_input-($A72*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>3.9656788209434417</v>
       </c>
       <c r="C72">
-        <f>IF(C$68&lt;2*$A72,Set_foilage_density/100*C$68*Set_light_input-($A72*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>9.3287201894240113</v>
       </c>
       <c r="D72">
-        <f>IF(D$68&lt;2*$A72,Set_foilage_density/100*D$68*Set_light_input-($A72*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>15.437716144118653</v>
       </c>
       <c r="E72">
-        <f>IF(E$68&lt;2*$A72,Set_foilage_density/100*E$68*Set_light_input-($A72*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>22.048894060985958</v>
       </c>
       <c r="F72">
-        <f>IF(F$68&lt;2*$A72,Set_foilage_density/100*F$68*Set_light_input-($A72*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>29.035995538977545</v>
       </c>
       <c r="G72">
-        <f>IF(G$68&lt;2*$A72,Set_foilage_density/100*G$68*Set_light_input-($A72*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>36.322019720214584</v>
       </c>
       <c r="H72" t="str">
-        <f>IF(H$68&lt;2*$A72,Set_foilage_density/100*H$68*Set_light_input-($A72*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(I$68&lt;2*$A72,Set_foilage_density/100*I$68*Set_light_input-($A72*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="J72" t="str">
-        <f>IF(J$68&lt;2*$A72,Set_foilage_density/100*J$68*Set_light_input-($A72*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2280,39 +2338,39 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <f>IF(B$68&lt;2*$A73,Set_foilage_density/100*B$68*Set_light_input-($A73*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>0.71122286267887347</v>
       </c>
       <c r="C73">
-        <f>IF(C$68&lt;2*$A73,Set_foilage_density/100*C$68*Set_light_input-($A73*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>4.2414461783403894</v>
       </c>
       <c r="D73">
-        <f>IF(D$68&lt;2*$A73,Set_foilage_density/100*D$68*Set_light_input-($A73*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>8.6100213806505721</v>
       </c>
       <c r="E73">
-        <f>IF(E$68&lt;2*$A73,Set_foilage_density/100*E$68*Set_light_input-($A73*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>13.542981068570242</v>
       </c>
       <c r="F73">
-        <f>IF(F$68&lt;2*$A73,Set_foilage_density/100*F$68*Set_light_input-($A73*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>18.898427905880382</v>
       </c>
       <c r="G73">
-        <f>IF(G$68&lt;2*$A73,Set_foilage_density/100*G$68*Set_light_input-($A73*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>24.589823361054428</v>
       </c>
       <c r="H73">
-        <f>IF(H$68&lt;2*$A73,Set_foilage_density/100*H$68*Set_light_input-($A73*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>30.559054878056912</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(I$68&lt;2*$A73,Set_foilage_density/100*I$68*Set_light_input-($A73*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
       <c r="J73" t="str">
-        <f>IF(J$68&lt;2*$A73,Set_foilage_density/100*J$68*Set_light_input-($A73*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2321,39 +2379,39 @@
         <v>9</v>
       </c>
       <c r="B74">
-        <f>IF(B$68&lt;2*$A74,Set_foilage_density/100*B$68*Set_light_input-($A74*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-2.492437173322287</v>
       </c>
       <c r="C74">
-        <f>IF(C$68&lt;2*$A74,Set_foilage_density/100*C$68*Set_light_input-($A74*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-0.76642507587287412</v>
       </c>
       <c r="D74">
-        <f>IF(D$68&lt;2*$A74,Set_foilage_density/100*D$68*Set_light_input-($A74*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>1.8888940609859617</v>
       </c>
       <c r="E74">
-        <f>IF(E$68&lt;2*$A74,Set_foilage_density/100*E$68*Set_light_input-($A74*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>5.1698293427634212</v>
       </c>
       <c r="F74">
-        <f>IF(F$68&lt;2*$A74,Set_foilage_density/100*F$68*Set_light_input-($A74*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>8.9190885923653695</v>
       </c>
       <c r="G74">
-        <f>IF(G$68&lt;2*$A74,Set_foilage_density/100*G$68*Set_light_input-($A74*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>13.040744469723336</v>
       </c>
       <c r="H74">
-        <f>IF(H$68&lt;2*$A74,Set_foilage_density/100*H$68*Set_light_input-($A74*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>17.470379624245055</v>
       </c>
       <c r="I74">
-        <f>IF(I$68&lt;2*$A74,Set_foilage_density/100*I$68*Set_light_input-($A74*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>22.161867392269414</v>
       </c>
       <c r="J74" t="str">
-        <f>IF(J$68&lt;2*$A74,Set_foilage_density/100*J$68*Set_light_input-($A74*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>N/A</v>
       </c>
     </row>
@@ -2362,39 +2420,39 @@
         <v>10</v>
       </c>
       <c r="B75">
-        <f>IF(B$68&lt;2*$A75,Set_foilage_density/100*B$68*Set_light_input-($A75*B$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-5.6516371418766127</v>
       </c>
       <c r="C75">
-        <f>IF(C$68&lt;2*$A75,Set_foilage_density/100*C$68*Set_light_input-($A75*C$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-5.7047976032470658</v>
       </c>
       <c r="D75">
-        <f>IF(D$68&lt;2*$A75,Set_foilage_density/100*D$68*Set_light_input-($A75*D$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-4.7389581387866855</v>
       </c>
       <c r="E75">
-        <f>IF(E$68&lt;2*$A75,Set_foilage_density/100*E$68*Set_light_input-($A75*E$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-3.0871206368255741</v>
       </c>
       <c r="F75">
-        <f>IF(F$68&lt;2*$A75,Set_foilage_density/100*F$68*Set_light_input-($A75*F$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>-0.92175846730008004</v>
       </c>
       <c r="G75">
-        <f>IF(G$68&lt;2*$A75,Set_foilage_density/100*G$68*Set_light_input-($A75*G$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>1.651942518107262</v>
       </c>
       <c r="H75">
-        <f>IF(H$68&lt;2*$A75,Set_foilage_density/100*H$68*Set_light_input-($A75*H$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>4.5633476715435108</v>
       </c>
       <c r="I75">
-        <f>IF(I$68&lt;2*$A75,Set_foilage_density/100*I$68*Set_light_input-($A75*I$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>7.7618783738264199</v>
       </c>
       <c r="J75">
-        <f>IF(J$68&lt;2*$A75,Set_foilage_density/100*J$68*Set_light_input-($A75*J$68/divider)^exponent,"N/A")</f>
+        <f t="shared" si="10"/>
         <v>11.209608958440725</v>
       </c>
     </row>
@@ -2447,22 +2505,22 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <f>$F$82*$F$83*A83/100</f>
-        <v>2.5</v>
+        <f t="shared" ref="B83:B102" si="11">$F$82*$F$83*A83/100</f>
+        <v>0.5</v>
       </c>
       <c r="C83">
         <f>F$82*(1-F$83/100)^A83</f>
-        <v>47.5</v>
+        <v>49.5</v>
       </c>
       <c r="D83">
         <f>C82*F$83/8</f>
-        <v>31.25</v>
+        <v>6.25</v>
       </c>
       <c r="E83" t="s">
         <v>76</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,16 +2528,16 @@
         <v>2</v>
       </c>
       <c r="B84">
-        <f>$F$82*$F$83*A84/100</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C102" si="3">F$82*(1-F$83/100)^A84</f>
-        <v>45.125</v>
+        <f t="shared" ref="C84:C102" si="12">F$82*(1-F$83/100)^A84</f>
+        <v>49.004999999999995</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84:D102" si="4">C83*F$83/8</f>
-        <v>29.6875</v>
+        <f t="shared" ref="D84:D102" si="13">C83*F$83/8</f>
+        <v>6.1875</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,16 +2545,16 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <f>$F$82*$F$83*A85/100</f>
-        <v>7.5</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
-        <v>42.868749999999991</v>
+        <f t="shared" si="12"/>
+        <v>48.514949999999999</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
-        <v>28.203125</v>
+        <f t="shared" si="13"/>
+        <v>6.1256249999999994</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,16 +2562,16 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <f>$F$82*$F$83*A86/100</f>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
-        <v>40.725312500000001</v>
+        <f t="shared" si="12"/>
+        <v>48.0298005</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
-        <v>26.792968749999993</v>
+        <f t="shared" si="13"/>
+        <v>6.0643687499999999</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,16 +2579,16 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <f>$F$82*$F$83*A87/100</f>
-        <v>12.5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
-        <v>38.689046875000003</v>
+        <f t="shared" si="12"/>
+        <v>47.549502494999999</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
-        <v>25.453320312500001</v>
+        <f t="shared" si="13"/>
+        <v>6.0037250625</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2538,16 +2596,16 @@
         <v>6</v>
       </c>
       <c r="B88">
-        <f>$F$82*$F$83*A88/100</f>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
-        <v>36.754594531249992</v>
+        <f t="shared" si="12"/>
+        <v>47.074007470049992</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
-        <v>24.180654296875002</v>
+        <f t="shared" si="13"/>
+        <v>5.9436878118749998</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,16 +2613,16 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <f>$F$82*$F$83*A89/100</f>
-        <v>17.5</v>
+        <f t="shared" si="11"/>
+        <v>3.5</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
-        <v>34.916864804687499</v>
+        <f t="shared" si="12"/>
+        <v>46.603267395349498</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
-        <v>22.971621582031247</v>
+        <f t="shared" si="13"/>
+        <v>5.884250933756249</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2572,16 +2630,16 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <f>$F$82*$F$83*A90/100</f>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
-        <v>33.17102156445312</v>
+        <f t="shared" si="12"/>
+        <v>46.137234721395998</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
-        <v>21.823040502929686</v>
+        <f t="shared" si="13"/>
+        <v>5.8254084244186872</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,16 +2647,16 @@
         <v>9</v>
       </c>
       <c r="B91">
-        <f>$F$82*$F$83*A91/100</f>
-        <v>22.5</v>
+        <f t="shared" si="11"/>
+        <v>4.5</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
-        <v>31.512470486230466</v>
+        <f t="shared" si="12"/>
+        <v>45.675862374182039</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
-        <v>20.731888477783201</v>
+        <f t="shared" si="13"/>
+        <v>5.7671543401744998</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,16 +2664,16 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <f>$F$82*$F$83*A92/100</f>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
-        <v>29.936846961918945</v>
+        <f t="shared" si="12"/>
+        <v>45.219103750440212</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
-        <v>19.695294053894042</v>
+        <f t="shared" si="13"/>
+        <v>5.7094827967727548</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2623,16 +2681,16 @@
         <v>11</v>
       </c>
       <c r="B93">
-        <f>$F$82*$F$83*A93/100</f>
-        <v>27.5</v>
+        <f t="shared" si="11"/>
+        <v>5.5</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
-        <v>28.440004613822996</v>
+        <f t="shared" si="12"/>
+        <v>44.766912712935813</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
-        <v>18.710529351199341</v>
+        <f t="shared" si="13"/>
+        <v>5.6523879688050265</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,16 +2698,16 @@
         <v>12</v>
       </c>
       <c r="B94">
-        <f>$F$82*$F$83*A94/100</f>
-        <v>30</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
-        <v>27.018004383131846</v>
+        <f t="shared" si="12"/>
+        <v>44.319243585806454</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
-        <v>17.775002883639374</v>
+        <f t="shared" si="13"/>
+        <v>5.5958640891169766</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2657,16 +2715,16 @@
         <v>13</v>
       </c>
       <c r="B95">
-        <f>$F$82*$F$83*A95/100</f>
-        <v>32.5</v>
+        <f t="shared" si="11"/>
+        <v>6.5</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
-        <v>25.667104163975253</v>
+        <f t="shared" si="12"/>
+        <v>43.876051149948388</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
-        <v>16.886252739457404</v>
+        <f t="shared" si="13"/>
+        <v>5.5399054482258068</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,131 +2732,4021 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <f>$F$82*$F$83*A96/100</f>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
-        <v>24.38374895577649</v>
+        <f t="shared" si="12"/>
+        <v>43.437290638448907</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
-        <v>16.041940102484531</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.4845063937435485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>15</v>
       </c>
       <c r="B97">
-        <f>$F$82*$F$83*A97/100</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>7.5</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
-        <v>23.164561507987667</v>
+        <f t="shared" si="12"/>
+        <v>43.002917732064418</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
-        <v>15.239843097360307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.4296613298061134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
       <c r="B98">
-        <f>$F$82*$F$83*A98/100</f>
-        <v>40</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
-        <v>22.006333432588281</v>
+        <f t="shared" si="12"/>
+        <v>42.57288855474377</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
-        <v>14.477850942492292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.3753647165080523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>17</v>
       </c>
       <c r="B99">
-        <f>$F$82*$F$83*A99/100</f>
-        <v>42.5</v>
+        <f t="shared" si="11"/>
+        <v>8.5</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
-        <v>20.906016760958867</v>
+        <f t="shared" si="12"/>
+        <v>42.147159669196334</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
-        <v>13.753958395367675</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.3216110693429712</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18</v>
       </c>
       <c r="B100">
-        <f>$F$82*$F$83*A100/100</f>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
-        <v>19.860715922910924</v>
+        <f t="shared" si="12"/>
+        <v>41.725688072504369</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
-        <v>13.066260475599291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.2683949586495418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>19</v>
       </c>
       <c r="B101">
-        <f>$F$82*$F$83*A101/100</f>
-        <v>47.5</v>
+        <f t="shared" si="11"/>
+        <v>9.5</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
-        <v>18.867680126765375</v>
+        <f t="shared" si="12"/>
+        <v>41.30843119177932</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
-        <v>12.412947451819328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.2157110090630461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
       <c r="B102">
-        <f>$F$82*$F$83*A102/100</f>
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
-        <v>17.924296120427108</v>
+        <f t="shared" si="12"/>
+        <v>40.895346879861535</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
-        <v>11.79230007922836</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.163553898972415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>12</v>
+      </c>
+      <c r="M106">
+        <v>13</v>
+      </c>
+      <c r="N106">
+        <v>14</v>
+      </c>
+      <c r="O106">
+        <v>15</v>
+      </c>
+      <c r="P106">
+        <v>16</v>
+      </c>
+      <c r="Q106">
+        <v>17</v>
+      </c>
+      <c r="R106">
+        <v>18</v>
+      </c>
+      <c r="S106">
+        <v>19</v>
+      </c>
+      <c r="T106">
+        <v>20</v>
+      </c>
+      <c r="U106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107">
+        <f>B$106*$F$82*$F$83/8-$A107^1.65/10</f>
+        <v>6.4653921137597994</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:V120" si="14">C$106*$F$82*$F$83/8-$A107^1.65/10</f>
+        <v>12.715392113759799</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="14"/>
+        <v>18.965392113759798</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="14"/>
+        <v>25.215392113759798</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="14"/>
+        <v>31.465392113759798</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="14"/>
+        <v>37.715392113759798</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="14"/>
+        <v>43.965392113759798</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="14"/>
+        <v>50.215392113759798</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="14"/>
+        <v>56.465392113759798</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="14"/>
+        <v>62.715392113759798</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="14"/>
+        <v>68.965392113759805</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="14"/>
+        <v>75.215392113759805</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="14"/>
+        <v>81.465392113759805</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="14"/>
+        <v>87.715392113759805</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="14"/>
+        <v>93.965392113759805</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="14"/>
+        <v>100.2153921137598</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="14"/>
+        <v>106.4653921137598</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="14"/>
+        <v>112.7153921137598</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="14"/>
+        <v>118.9653921137598</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="14"/>
+        <v>118.9653921137598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108:Q151" si="15">B$106*$F$82*$F$83/8-$A108^1.65/10</f>
+        <v>2.7994139743334561</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="15"/>
+        <v>9.0494139743334561</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="15"/>
+        <v>15.299413974333456</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="15"/>
+        <v>21.549413974333454</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="15"/>
+        <v>27.799413974333454</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="15"/>
+        <v>34.049413974333454</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="15"/>
+        <v>40.299413974333454</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="15"/>
+        <v>46.549413974333454</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="15"/>
+        <v>52.799413974333454</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="15"/>
+        <v>59.049413974333454</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="15"/>
+        <v>65.299413974333461</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="15"/>
+        <v>71.549413974333461</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="15"/>
+        <v>77.799413974333461</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="15"/>
+        <v>84.049413974333461</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="15"/>
+        <v>90.299413974333461</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="15"/>
+        <v>96.549413974333461</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="14"/>
+        <v>102.79941397433346</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="14"/>
+        <v>109.04941397433346</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="14"/>
+        <v>115.29941397433346</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="14"/>
+        <v>115.29941397433346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="15"/>
+        <v>-1.5184337277217388</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="14"/>
+        <v>4.7315662722782612</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="14"/>
+        <v>10.981566272278261</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="14"/>
+        <v>17.231566272278261</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="14"/>
+        <v>23.481566272278261</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="14"/>
+        <v>29.731566272278261</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="14"/>
+        <v>35.981566272278258</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="14"/>
+        <v>42.231566272278258</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="14"/>
+        <v>48.481566272278258</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="14"/>
+        <v>54.731566272278258</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="14"/>
+        <v>60.981566272278258</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="14"/>
+        <v>67.231566272278258</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="14"/>
+        <v>73.481566272278258</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="14"/>
+        <v>79.731566272278258</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="14"/>
+        <v>85.981566272278258</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="14"/>
+        <v>92.231566272278258</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="14"/>
+        <v>98.481566272278258</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="14"/>
+        <v>104.73156627227826</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="14"/>
+        <v>110.98156627227826</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="14"/>
+        <v>110.98156627227826</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="15"/>
+        <v>-6.4386295383455519</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="14"/>
+        <v>-0.18862953834555185</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="14"/>
+        <v>6.0613704616544481</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="14"/>
+        <v>12.311370461654448</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="14"/>
+        <v>18.561370461654448</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="14"/>
+        <v>24.811370461654448</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="14"/>
+        <v>31.061370461654448</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="14"/>
+        <v>37.311370461654448</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="14"/>
+        <v>43.561370461654448</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="14"/>
+        <v>49.811370461654448</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="14"/>
+        <v>56.061370461654448</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="14"/>
+        <v>62.311370461654448</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="14"/>
+        <v>68.561370461654448</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="14"/>
+        <v>74.811370461654448</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="14"/>
+        <v>81.061370461654448</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="14"/>
+        <v>87.311370461654448</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="14"/>
+        <v>93.561370461654448</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="14"/>
+        <v>99.811370461654448</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="14"/>
+        <v>106.06137046165445</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="14"/>
+        <v>106.06137046165445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>28</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="15"/>
+        <v>-11.923660346646535</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="14"/>
+        <v>-5.6736603466465354</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="14"/>
+        <v>0.5763396533534646</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="14"/>
+        <v>6.8263396533534646</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="14"/>
+        <v>13.076339653353465</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="14"/>
+        <v>19.326339653353465</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="14"/>
+        <v>25.576339653353465</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="14"/>
+        <v>31.826339653353465</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="14"/>
+        <v>38.076339653353465</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="14"/>
+        <v>44.326339653353465</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="14"/>
+        <v>50.576339653353465</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="14"/>
+        <v>56.826339653353465</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="14"/>
+        <v>63.076339653353465</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="14"/>
+        <v>69.326339653353472</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="14"/>
+        <v>75.576339653353472</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="14"/>
+        <v>81.826339653353472</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="14"/>
+        <v>88.076339653353472</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="14"/>
+        <v>94.326339653353472</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="14"/>
+        <v>100.57633965335347</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="14"/>
+        <v>100.57633965335347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="15"/>
+        <v>-17.94370214406964</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="14"/>
+        <v>-11.69370214406964</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="14"/>
+        <v>-5.4437021440696398</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="14"/>
+        <v>0.80629785593036019</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="14"/>
+        <v>7.0562978559303602</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="14"/>
+        <v>13.30629785593036</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="14"/>
+        <v>19.55629785593036</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="14"/>
+        <v>25.80629785593036</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="14"/>
+        <v>32.05629785593036</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="14"/>
+        <v>38.30629785593036</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="14"/>
+        <v>44.55629785593036</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="14"/>
+        <v>50.80629785593036</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="14"/>
+        <v>57.05629785593036</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="14"/>
+        <v>63.30629785593036</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="14"/>
+        <v>69.556297855930353</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="14"/>
+        <v>75.806297855930353</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="14"/>
+        <v>82.056297855930353</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="14"/>
+        <v>88.306297855930353</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="14"/>
+        <v>94.556297855930353</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="14"/>
+        <v>94.556297855930353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>36</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="15"/>
+        <v>-24.474228963249615</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="14"/>
+        <v>-18.224228963249615</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="14"/>
+        <v>-11.974228963249615</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="14"/>
+        <v>-5.7242289632496153</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="14"/>
+        <v>0.52577103675038472</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="14"/>
+        <v>6.7757710367503847</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="14"/>
+        <v>13.025771036750385</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="14"/>
+        <v>19.275771036750385</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="14"/>
+        <v>25.525771036750385</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="14"/>
+        <v>31.775771036750385</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="14"/>
+        <v>38.025771036750385</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="14"/>
+        <v>44.275771036750385</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="14"/>
+        <v>50.525771036750385</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="14"/>
+        <v>56.775771036750385</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="14"/>
+        <v>63.025771036750385</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="14"/>
+        <v>69.275771036750385</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="14"/>
+        <v>75.525771036750385</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="14"/>
+        <v>81.775771036750385</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="14"/>
+        <v>88.025771036750385</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="14"/>
+        <v>88.025771036750385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>40</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="15"/>
+        <v>-31.494560720759772</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="14"/>
+        <v>-25.244560720759772</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="14"/>
+        <v>-18.994560720759772</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="14"/>
+        <v>-12.744560720759772</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="14"/>
+        <v>-6.4945607207597718</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="14"/>
+        <v>-0.24456072075977175</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="14"/>
+        <v>6.0054392792402282</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="14"/>
+        <v>12.255439279240228</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="14"/>
+        <v>18.505439279240228</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="14"/>
+        <v>24.755439279240228</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="14"/>
+        <v>31.005439279240228</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="14"/>
+        <v>37.255439279240228</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="14"/>
+        <v>43.505439279240228</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="14"/>
+        <v>49.755439279240228</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="14"/>
+        <v>56.005439279240228</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="14"/>
+        <v>62.255439279240228</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="14"/>
+        <v>68.505439279240221</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="14"/>
+        <v>74.755439279240221</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="14"/>
+        <v>81.005439279240221</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="14"/>
+        <v>81.005439279240221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>44</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="15"/>
+        <v>-38.986920419229612</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="14"/>
+        <v>-32.736920419229612</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="14"/>
+        <v>-26.486920419229612</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="14"/>
+        <v>-20.236920419229612</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="14"/>
+        <v>-13.986920419229612</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="14"/>
+        <v>-7.7369204192296124</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="14"/>
+        <v>-1.4869204192296124</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="14"/>
+        <v>4.7630795807703876</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="14"/>
+        <v>11.013079580770388</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="14"/>
+        <v>17.263079580770388</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="14"/>
+        <v>23.513079580770388</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="14"/>
+        <v>29.763079580770388</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="14"/>
+        <v>36.013079580770388</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="14"/>
+        <v>42.263079580770388</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="14"/>
+        <v>48.513079580770388</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="14"/>
+        <v>54.763079580770388</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="14"/>
+        <v>61.013079580770388</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="14"/>
+        <v>67.263079580770381</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="14"/>
+        <v>73.513079580770381</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="14"/>
+        <v>73.513079580770381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>48</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="15"/>
+        <v>-46.935790286974395</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="14"/>
+        <v>-40.685790286974395</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="14"/>
+        <v>-34.435790286974395</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="14"/>
+        <v>-28.185790286974395</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="14"/>
+        <v>-21.935790286974395</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="14"/>
+        <v>-15.685790286974395</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="14"/>
+        <v>-9.4357902869743953</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="14"/>
+        <v>-3.1857902869743953</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="14"/>
+        <v>3.0642097130256047</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="14"/>
+        <v>9.3142097130256047</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="14"/>
+        <v>15.564209713025605</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="14"/>
+        <v>21.814209713025605</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="14"/>
+        <v>28.064209713025605</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="14"/>
+        <v>34.314209713025605</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="14"/>
+        <v>40.564209713025605</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="14"/>
+        <v>46.814209713025605</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="14"/>
+        <v>53.064209713025605</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="14"/>
+        <v>59.314209713025605</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="14"/>
+        <v>65.564209713025605</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="14"/>
+        <v>65.564209713025605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>52</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="15"/>
+        <v>-55.327454232362129</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="14"/>
+        <v>-49.077454232362129</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="14"/>
+        <v>-42.827454232362129</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="14"/>
+        <v>-36.577454232362129</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="14"/>
+        <v>-30.327454232362129</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="14"/>
+        <v>-24.077454232362129</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="14"/>
+        <v>-17.827454232362129</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="14"/>
+        <v>-11.577454232362129</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="14"/>
+        <v>-5.327454232362129</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="14"/>
+        <v>0.92254576763787099</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="14"/>
+        <v>7.172545767637871</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="14"/>
+        <v>13.422545767637871</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="14"/>
+        <v>19.672545767637871</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="14"/>
+        <v>25.922545767637871</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="14"/>
+        <v>32.172545767637871</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="14"/>
+        <v>38.422545767637871</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="14"/>
+        <v>44.672545767637871</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="14"/>
+        <v>50.922545767637871</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="14"/>
+        <v>57.172545767637871</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="14"/>
+        <v>57.172545767637871</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>56</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="15"/>
+        <v>-64.14966208164131</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="14"/>
+        <v>-57.89966208164131</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="14"/>
+        <v>-51.64966208164131</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="14"/>
+        <v>-45.39966208164131</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="14"/>
+        <v>-39.14966208164131</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="14"/>
+        <v>-32.89966208164131</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="14"/>
+        <v>-26.64966208164131</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="14"/>
+        <v>-20.39966208164131</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="14"/>
+        <v>-14.14966208164131</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="14"/>
+        <v>-7.8996620816413099</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="14"/>
+        <v>-1.6496620816413099</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="14"/>
+        <v>4.6003379183586901</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="14"/>
+        <v>10.85033791835869</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="14"/>
+        <v>17.10033791835869</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="14"/>
+        <v>23.35033791835869</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="14"/>
+        <v>29.60033791835869</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="14"/>
+        <v>35.85033791835869</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="14"/>
+        <v>42.10033791835869</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="14"/>
+        <v>48.35033791835869</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="14"/>
+        <v>48.35033791835869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>60</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="15"/>
+        <v>-73.3913765609812</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="14"/>
+        <v>-67.1413765609812</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="14"/>
+        <v>-60.8913765609812</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="14"/>
+        <v>-54.6413765609812</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="14"/>
+        <v>-48.3913765609812</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="14"/>
+        <v>-42.1413765609812</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="14"/>
+        <v>-35.8913765609812</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="14"/>
+        <v>-29.6413765609812</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="14"/>
+        <v>-23.3913765609812</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="14"/>
+        <v>-17.1413765609812</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="14"/>
+        <v>-10.8913765609812</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="14"/>
+        <v>-4.6413765609812003</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="14"/>
+        <v>1.6086234390187997</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="14"/>
+        <v>7.8586234390187997</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="14"/>
+        <v>14.1086234390188</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="14"/>
+        <v>20.3586234390188</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="14"/>
+        <v>26.6086234390188</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="14"/>
+        <v>32.8586234390188</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="14"/>
+        <v>39.1086234390188</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="14"/>
+        <v>39.1086234390188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>64</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="15"/>
+        <v>-83.042578333368994</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="14"/>
+        <v>-76.792578333368994</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="14"/>
+        <v>-70.542578333368994</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="14"/>
+        <v>-64.292578333368994</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="14"/>
+        <v>-58.042578333368994</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="14"/>
+        <v>-51.792578333368994</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="14"/>
+        <v>-45.542578333368994</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="14"/>
+        <v>-39.292578333368994</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="14"/>
+        <v>-33.042578333368994</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="14"/>
+        <v>-26.792578333368994</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="14"/>
+        <v>-20.542578333368994</v>
+      </c>
+      <c r="M120">
+        <f t="shared" ref="C120:V133" si="16">M$106*$F$82*$F$83/8-$A120^1.65/10</f>
+        <v>-14.292578333368994</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="16"/>
+        <v>-8.0425783333689935</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="16"/>
+        <v>-1.7925783333689935</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="16"/>
+        <v>4.4574216666310065</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="16"/>
+        <v>10.707421666631006</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="16"/>
+        <v>16.957421666631006</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="16"/>
+        <v>23.207421666631006</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="16"/>
+        <v>29.457421666631006</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="16"/>
+        <v>29.457421666631006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>68</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="15"/>
+        <v>-93.094112887480307</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="16"/>
+        <v>-86.844112887480307</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="16"/>
+        <v>-80.594112887480307</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="16"/>
+        <v>-74.344112887480307</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="16"/>
+        <v>-68.094112887480307</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="16"/>
+        <v>-61.844112887480307</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="16"/>
+        <v>-55.594112887480307</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="16"/>
+        <v>-49.344112887480307</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="16"/>
+        <v>-43.094112887480307</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="16"/>
+        <v>-36.844112887480307</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="16"/>
+        <v>-30.594112887480307</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="16"/>
+        <v>-24.344112887480307</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="16"/>
+        <v>-18.094112887480307</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="16"/>
+        <v>-11.844112887480307</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="16"/>
+        <v>-5.594112887480307</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="16"/>
+        <v>0.65588711251969301</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="16"/>
+        <v>6.905887112519693</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="16"/>
+        <v>13.155887112519693</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="16"/>
+        <v>19.405887112519693</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="16"/>
+        <v>19.405887112519693</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>72</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="15"/>
+        <v>-103.53756830623649</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="16"/>
+        <v>-97.287568306236494</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="16"/>
+        <v>-91.037568306236494</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="16"/>
+        <v>-84.787568306236494</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="16"/>
+        <v>-78.537568306236494</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="16"/>
+        <v>-72.287568306236494</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="16"/>
+        <v>-66.037568306236494</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="16"/>
+        <v>-59.787568306236494</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="16"/>
+        <v>-53.537568306236494</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="16"/>
+        <v>-47.287568306236494</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="16"/>
+        <v>-41.037568306236494</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="16"/>
+        <v>-34.787568306236494</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="16"/>
+        <v>-28.537568306236494</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="16"/>
+        <v>-22.287568306236494</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="16"/>
+        <v>-16.037568306236494</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="16"/>
+        <v>-9.7875683062364942</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="16"/>
+        <v>-3.5375683062364942</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="16"/>
+        <v>2.7124316937635058</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="16"/>
+        <v>8.9624316937635058</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="16"/>
+        <v>8.9624316937635058</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>76</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="15"/>
+        <v>-114.36517628190953</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="16"/>
+        <v>-108.11517628190953</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="16"/>
+        <v>-101.86517628190953</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="16"/>
+        <v>-95.615176281909527</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="16"/>
+        <v>-89.365176281909527</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="16"/>
+        <v>-83.115176281909527</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="16"/>
+        <v>-76.865176281909527</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="16"/>
+        <v>-70.615176281909527</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="16"/>
+        <v>-64.365176281909527</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="16"/>
+        <v>-58.115176281909527</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="16"/>
+        <v>-51.865176281909527</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="16"/>
+        <v>-45.615176281909527</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="16"/>
+        <v>-39.365176281909527</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="16"/>
+        <v>-33.115176281909527</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="16"/>
+        <v>-26.865176281909527</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="16"/>
+        <v>-20.615176281909527</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="16"/>
+        <v>-14.365176281909527</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="16"/>
+        <v>-8.1151762819095268</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="16"/>
+        <v>-1.8651762819095268</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="16"/>
+        <v>-1.8651762819095268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="15"/>
+        <v>-125.56973094184448</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="16"/>
+        <v>-119.31973094184448</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="16"/>
+        <v>-113.06973094184448</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="16"/>
+        <v>-106.81973094184448</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="16"/>
+        <v>-100.56973094184448</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="16"/>
+        <v>-94.319730941844483</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="16"/>
+        <v>-88.069730941844483</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="16"/>
+        <v>-81.819730941844483</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="16"/>
+        <v>-75.569730941844483</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="16"/>
+        <v>-69.319730941844483</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="16"/>
+        <v>-63.069730941844483</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="16"/>
+        <v>-56.819730941844483</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="16"/>
+        <v>-50.569730941844483</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="16"/>
+        <v>-44.319730941844483</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="16"/>
+        <v>-38.069730941844483</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="16"/>
+        <v>-31.819730941844483</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="16"/>
+        <v>-25.569730941844483</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="16"/>
+        <v>-19.319730941844483</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="16"/>
+        <v>-13.069730941844483</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="16"/>
+        <v>-13.069730941844483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>84</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="15"/>
+        <v>-137.14452153330922</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="16"/>
+        <v>-130.89452153330922</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="16"/>
+        <v>-124.64452153330922</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="16"/>
+        <v>-118.39452153330922</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="16"/>
+        <v>-112.14452153330922</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="16"/>
+        <v>-105.89452153330922</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="16"/>
+        <v>-99.644521533309216</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="16"/>
+        <v>-93.394521533309216</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="16"/>
+        <v>-87.144521533309216</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="16"/>
+        <v>-80.894521533309216</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="16"/>
+        <v>-74.644521533309216</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="16"/>
+        <v>-68.394521533309216</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="16"/>
+        <v>-62.144521533309216</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="16"/>
+        <v>-55.894521533309216</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="16"/>
+        <v>-49.644521533309216</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="16"/>
+        <v>-43.394521533309216</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="16"/>
+        <v>-37.144521533309216</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="16"/>
+        <v>-30.894521533309216</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="16"/>
+        <v>-24.644521533309216</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="16"/>
+        <v>-24.644521533309216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>88</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="15"/>
+        <v>-149.08327604241236</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="16"/>
+        <v>-142.83327604241236</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="16"/>
+        <v>-136.58327604241236</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="16"/>
+        <v>-130.33327604241236</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="16"/>
+        <v>-124.08327604241236</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="16"/>
+        <v>-117.83327604241236</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="16"/>
+        <v>-111.58327604241236</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="16"/>
+        <v>-105.33327604241236</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="16"/>
+        <v>-99.083276042412365</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="16"/>
+        <v>-92.833276042412365</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="16"/>
+        <v>-86.583276042412365</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="16"/>
+        <v>-80.333276042412365</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="16"/>
+        <v>-74.083276042412365</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="16"/>
+        <v>-67.833276042412365</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="16"/>
+        <v>-61.583276042412365</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="16"/>
+        <v>-55.333276042412365</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="16"/>
+        <v>-49.083276042412365</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="16"/>
+        <v>-42.833276042412365</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="16"/>
+        <v>-36.583276042412365</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="16"/>
+        <v>-36.583276042412365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>92</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="15"/>
+        <v>-161.38011354650774</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="16"/>
+        <v>-155.13011354650774</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="16"/>
+        <v>-148.88011354650774</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="16"/>
+        <v>-142.63011354650774</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="16"/>
+        <v>-136.38011354650774</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="16"/>
+        <v>-130.13011354650774</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="16"/>
+        <v>-123.88011354650774</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="16"/>
+        <v>-117.63011354650774</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="16"/>
+        <v>-111.38011354650774</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="16"/>
+        <v>-105.13011354650774</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="16"/>
+        <v>-98.880113546507744</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="16"/>
+        <v>-92.630113546507744</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="16"/>
+        <v>-86.380113546507744</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="16"/>
+        <v>-80.130113546507744</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="16"/>
+        <v>-73.880113546507744</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="16"/>
+        <v>-67.630113546507744</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="16"/>
+        <v>-61.380113546507744</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="16"/>
+        <v>-55.130113546507744</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="16"/>
+        <v>-48.880113546507744</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="16"/>
+        <v>-48.880113546507744</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>96</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="15"/>
+        <v>-174.029503620345</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="16"/>
+        <v>-167.779503620345</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="16"/>
+        <v>-161.529503620345</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="16"/>
+        <v>-155.279503620345</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="16"/>
+        <v>-149.029503620345</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="16"/>
+        <v>-142.779503620345</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="16"/>
+        <v>-136.529503620345</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="16"/>
+        <v>-130.279503620345</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="16"/>
+        <v>-124.029503620345</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="16"/>
+        <v>-117.779503620345</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="16"/>
+        <v>-111.529503620345</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="16"/>
+        <v>-105.279503620345</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="16"/>
+        <v>-99.029503620344997</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="16"/>
+        <v>-92.779503620344997</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="16"/>
+        <v>-86.529503620344997</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="16"/>
+        <v>-80.279503620344997</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="16"/>
+        <v>-74.029503620344997</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="16"/>
+        <v>-67.779503620344997</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="16"/>
+        <v>-61.529503620344997</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="16"/>
+        <v>-61.529503620344997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>100</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="15"/>
+        <v>-187.02623149688804</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="16"/>
+        <v>-180.77623149688804</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="16"/>
+        <v>-174.52623149688804</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="16"/>
+        <v>-168.27623149688804</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="16"/>
+        <v>-162.02623149688804</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="16"/>
+        <v>-155.77623149688804</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="16"/>
+        <v>-149.52623149688804</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="16"/>
+        <v>-143.27623149688804</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="16"/>
+        <v>-137.02623149688804</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="16"/>
+        <v>-130.77623149688804</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="16"/>
+        <v>-124.52623149688804</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="16"/>
+        <v>-118.27623149688804</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="16"/>
+        <v>-112.02623149688804</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="16"/>
+        <v>-105.77623149688804</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="16"/>
+        <v>-99.526231496888045</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="16"/>
+        <v>-93.276231496888045</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="16"/>
+        <v>-87.026231496888045</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="16"/>
+        <v>-80.776231496888045</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="16"/>
+        <v>-74.526231496888045</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="16"/>
+        <v>-74.526231496888045</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>104</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="15"/>
+        <v>-200.3653679661239</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="16"/>
+        <v>-194.1153679661239</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="16"/>
+        <v>-187.8653679661239</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="16"/>
+        <v>-181.6153679661239</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="16"/>
+        <v>-175.3653679661239</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="16"/>
+        <v>-169.1153679661239</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="16"/>
+        <v>-162.8653679661239</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="16"/>
+        <v>-156.6153679661239</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="16"/>
+        <v>-150.3653679661239</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="16"/>
+        <v>-144.1153679661239</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="16"/>
+        <v>-137.8653679661239</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="16"/>
+        <v>-131.6153679661239</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="16"/>
+        <v>-125.3653679661239</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="16"/>
+        <v>-119.1153679661239</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="16"/>
+        <v>-112.8653679661239</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="16"/>
+        <v>-106.6153679661239</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="16"/>
+        <v>-100.3653679661239</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="16"/>
+        <v>-94.115367966123898</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="16"/>
+        <v>-87.865367966123898</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="16"/>
+        <v>-87.865367966123898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>108</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="15"/>
+        <v>-214.04224320754685</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="16"/>
+        <v>-207.79224320754685</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="16"/>
+        <v>-201.54224320754685</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="16"/>
+        <v>-195.29224320754685</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="16"/>
+        <v>-189.04224320754685</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="16"/>
+        <v>-182.79224320754685</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="16"/>
+        <v>-176.54224320754685</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="16"/>
+        <v>-170.29224320754685</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="16"/>
+        <v>-164.04224320754685</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="16"/>
+        <v>-157.79224320754685</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="16"/>
+        <v>-151.54224320754685</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="16"/>
+        <v>-145.29224320754685</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="16"/>
+        <v>-139.04224320754685</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="16"/>
+        <v>-132.79224320754685</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="16"/>
+        <v>-126.54224320754685</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="16"/>
+        <v>-120.29224320754685</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="16"/>
+        <v>-114.04224320754685</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="16"/>
+        <v>-107.79224320754685</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="16"/>
+        <v>-101.54224320754685</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="16"/>
+        <v>-101.54224320754685</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>112</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="15"/>
+        <v>-228.05242391366102</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="16"/>
+        <v>-221.80242391366102</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="16"/>
+        <v>-215.55242391366102</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="16"/>
+        <v>-209.30242391366102</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="16"/>
+        <v>-203.05242391366102</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="16"/>
+        <v>-196.80242391366102</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="16"/>
+        <v>-190.55242391366102</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>-184.30242391366102</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="16"/>
+        <v>-178.05242391366102</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="16"/>
+        <v>-171.80242391366102</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="16"/>
+        <v>-165.55242391366102</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="16"/>
+        <v>-159.30242391366102</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="16"/>
+        <v>-153.05242391366102</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="16"/>
+        <v>-146.80242391366102</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="16"/>
+        <v>-140.55242391366102</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="16"/>
+        <v>-134.30242391366102</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="16"/>
+        <v>-128.05242391366102</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="16"/>
+        <v>-121.80242391366102</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="16"/>
+        <v>-115.55242391366102</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="16"/>
+        <v>-115.55242391366102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>116</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="15"/>
+        <v>-242.39169318635467</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="16"/>
+        <v>-236.14169318635467</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="16"/>
+        <v>-229.89169318635467</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="16"/>
+        <v>-223.64169318635467</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="16"/>
+        <v>-217.39169318635467</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="16"/>
+        <v>-211.14169318635467</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="C133:V145" si="17">H$106*$F$82*$F$83/8-$A133^1.65/10</f>
+        <v>-204.89169318635467</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="17"/>
+        <v>-198.64169318635467</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="17"/>
+        <v>-192.39169318635467</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="17"/>
+        <v>-186.14169318635467</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="17"/>
+        <v>-179.89169318635467</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="17"/>
+        <v>-173.64169318635467</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="17"/>
+        <v>-167.39169318635467</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="17"/>
+        <v>-161.14169318635467</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="17"/>
+        <v>-154.89169318635467</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="17"/>
+        <v>-148.64169318635467</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="17"/>
+        <v>-142.39169318635467</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="17"/>
+        <v>-136.14169318635467</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="17"/>
+        <v>-129.89169318635467</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="17"/>
+        <v>-129.89169318635467</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>120</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="15"/>
+        <v>-257.05603278483039</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="17"/>
+        <v>-250.80603278483039</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="17"/>
+        <v>-244.55603278483039</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="17"/>
+        <v>-238.30603278483039</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="17"/>
+        <v>-232.05603278483039</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="17"/>
+        <v>-225.80603278483039</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="17"/>
+        <v>-219.55603278483039</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="17"/>
+        <v>-213.30603278483039</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="17"/>
+        <v>-207.05603278483039</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="17"/>
+        <v>-200.80603278483039</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="17"/>
+        <v>-194.55603278483039</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="17"/>
+        <v>-188.30603278483039</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="17"/>
+        <v>-182.05603278483039</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="17"/>
+        <v>-175.80603278483039</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="17"/>
+        <v>-169.55603278483039</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="17"/>
+        <v>-163.30603278483039</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="17"/>
+        <v>-157.05603278483039</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="17"/>
+        <v>-150.80603278483039</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="17"/>
+        <v>-144.55603278483039</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="17"/>
+        <v>-144.55603278483039</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>124</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="15"/>
+        <v>-272.04160737989019</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="17"/>
+        <v>-265.79160737989019</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="17"/>
+        <v>-259.54160737989019</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="17"/>
+        <v>-253.29160737989019</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="17"/>
+        <v>-247.04160737989019</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="17"/>
+        <v>-240.79160737989019</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="17"/>
+        <v>-234.54160737989019</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="17"/>
+        <v>-228.29160737989019</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="17"/>
+        <v>-222.04160737989019</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="17"/>
+        <v>-215.79160737989019</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="17"/>
+        <v>-209.54160737989019</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="17"/>
+        <v>-203.29160737989019</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="17"/>
+        <v>-197.04160737989019</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="17"/>
+        <v>-190.79160737989019</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="17"/>
+        <v>-184.54160737989019</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="17"/>
+        <v>-178.29160737989019</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="17"/>
+        <v>-172.04160737989019</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="17"/>
+        <v>-165.79160737989019</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="17"/>
+        <v>-159.54160737989019</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="17"/>
+        <v>-159.54160737989019</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>128</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="15"/>
+        <v>-287.34475052966371</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="17"/>
+        <v>-281.09475052966371</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="17"/>
+        <v>-274.84475052966371</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="17"/>
+        <v>-268.59475052966371</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="17"/>
+        <v>-262.34475052966371</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="17"/>
+        <v>-256.09475052966371</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="17"/>
+        <v>-249.84475052966371</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="17"/>
+        <v>-243.59475052966371</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="17"/>
+        <v>-237.34475052966371</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="17"/>
+        <v>-231.09475052966371</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="17"/>
+        <v>-224.84475052966371</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="17"/>
+        <v>-218.59475052966371</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="17"/>
+        <v>-212.34475052966371</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="17"/>
+        <v>-206.09475052966371</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="17"/>
+        <v>-199.84475052966371</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="17"/>
+        <v>-193.59475052966371</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="17"/>
+        <v>-187.34475052966371</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="17"/>
+        <v>-181.09475052966371</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="17"/>
+        <v>-174.84475052966371</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="17"/>
+        <v>-174.84475052966371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>132</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="15"/>
+        <v>-302.96195214007173</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="17"/>
+        <v>-296.71195214007173</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="17"/>
+        <v>-290.46195214007173</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="17"/>
+        <v>-284.21195214007173</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="17"/>
+        <v>-277.96195214007173</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="17"/>
+        <v>-271.71195214007173</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="17"/>
+        <v>-265.46195214007173</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="17"/>
+        <v>-259.21195214007173</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="17"/>
+        <v>-252.96195214007173</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="17"/>
+        <v>-246.71195214007173</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="17"/>
+        <v>-240.46195214007173</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="17"/>
+        <v>-234.21195214007173</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="17"/>
+        <v>-227.96195214007173</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="17"/>
+        <v>-221.71195214007173</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="17"/>
+        <v>-215.46195214007173</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="17"/>
+        <v>-209.21195214007173</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="17"/>
+        <v>-202.96195214007173</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="17"/>
+        <v>-196.71195214007173</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="17"/>
+        <v>-190.46195214007173</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="17"/>
+        <v>-190.46195214007173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="15"/>
+        <v>-318.8898472121258</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="17"/>
+        <v>-312.6398472121258</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="17"/>
+        <v>-306.3898472121258</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="17"/>
+        <v>-300.1398472121258</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="17"/>
+        <v>-293.8898472121258</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="17"/>
+        <v>-287.6398472121258</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="17"/>
+        <v>-281.3898472121258</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="17"/>
+        <v>-275.1398472121258</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="17"/>
+        <v>-268.8898472121258</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="17"/>
+        <v>-262.6398472121258</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="17"/>
+        <v>-256.3898472121258</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="17"/>
+        <v>-250.1398472121258</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="17"/>
+        <v>-243.8898472121258</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="17"/>
+        <v>-237.6398472121258</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="17"/>
+        <v>-231.3898472121258</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="17"/>
+        <v>-225.1398472121258</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="17"/>
+        <v>-218.8898472121258</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="17"/>
+        <v>-212.6398472121258</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="17"/>
+        <v>-206.3898472121258</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="17"/>
+        <v>-206.3898472121258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="15"/>
+        <v>-335.12520570964909</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="17"/>
+        <v>-328.87520570964909</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="17"/>
+        <v>-322.62520570964909</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="17"/>
+        <v>-316.37520570964909</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="17"/>
+        <v>-310.12520570964909</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="17"/>
+        <v>-303.87520570964909</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="17"/>
+        <v>-297.62520570964909</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="17"/>
+        <v>-291.37520570964909</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="17"/>
+        <v>-285.12520570964909</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="17"/>
+        <v>-278.87520570964909</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="17"/>
+        <v>-272.62520570964909</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="17"/>
+        <v>-266.37520570964909</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="17"/>
+        <v>-260.12520570964909</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="17"/>
+        <v>-253.87520570964909</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="17"/>
+        <v>-247.62520570964909</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="17"/>
+        <v>-241.37520570964909</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="17"/>
+        <v>-235.12520570964909</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="17"/>
+        <v>-228.87520570964909</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="17"/>
+        <v>-222.62520570964909</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="17"/>
+        <v>-222.62520570964909</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="15"/>
+        <v>-351.6649234067242</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="17"/>
+        <v>-345.4149234067242</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="17"/>
+        <v>-339.1649234067242</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="17"/>
+        <v>-332.9149234067242</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="17"/>
+        <v>-326.6649234067242</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="17"/>
+        <v>-320.4149234067242</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="17"/>
+        <v>-314.1649234067242</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="17"/>
+        <v>-307.9149234067242</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="17"/>
+        <v>-301.6649234067242</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="17"/>
+        <v>-295.4149234067242</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="17"/>
+        <v>-289.1649234067242</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="17"/>
+        <v>-282.9149234067242</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="17"/>
+        <v>-276.6649234067242</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="17"/>
+        <v>-270.4149234067242</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="17"/>
+        <v>-264.1649234067242</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="17"/>
+        <v>-257.9149234067242</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="17"/>
+        <v>-251.6649234067242</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="17"/>
+        <v>-245.4149234067242</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="17"/>
+        <v>-239.1649234067242</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="17"/>
+        <v>-239.1649234067242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>148</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="15"/>
+        <v>-368.50601359526411</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="17"/>
+        <v>-362.25601359526411</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="17"/>
+        <v>-356.00601359526411</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="17"/>
+        <v>-349.75601359526411</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="17"/>
+        <v>-343.50601359526411</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="17"/>
+        <v>-337.25601359526411</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="17"/>
+        <v>-331.00601359526411</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="17"/>
+        <v>-324.75601359526411</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="17"/>
+        <v>-318.50601359526411</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="17"/>
+        <v>-312.25601359526411</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="17"/>
+        <v>-306.00601359526411</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="17"/>
+        <v>-299.75601359526411</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="17"/>
+        <v>-293.50601359526411</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="17"/>
+        <v>-287.25601359526411</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="17"/>
+        <v>-281.00601359526411</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="17"/>
+        <v>-274.75601359526411</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="17"/>
+        <v>-268.50601359526411</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="17"/>
+        <v>-262.25601359526411</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="17"/>
+        <v>-256.00601359526411</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="17"/>
+        <v>-256.00601359526411</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>152</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="15"/>
+        <v>-385.64559955061725</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="17"/>
+        <v>-379.39559955061725</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="17"/>
+        <v>-373.14559955061725</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="17"/>
+        <v>-366.89559955061725</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="17"/>
+        <v>-360.64559955061725</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="17"/>
+        <v>-354.39559955061725</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="17"/>
+        <v>-348.14559955061725</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="17"/>
+        <v>-341.89559955061725</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="17"/>
+        <v>-335.64559955061725</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="17"/>
+        <v>-329.39559955061725</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="17"/>
+        <v>-323.14559955061725</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="17"/>
+        <v>-316.89559955061725</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="17"/>
+        <v>-310.64559955061725</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="17"/>
+        <v>-304.39559955061725</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="17"/>
+        <v>-298.14559955061725</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="17"/>
+        <v>-291.89559955061725</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="17"/>
+        <v>-285.64559955061725</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="17"/>
+        <v>-279.39559955061725</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="17"/>
+        <v>-273.14559955061725</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="17"/>
+        <v>-273.14559955061725</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>156</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="15"/>
+        <v>-403.08090766758869</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="17"/>
+        <v>-396.83090766758869</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="17"/>
+        <v>-390.58090766758869</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="17"/>
+        <v>-384.33090766758869</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="17"/>
+        <v>-378.08090766758869</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="17"/>
+        <v>-371.83090766758869</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="17"/>
+        <v>-365.58090766758869</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="17"/>
+        <v>-359.33090766758869</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="17"/>
+        <v>-353.08090766758869</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="17"/>
+        <v>-346.83090766758869</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="17"/>
+        <v>-340.58090766758869</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="17"/>
+        <v>-334.33090766758869</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="17"/>
+        <v>-328.08090766758869</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="17"/>
+        <v>-321.83090766758869</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="17"/>
+        <v>-315.58090766758869</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="17"/>
+        <v>-309.33090766758869</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="17"/>
+        <v>-303.08090766758869</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="17"/>
+        <v>-296.83090766758869</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="17"/>
+        <v>-290.58090766758869</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="17"/>
+        <v>-290.58090766758869</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>160</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="15"/>
+        <v>-420.8092611914164</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="17"/>
+        <v>-414.5592611914164</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="17"/>
+        <v>-408.3092611914164</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="17"/>
+        <v>-402.0592611914164</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="17"/>
+        <v>-395.8092611914164</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="17"/>
+        <v>-389.5592611914164</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="17"/>
+        <v>-383.3092611914164</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="17"/>
+        <v>-377.0592611914164</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="17"/>
+        <v>-370.8092611914164</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="17"/>
+        <v>-364.5592611914164</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="17"/>
+        <v>-358.3092611914164</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="17"/>
+        <v>-352.0592611914164</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="17"/>
+        <v>-345.8092611914164</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="17"/>
+        <v>-339.5592611914164</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="17"/>
+        <v>-333.3092611914164</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="17"/>
+        <v>-327.0592611914164</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="17"/>
+        <v>-320.8092611914164</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="17"/>
+        <v>-314.5592611914164</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="17"/>
+        <v>-308.3092611914164</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="17"/>
+        <v>-308.3092611914164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>164</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="15"/>
+        <v>-438.82807447841742</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="17"/>
+        <v>-432.57807447841742</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="17"/>
+        <v>-426.32807447841742</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="17"/>
+        <v>-420.07807447841742</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="17"/>
+        <v>-413.82807447841742</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="17"/>
+        <v>-407.57807447841742</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="17"/>
+        <v>-401.32807447841742</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="17"/>
+        <v>-395.07807447841742</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="17"/>
+        <v>-388.82807447841742</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="17"/>
+        <v>-382.57807447841742</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="17"/>
+        <v>-376.32807447841742</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="17"/>
+        <v>-370.07807447841742</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="17"/>
+        <v>-363.82807447841742</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="17"/>
+        <v>-357.57807447841742</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="17"/>
+        <v>-351.32807447841742</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="17"/>
+        <v>-345.07807447841742</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="17"/>
+        <v>-338.82807447841742</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="17"/>
+        <v>-332.57807447841742</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="17"/>
+        <v>-326.32807447841742</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="17"/>
+        <v>-326.32807447841742</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>168</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="15"/>
+        <v>-457.13484772960908</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ref="C146:V151" si="18">C$106*$F$82*$F$83/8-$A146^1.65/10</f>
+        <v>-450.88484772960908</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="18"/>
+        <v>-444.63484772960908</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="18"/>
+        <v>-438.38484772960908</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="18"/>
+        <v>-432.13484772960908</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="18"/>
+        <v>-425.88484772960908</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="18"/>
+        <v>-419.63484772960908</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="18"/>
+        <v>-413.38484772960908</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="18"/>
+        <v>-407.13484772960908</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="18"/>
+        <v>-400.88484772960908</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="18"/>
+        <v>-394.63484772960908</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="18"/>
+        <v>-388.38484772960908</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="18"/>
+        <v>-382.13484772960908</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="18"/>
+        <v>-375.88484772960908</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="18"/>
+        <v>-369.63484772960908</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="18"/>
+        <v>-363.38484772960908</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="18"/>
+        <v>-357.13484772960908</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="18"/>
+        <v>-350.88484772960908</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="18"/>
+        <v>-344.63484772960908</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="18"/>
+        <v>-344.63484772960908</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>172</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="15"/>
+        <v>-475.72716214791882</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="18"/>
+        <v>-469.47716214791882</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="18"/>
+        <v>-463.22716214791882</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="18"/>
+        <v>-456.97716214791882</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="18"/>
+        <v>-450.72716214791882</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="18"/>
+        <v>-444.47716214791882</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="18"/>
+        <v>-438.22716214791882</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="18"/>
+        <v>-431.97716214791882</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="18"/>
+        <v>-425.72716214791882</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="18"/>
+        <v>-419.47716214791882</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="18"/>
+        <v>-413.22716214791882</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="18"/>
+        <v>-406.97716214791882</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="18"/>
+        <v>-400.72716214791882</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="18"/>
+        <v>-394.47716214791882</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="18"/>
+        <v>-388.22716214791882</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="18"/>
+        <v>-381.97716214791882</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="18"/>
+        <v>-375.72716214791882</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="18"/>
+        <v>-369.47716214791882</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="18"/>
+        <v>-363.22716214791882</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="18"/>
+        <v>-363.22716214791882</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>176</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="15"/>
+        <v>-494.60267547574995</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="18"/>
+        <v>-488.35267547574995</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="18"/>
+        <v>-482.10267547574995</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="18"/>
+        <v>-475.85267547574995</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="18"/>
+        <v>-469.60267547574995</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="18"/>
+        <v>-463.35267547574995</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="18"/>
+        <v>-457.10267547574995</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="18"/>
+        <v>-450.85267547574995</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="18"/>
+        <v>-444.60267547574995</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="18"/>
+        <v>-438.35267547574995</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="18"/>
+        <v>-432.10267547574995</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="18"/>
+        <v>-425.85267547574995</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="18"/>
+        <v>-419.60267547574995</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="18"/>
+        <v>-413.35267547574995</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="18"/>
+        <v>-407.10267547574995</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="18"/>
+        <v>-400.85267547574995</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="18"/>
+        <v>-394.60267547574995</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="18"/>
+        <v>-388.35267547574995</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="18"/>
+        <v>-382.10267547574995</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="18"/>
+        <v>-382.10267547574995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>180</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="15"/>
+        <v>-513.75911787502048</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="18"/>
+        <v>-507.50911787502048</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="18"/>
+        <v>-501.25911787502048</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="18"/>
+        <v>-495.00911787502048</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="18"/>
+        <v>-488.75911787502048</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="18"/>
+        <v>-482.50911787502048</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="18"/>
+        <v>-476.25911787502048</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="18"/>
+        <v>-470.00911787502048</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="18"/>
+        <v>-463.75911787502048</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="18"/>
+        <v>-457.50911787502048</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="18"/>
+        <v>-451.25911787502048</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="18"/>
+        <v>-445.00911787502048</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="18"/>
+        <v>-438.75911787502048</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="18"/>
+        <v>-432.50911787502048</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="18"/>
+        <v>-426.25911787502048</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="18"/>
+        <v>-420.00911787502048</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="18"/>
+        <v>-413.75911787502048</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="18"/>
+        <v>-407.50911787502048</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="18"/>
+        <v>-401.25911787502048</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="18"/>
+        <v>-401.25911787502048</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>184</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="15"/>
+        <v>-533.19428811628529</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="18"/>
+        <v>-526.94428811628529</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="18"/>
+        <v>-520.69428811628529</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="18"/>
+        <v>-514.44428811628529</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="18"/>
+        <v>-508.19428811628529</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="18"/>
+        <v>-501.94428811628529</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="18"/>
+        <v>-495.69428811628529</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="18"/>
+        <v>-489.44428811628529</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="18"/>
+        <v>-483.19428811628529</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="18"/>
+        <v>-476.94428811628529</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="18"/>
+        <v>-470.69428811628529</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="18"/>
+        <v>-464.44428811628529</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="18"/>
+        <v>-458.19428811628529</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="18"/>
+        <v>-451.94428811628529</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="18"/>
+        <v>-445.69428811628529</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="18"/>
+        <v>-439.44428811628529</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="18"/>
+        <v>-433.19428811628529</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="18"/>
+        <v>-426.94428811628529</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="18"/>
+        <v>-420.69428811628529</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="18"/>
+        <v>-420.69428811628529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>188</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="15"/>
+        <v>-552.90605004750807</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="18"/>
+        <v>-546.65605004750807</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="18"/>
+        <v>-540.40605004750807</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="18"/>
+        <v>-534.15605004750807</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="18"/>
+        <v>-527.90605004750807</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="18"/>
+        <v>-521.65605004750807</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="18"/>
+        <v>-515.40605004750807</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="18"/>
+        <v>-509.15605004750807</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="18"/>
+        <v>-502.90605004750807</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="18"/>
+        <v>-496.65605004750807</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="18"/>
+        <v>-490.40605004750807</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="18"/>
+        <v>-484.15605004750807</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="18"/>
+        <v>-477.90605004750807</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="18"/>
+        <v>-471.65605004750807</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="18"/>
+        <v>-465.40605004750807</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="18"/>
+        <v>-459.15605004750807</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="18"/>
+        <v>-452.90605004750807</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="18"/>
+        <v>-446.65605004750807</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="18"/>
+        <v>-440.40605004750807</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="18"/>
+        <v>-440.40605004750807</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B60:I64">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2810,7 +6758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:J75">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2820,22 +6768,27 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:S75">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:S75">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:S75">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:V151">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3005,10 +6958,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,442 +6974,472 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>129</v>
+      <c r="D50" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>127</v>
+      <c r="C51" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>128</v>
+      <c r="D52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>130</v>
+      <c r="D53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>132</v>
+      <c r="D55" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>133</v>
+      <c r="B57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>134</v>
+      <c r="A58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>138</v>
+      <c r="C61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>135</v>
+      <c r="B62" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>137</v>
+      <c r="C63" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>142</v>
+      <c r="C64" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>139</v>
+      <c r="B65" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>140</v>
+      <c r="C66" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>142</v>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>15</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B78" t="s">
         <v>24</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C78" t="s">
         <v>18</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
         <v>80</v>
       </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>34</v>
-      </c>
-      <c r="C73">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>1</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74">
+      <c r="B80">
         <v>68</v>
       </c>
-      <c r="C74">
+      <c r="C80">
         <v>2</v>
       </c>
-      <c r="D74">
+      <c r="D80">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>2</v>
       </c>
-      <c r="B75">
+      <c r="B81">
         <v>76</v>
       </c>
-      <c r="C75">
+      <c r="C81">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="D81">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>3</v>
       </c>
-      <c r="B76">
+      <c r="B82">
         <v>84</v>
       </c>
-      <c r="C76">
+      <c r="C82">
         <v>4</v>
       </c>
-      <c r="D76">
+      <c r="D82">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>4</v>
       </c>
-      <c r="B77">
+      <c r="B83">
         <v>92</v>
       </c>
-      <c r="C77">
+      <c r="C83">
         <v>5</v>
       </c>
-      <c r="D77">
+      <c r="D83">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>5</v>
       </c>
-      <c r="B78">
+      <c r="B84">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>28</v>
       </c>
-      <c r="B80">
+      <c r="B86">
         <v>10</v>
       </c>
     </row>

--- a/game_design/TreeWars_balancing.xlsx
+++ b/game_design/TreeWars_balancing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>Basics</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>Each treetop area can store foilage_density*2 units of Energy</t>
+  </si>
+  <si>
+    <t>Players gain one Weather point every 20 seconds</t>
+  </si>
+  <si>
+    <t>Costs 5 Hazard Points to activate</t>
+  </si>
+  <si>
+    <t>Costs 10 Hazard points to activate</t>
   </si>
 </sst>
 </file>
@@ -527,47 +536,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -918,8 +887,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,13 +2097,13 @@
         <v>37</v>
       </c>
       <c r="D67">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
         <v>39</v>
       </c>
       <c r="F67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,15 +2144,15 @@
       </c>
       <c r="B69">
         <f t="shared" ref="B69:J75" si="10">IF(B$68&lt;2*$A69,Set_foilage_density/100*B$68*Set_light_input-($A69*B$68/divider)^exponent,"N/A")</f>
-        <v>14.133739060297231</v>
+        <v>13.893739060297229</v>
       </c>
       <c r="C69">
         <f t="shared" si="10"/>
-        <v>25.223145943577325</v>
+        <v>24.82314594357732</v>
       </c>
       <c r="D69">
         <f t="shared" si="10"/>
-        <v>36.76982588570651</v>
+        <v>36.209825885706508</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="10"/>
@@ -2216,19 +2185,19 @@
       </c>
       <c r="B70">
         <f t="shared" si="10"/>
-        <v>10.663162440087536</v>
+        <v>10.423162440087534</v>
       </c>
       <c r="C70">
         <f t="shared" si="10"/>
-        <v>19.798038192885137</v>
+        <v>19.398038192885132</v>
       </c>
       <c r="D70">
         <f t="shared" si="10"/>
-        <v>29.488720189424008</v>
+        <v>28.928720189424006</v>
       </c>
       <c r="E70">
         <f t="shared" si="10"/>
-        <v>39.553574924127119</v>
+        <v>38.83357492412712</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="10"/>
@@ -2257,23 +2226,23 @@
       </c>
       <c r="B71">
         <f t="shared" si="10"/>
-        <v>7.2792253112845628</v>
+        <v>7.0392253112845609</v>
       </c>
       <c r="C71">
         <f t="shared" si="10"/>
-        <v>14.508362858123391</v>
+        <v>14.108362858123385</v>
       </c>
       <c r="D71">
         <f t="shared" si="10"/>
-        <v>22.389380050695053</v>
+        <v>21.82938005069505</v>
       </c>
       <c r="E71">
         <f t="shared" si="10"/>
-        <v>30.709247282725549</v>
+        <v>29.98924728272555</v>
       </c>
       <c r="F71">
         <f t="shared" si="10"/>
-        <v>39.357629041480976</v>
+        <v>38.477629041480981</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="10"/>
@@ -2298,27 +2267,27 @@
       </c>
       <c r="B72">
         <f t="shared" si="10"/>
-        <v>3.9656788209434417</v>
+        <v>3.7256788209434397</v>
       </c>
       <c r="C72">
         <f t="shared" si="10"/>
-        <v>9.3287201894240113</v>
+        <v>8.9287201894240056</v>
       </c>
       <c r="D72">
         <f t="shared" si="10"/>
-        <v>15.437716144118653</v>
+        <v>14.877716144118651</v>
       </c>
       <c r="E72">
         <f t="shared" si="10"/>
-        <v>22.048894060985958</v>
+        <v>21.328894060985959</v>
       </c>
       <c r="F72">
         <f t="shared" si="10"/>
-        <v>29.035995538977545</v>
+        <v>28.15599553897755</v>
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>36.322019720214584</v>
+        <v>35.282019720214592</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="10"/>
@@ -2339,31 +2308,31 @@
       </c>
       <c r="B73">
         <f t="shared" si="10"/>
-        <v>0.71122286267887347</v>
+        <v>0.47122286267887148</v>
       </c>
       <c r="C73">
         <f t="shared" si="10"/>
-        <v>4.2414461783403894</v>
+        <v>3.8414461783403837</v>
       </c>
       <c r="D73">
         <f t="shared" si="10"/>
-        <v>8.6100213806505721</v>
+        <v>8.0500213806505698</v>
       </c>
       <c r="E73">
         <f t="shared" si="10"/>
-        <v>13.542981068570242</v>
+        <v>12.822981068570243</v>
       </c>
       <c r="F73">
         <f t="shared" si="10"/>
-        <v>18.898427905880382</v>
+        <v>18.018427905880387</v>
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>24.589823361054428</v>
+        <v>23.549823361054436</v>
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>30.559054878056912</v>
+        <v>29.359054878056924</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="10"/>
@@ -2380,35 +2349,35 @@
       </c>
       <c r="B74">
         <f t="shared" si="10"/>
-        <v>-2.492437173322287</v>
+        <v>-2.732437173322289</v>
       </c>
       <c r="C74">
         <f t="shared" si="10"/>
-        <v>-0.76642507587287412</v>
+        <v>-1.1664250758728798</v>
       </c>
       <c r="D74">
         <f t="shared" si="10"/>
-        <v>1.8888940609859617</v>
+        <v>1.3288940609859594</v>
       </c>
       <c r="E74">
         <f t="shared" si="10"/>
-        <v>5.1698293427634212</v>
+        <v>4.4498293427634223</v>
       </c>
       <c r="F74">
         <f t="shared" si="10"/>
-        <v>8.9190885923653695</v>
+        <v>8.0390885923653741</v>
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>13.040744469723336</v>
+        <v>12.000744469723344</v>
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>17.470379624245055</v>
+        <v>16.270379624245066</v>
       </c>
       <c r="I74">
         <f t="shared" si="10"/>
-        <v>22.161867392269414</v>
+        <v>20.801867392269429</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="10"/>
@@ -2421,39 +2390,39 @@
       </c>
       <c r="B75">
         <f t="shared" si="10"/>
-        <v>-5.6516371418766127</v>
+        <v>-5.8916371418766147</v>
       </c>
       <c r="C75">
         <f t="shared" si="10"/>
-        <v>-5.7047976032470658</v>
+        <v>-6.1047976032470714</v>
       </c>
       <c r="D75">
         <f t="shared" si="10"/>
-        <v>-4.7389581387866855</v>
+        <v>-5.2989581387866878</v>
       </c>
       <c r="E75">
         <f t="shared" si="10"/>
-        <v>-3.0871206368255741</v>
+        <v>-3.807120636825573</v>
       </c>
       <c r="F75">
         <f t="shared" si="10"/>
-        <v>-0.92175846730008004</v>
+        <v>-1.8017584673000755</v>
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>1.651942518107262</v>
+        <v>0.61194251810726996</v>
       </c>
       <c r="H75">
         <f t="shared" si="10"/>
-        <v>4.5633476715435108</v>
+        <v>3.3633476715435222</v>
       </c>
       <c r="I75">
         <f t="shared" si="10"/>
-        <v>7.7618783738264199</v>
+        <v>6.4018783738264347</v>
       </c>
       <c r="J75">
         <f t="shared" si="10"/>
-        <v>11.209608958440725</v>
+        <v>9.6896089584407434</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2491,13 +2460,13 @@
       </c>
       <c r="C82">
         <f>F82</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E82" t="s">
         <v>75</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,21 +2475,21 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:B102" si="11">$F$82*$F$83*A83/100</f>
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="C83">
         <f>F$82*(1-F$83/100)^A83</f>
-        <v>49.5</v>
+        <v>71.25</v>
       </c>
       <c r="D83">
         <f>C82*F$83/8</f>
-        <v>6.25</v>
+        <v>46.875</v>
       </c>
       <c r="E83" t="s">
         <v>76</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,15 +2498,15 @@
       </c>
       <c r="B84">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="C84">
         <f t="shared" ref="C84:C102" si="12">F$82*(1-F$83/100)^A84</f>
-        <v>49.004999999999995</v>
+        <v>67.6875</v>
       </c>
       <c r="D84">
         <f t="shared" ref="D84:D102" si="13">C83*F$83/8</f>
-        <v>6.1875</v>
+        <v>44.53125</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,15 +2515,15 @@
       </c>
       <c r="B85">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>11.25</v>
       </c>
       <c r="C85">
         <f t="shared" si="12"/>
-        <v>48.514949999999999</v>
+        <v>64.303124999999994</v>
       </c>
       <c r="D85">
         <f t="shared" si="13"/>
-        <v>6.1256249999999994</v>
+        <v>42.3046875</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,15 +2532,15 @@
       </c>
       <c r="B86">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <f t="shared" si="12"/>
-        <v>48.0298005</v>
+        <v>61.087968750000002</v>
       </c>
       <c r="D86">
         <f t="shared" si="13"/>
-        <v>6.0643687499999999</v>
+        <v>40.189453125</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,15 +2549,15 @@
       </c>
       <c r="B87">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>18.75</v>
       </c>
       <c r="C87">
         <f t="shared" si="12"/>
-        <v>47.549502494999999</v>
+        <v>58.033570312499997</v>
       </c>
       <c r="D87">
         <f t="shared" si="13"/>
-        <v>6.0037250625</v>
+        <v>38.179980468750003</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,15 +2566,15 @@
       </c>
       <c r="B88">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>22.5</v>
       </c>
       <c r="C88">
         <f t="shared" si="12"/>
-        <v>47.074007470049992</v>
+        <v>55.131891796874996</v>
       </c>
       <c r="D88">
         <f t="shared" si="13"/>
-        <v>5.9436878118749998</v>
+        <v>36.270981445312501</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,15 +2583,15 @@
       </c>
       <c r="B89">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>26.25</v>
       </c>
       <c r="C89">
         <f t="shared" si="12"/>
-        <v>46.603267395349498</v>
+        <v>52.375297207031245</v>
       </c>
       <c r="D89">
         <f t="shared" si="13"/>
-        <v>5.884250933756249</v>
+        <v>34.457432373046871</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,15 +2600,15 @@
       </c>
       <c r="B90">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <f t="shared" si="12"/>
-        <v>46.137234721395998</v>
+        <v>49.756532346679684</v>
       </c>
       <c r="D90">
         <f t="shared" si="13"/>
-        <v>5.8254084244186872</v>
+        <v>32.734560754394529</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,15 +2617,15 @@
       </c>
       <c r="B91">
         <f t="shared" si="11"/>
-        <v>4.5</v>
+        <v>33.75</v>
       </c>
       <c r="C91">
         <f t="shared" si="12"/>
-        <v>45.675862374182039</v>
+        <v>47.268705729345697</v>
       </c>
       <c r="D91">
         <f t="shared" si="13"/>
-        <v>5.7671543401744998</v>
+        <v>31.097832716674802</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,15 +2634,15 @@
       </c>
       <c r="B92">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>37.5</v>
       </c>
       <c r="C92">
         <f t="shared" si="12"/>
-        <v>45.219103750440212</v>
+        <v>44.905270442878418</v>
       </c>
       <c r="D92">
         <f t="shared" si="13"/>
-        <v>5.7094827967727548</v>
+        <v>29.542941080841061</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,15 +2651,15 @@
       </c>
       <c r="B93">
         <f t="shared" si="11"/>
-        <v>5.5</v>
+        <v>41.25</v>
       </c>
       <c r="C93">
         <f t="shared" si="12"/>
-        <v>44.766912712935813</v>
+        <v>42.660006920734489</v>
       </c>
       <c r="D93">
         <f t="shared" si="13"/>
-        <v>5.6523879688050265</v>
+        <v>28.065794026799011</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,15 +2668,15 @@
       </c>
       <c r="B94">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C94">
         <f t="shared" si="12"/>
-        <v>44.319243585806454</v>
+        <v>40.527006574697765</v>
       </c>
       <c r="D94">
         <f t="shared" si="13"/>
-        <v>5.5958640891169766</v>
+        <v>26.662504325459054</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,15 +2685,15 @@
       </c>
       <c r="B95">
         <f t="shared" si="11"/>
-        <v>6.5</v>
+        <v>48.75</v>
       </c>
       <c r="C95">
         <f t="shared" si="12"/>
-        <v>43.876051149948388</v>
+        <v>38.50065624596288</v>
       </c>
       <c r="D95">
         <f t="shared" si="13"/>
-        <v>5.5399054482258068</v>
+        <v>25.329379109186103</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,15 +2702,15 @@
       </c>
       <c r="B96">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>52.5</v>
       </c>
       <c r="C96">
         <f t="shared" si="12"/>
-        <v>43.437290638448907</v>
+        <v>36.575623433664731</v>
       </c>
       <c r="D96">
         <f t="shared" si="13"/>
-        <v>5.4845063937435485</v>
+        <v>24.062910153726801</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -2750,15 +2719,15 @@
       </c>
       <c r="B97">
         <f t="shared" si="11"/>
-        <v>7.5</v>
+        <v>56.25</v>
       </c>
       <c r="C97">
         <f t="shared" si="12"/>
-        <v>43.002917732064418</v>
+        <v>34.746842261981499</v>
       </c>
       <c r="D97">
         <f t="shared" si="13"/>
-        <v>5.4296613298061134</v>
+        <v>22.859764646040457</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -2767,15 +2736,15 @@
       </c>
       <c r="B98">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C98">
         <f t="shared" si="12"/>
-        <v>42.57288855474377</v>
+        <v>33.009500148882424</v>
       </c>
       <c r="D98">
         <f t="shared" si="13"/>
-        <v>5.3753647165080523</v>
+        <v>21.716776413738437</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -2784,15 +2753,15 @@
       </c>
       <c r="B99">
         <f t="shared" si="11"/>
-        <v>8.5</v>
+        <v>63.75</v>
       </c>
       <c r="C99">
         <f t="shared" si="12"/>
-        <v>42.147159669196334</v>
+        <v>31.359025141438302</v>
       </c>
       <c r="D99">
         <f t="shared" si="13"/>
-        <v>5.3216110693429712</v>
+        <v>20.630937593051513</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -2801,15 +2770,15 @@
       </c>
       <c r="B100">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>67.5</v>
       </c>
       <c r="C100">
         <f t="shared" si="12"/>
-        <v>41.725688072504369</v>
+        <v>29.791073884366387</v>
       </c>
       <c r="D100">
         <f t="shared" si="13"/>
-        <v>5.2683949586495418</v>
+        <v>19.59939071339894</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -2818,15 +2787,15 @@
       </c>
       <c r="B101">
         <f t="shared" si="11"/>
-        <v>9.5</v>
+        <v>71.25</v>
       </c>
       <c r="C101">
         <f t="shared" si="12"/>
-        <v>41.30843119177932</v>
+        <v>28.301520190148064</v>
       </c>
       <c r="D101">
         <f t="shared" si="13"/>
-        <v>5.2157110090630461</v>
+        <v>18.619421177728992</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -2835,15 +2804,15 @@
       </c>
       <c r="B102">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C102">
         <f t="shared" si="12"/>
-        <v>40.895346879861535</v>
+        <v>26.886444180640662</v>
       </c>
       <c r="D102">
         <f t="shared" si="13"/>
-        <v>5.163553898972415</v>
+        <v>17.688450118842539</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -2925,83 +2894,83 @@
       </c>
       <c r="B107">
         <f>B$106*$F$82*$F$83/8-$A107^1.65/10</f>
-        <v>6.4653921137597994</v>
+        <v>87.715392113759805</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:V120" si="14">C$106*$F$82*$F$83/8-$A107^1.65/10</f>
-        <v>12.715392113759799</v>
+        <f t="shared" ref="C107:U120" si="14">C$106*$F$82*$F$83/8-$A107^1.65/10</f>
+        <v>134.5903921137598</v>
       </c>
       <c r="D107">
         <f t="shared" si="14"/>
-        <v>18.965392113759798</v>
+        <v>181.4653921137598</v>
       </c>
       <c r="E107">
         <f t="shared" si="14"/>
-        <v>25.215392113759798</v>
+        <v>228.3403921137598</v>
       </c>
       <c r="F107">
         <f t="shared" si="14"/>
-        <v>31.465392113759798</v>
+        <v>275.21539211375978</v>
       </c>
       <c r="G107">
         <f t="shared" si="14"/>
-        <v>37.715392113759798</v>
+        <v>322.09039211375978</v>
       </c>
       <c r="H107">
         <f t="shared" si="14"/>
-        <v>43.965392113759798</v>
+        <v>368.96539211375978</v>
       </c>
       <c r="I107">
         <f t="shared" si="14"/>
-        <v>50.215392113759798</v>
+        <v>415.84039211375978</v>
       </c>
       <c r="J107">
         <f t="shared" si="14"/>
-        <v>56.465392113759798</v>
+        <v>462.71539211375978</v>
       </c>
       <c r="K107">
         <f t="shared" si="14"/>
-        <v>62.715392113759798</v>
+        <v>509.59039211375978</v>
       </c>
       <c r="L107">
         <f t="shared" si="14"/>
-        <v>68.965392113759805</v>
+        <v>556.46539211375978</v>
       </c>
       <c r="M107">
         <f t="shared" si="14"/>
-        <v>75.215392113759805</v>
+        <v>603.34039211375978</v>
       </c>
       <c r="N107">
         <f t="shared" si="14"/>
-        <v>81.465392113759805</v>
+        <v>650.21539211375978</v>
       </c>
       <c r="O107">
         <f t="shared" si="14"/>
-        <v>87.715392113759805</v>
+        <v>697.09039211375978</v>
       </c>
       <c r="P107">
         <f t="shared" si="14"/>
-        <v>93.965392113759805</v>
+        <v>743.96539211375978</v>
       </c>
       <c r="Q107">
         <f t="shared" si="14"/>
-        <v>100.2153921137598</v>
+        <v>790.84039211375978</v>
       </c>
       <c r="R107">
         <f t="shared" si="14"/>
-        <v>106.4653921137598</v>
+        <v>837.71539211375978</v>
       </c>
       <c r="S107">
         <f t="shared" si="14"/>
-        <v>112.7153921137598</v>
+        <v>884.59039211375978</v>
       </c>
       <c r="T107">
         <f t="shared" si="14"/>
-        <v>118.9653921137598</v>
+        <v>931.46539211375978</v>
       </c>
       <c r="U107">
         <f t="shared" si="14"/>
-        <v>118.9653921137598</v>
+        <v>931.46539211375978</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -3010,83 +2979,83 @@
       </c>
       <c r="B108">
         <f t="shared" ref="B108:Q151" si="15">B$106*$F$82*$F$83/8-$A108^1.65/10</f>
-        <v>2.7994139743334561</v>
+        <v>84.049413974333461</v>
       </c>
       <c r="C108">
         <f t="shared" si="15"/>
-        <v>9.0494139743334561</v>
+        <v>130.92441397433345</v>
       </c>
       <c r="D108">
         <f t="shared" si="15"/>
-        <v>15.299413974333456</v>
+        <v>177.79941397433345</v>
       </c>
       <c r="E108">
         <f t="shared" si="15"/>
-        <v>21.549413974333454</v>
+        <v>224.67441397433345</v>
       </c>
       <c r="F108">
         <f t="shared" si="15"/>
-        <v>27.799413974333454</v>
+        <v>271.54941397433345</v>
       </c>
       <c r="G108">
         <f t="shared" si="15"/>
-        <v>34.049413974333454</v>
+        <v>318.42441397433345</v>
       </c>
       <c r="H108">
         <f t="shared" si="15"/>
-        <v>40.299413974333454</v>
+        <v>365.29941397433345</v>
       </c>
       <c r="I108">
         <f t="shared" si="15"/>
-        <v>46.549413974333454</v>
+        <v>412.17441397433345</v>
       </c>
       <c r="J108">
         <f t="shared" si="15"/>
-        <v>52.799413974333454</v>
+        <v>459.04941397433345</v>
       </c>
       <c r="K108">
         <f t="shared" si="15"/>
-        <v>59.049413974333454</v>
+        <v>505.92441397433345</v>
       </c>
       <c r="L108">
         <f t="shared" si="15"/>
-        <v>65.299413974333461</v>
+        <v>552.79941397433345</v>
       </c>
       <c r="M108">
         <f t="shared" si="15"/>
-        <v>71.549413974333461</v>
+        <v>599.67441397433345</v>
       </c>
       <c r="N108">
         <f t="shared" si="15"/>
-        <v>77.799413974333461</v>
+        <v>646.54941397433345</v>
       </c>
       <c r="O108">
         <f t="shared" si="15"/>
-        <v>84.049413974333461</v>
+        <v>693.42441397433345</v>
       </c>
       <c r="P108">
         <f t="shared" si="15"/>
-        <v>90.299413974333461</v>
+        <v>740.29941397433345</v>
       </c>
       <c r="Q108">
         <f t="shared" si="15"/>
-        <v>96.549413974333461</v>
+        <v>787.17441397433345</v>
       </c>
       <c r="R108">
         <f t="shared" si="14"/>
-        <v>102.79941397433346</v>
+        <v>834.04941397433345</v>
       </c>
       <c r="S108">
         <f t="shared" si="14"/>
-        <v>109.04941397433346</v>
+        <v>880.92441397433345</v>
       </c>
       <c r="T108">
         <f t="shared" si="14"/>
-        <v>115.29941397433346</v>
+        <v>927.79941397433345</v>
       </c>
       <c r="U108">
         <f t="shared" si="14"/>
-        <v>115.29941397433346</v>
+        <v>927.79941397433345</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -3095,83 +3064,83 @@
       </c>
       <c r="B109">
         <f t="shared" si="15"/>
-        <v>-1.5184337277217388</v>
+        <v>79.731566272278258</v>
       </c>
       <c r="C109">
         <f t="shared" si="14"/>
-        <v>4.7315662722782612</v>
+        <v>126.60656627227826</v>
       </c>
       <c r="D109">
         <f t="shared" si="14"/>
-        <v>10.981566272278261</v>
+        <v>173.48156627227826</v>
       </c>
       <c r="E109">
         <f t="shared" si="14"/>
-        <v>17.231566272278261</v>
+        <v>220.35656627227826</v>
       </c>
       <c r="F109">
         <f t="shared" si="14"/>
-        <v>23.481566272278261</v>
+        <v>267.23156627227826</v>
       </c>
       <c r="G109">
         <f t="shared" si="14"/>
-        <v>29.731566272278261</v>
+        <v>314.10656627227826</v>
       </c>
       <c r="H109">
         <f t="shared" si="14"/>
-        <v>35.981566272278258</v>
+        <v>360.98156627227826</v>
       </c>
       <c r="I109">
         <f t="shared" si="14"/>
-        <v>42.231566272278258</v>
+        <v>407.85656627227826</v>
       </c>
       <c r="J109">
         <f t="shared" si="14"/>
-        <v>48.481566272278258</v>
+        <v>454.73156627227826</v>
       </c>
       <c r="K109">
         <f t="shared" si="14"/>
-        <v>54.731566272278258</v>
+        <v>501.60656627227826</v>
       </c>
       <c r="L109">
         <f t="shared" si="14"/>
-        <v>60.981566272278258</v>
+        <v>548.48156627227831</v>
       </c>
       <c r="M109">
         <f t="shared" si="14"/>
-        <v>67.231566272278258</v>
+        <v>595.35656627227831</v>
       </c>
       <c r="N109">
         <f t="shared" si="14"/>
-        <v>73.481566272278258</v>
+        <v>642.23156627227831</v>
       </c>
       <c r="O109">
         <f t="shared" si="14"/>
-        <v>79.731566272278258</v>
+        <v>689.10656627227831</v>
       </c>
       <c r="P109">
         <f t="shared" si="14"/>
-        <v>85.981566272278258</v>
+        <v>735.98156627227831</v>
       </c>
       <c r="Q109">
         <f t="shared" si="14"/>
-        <v>92.231566272278258</v>
+        <v>782.85656627227831</v>
       </c>
       <c r="R109">
         <f t="shared" si="14"/>
-        <v>98.481566272278258</v>
+        <v>829.73156627227831</v>
       </c>
       <c r="S109">
         <f t="shared" si="14"/>
-        <v>104.73156627227826</v>
+        <v>876.60656627227831</v>
       </c>
       <c r="T109">
         <f t="shared" si="14"/>
-        <v>110.98156627227826</v>
+        <v>923.48156627227831</v>
       </c>
       <c r="U109">
         <f t="shared" si="14"/>
-        <v>110.98156627227826</v>
+        <v>923.48156627227831</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -3180,83 +3149,83 @@
       </c>
       <c r="B110">
         <f t="shared" si="15"/>
-        <v>-6.4386295383455519</v>
+        <v>74.811370461654448</v>
       </c>
       <c r="C110">
         <f t="shared" si="14"/>
-        <v>-0.18862953834555185</v>
+        <v>121.68637046165445</v>
       </c>
       <c r="D110">
         <f t="shared" si="14"/>
-        <v>6.0613704616544481</v>
+        <v>168.56137046165446</v>
       </c>
       <c r="E110">
         <f t="shared" si="14"/>
-        <v>12.311370461654448</v>
+        <v>215.43637046165446</v>
       </c>
       <c r="F110">
         <f t="shared" si="14"/>
-        <v>18.561370461654448</v>
+        <v>262.31137046165446</v>
       </c>
       <c r="G110">
         <f t="shared" si="14"/>
-        <v>24.811370461654448</v>
+        <v>309.18637046165446</v>
       </c>
       <c r="H110">
         <f t="shared" si="14"/>
-        <v>31.061370461654448</v>
+        <v>356.06137046165446</v>
       </c>
       <c r="I110">
         <f t="shared" si="14"/>
-        <v>37.311370461654448</v>
+        <v>402.93637046165446</v>
       </c>
       <c r="J110">
         <f t="shared" si="14"/>
-        <v>43.561370461654448</v>
+        <v>449.81137046165446</v>
       </c>
       <c r="K110">
         <f t="shared" si="14"/>
-        <v>49.811370461654448</v>
+        <v>496.68637046165446</v>
       </c>
       <c r="L110">
         <f t="shared" si="14"/>
-        <v>56.061370461654448</v>
+        <v>543.56137046165441</v>
       </c>
       <c r="M110">
         <f t="shared" si="14"/>
-        <v>62.311370461654448</v>
+        <v>590.43637046165441</v>
       </c>
       <c r="N110">
         <f t="shared" si="14"/>
-        <v>68.561370461654448</v>
+        <v>637.31137046165441</v>
       </c>
       <c r="O110">
         <f t="shared" si="14"/>
-        <v>74.811370461654448</v>
+        <v>684.18637046165441</v>
       </c>
       <c r="P110">
         <f t="shared" si="14"/>
-        <v>81.061370461654448</v>
+        <v>731.06137046165441</v>
       </c>
       <c r="Q110">
         <f t="shared" si="14"/>
-        <v>87.311370461654448</v>
+        <v>777.93637046165441</v>
       </c>
       <c r="R110">
         <f t="shared" si="14"/>
-        <v>93.561370461654448</v>
+        <v>824.81137046165441</v>
       </c>
       <c r="S110">
         <f t="shared" si="14"/>
-        <v>99.811370461654448</v>
+        <v>871.68637046165441</v>
       </c>
       <c r="T110">
         <f t="shared" si="14"/>
-        <v>106.06137046165445</v>
+        <v>918.56137046165441</v>
       </c>
       <c r="U110">
         <f t="shared" si="14"/>
-        <v>106.06137046165445</v>
+        <v>918.56137046165441</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -3265,83 +3234,83 @@
       </c>
       <c r="B111">
         <f t="shared" si="15"/>
-        <v>-11.923660346646535</v>
+        <v>69.326339653353472</v>
       </c>
       <c r="C111">
         <f t="shared" si="14"/>
-        <v>-5.6736603466465354</v>
+        <v>116.20133965335347</v>
       </c>
       <c r="D111">
         <f t="shared" si="14"/>
-        <v>0.5763396533534646</v>
+        <v>163.07633965335347</v>
       </c>
       <c r="E111">
         <f t="shared" si="14"/>
-        <v>6.8263396533534646</v>
+        <v>209.95133965335347</v>
       </c>
       <c r="F111">
         <f t="shared" si="14"/>
-        <v>13.076339653353465</v>
+        <v>256.82633965335344</v>
       </c>
       <c r="G111">
         <f t="shared" si="14"/>
-        <v>19.326339653353465</v>
+        <v>303.70133965335344</v>
       </c>
       <c r="H111">
         <f t="shared" si="14"/>
-        <v>25.576339653353465</v>
+        <v>350.57633965335344</v>
       </c>
       <c r="I111">
         <f t="shared" si="14"/>
-        <v>31.826339653353465</v>
+        <v>397.45133965335344</v>
       </c>
       <c r="J111">
         <f t="shared" si="14"/>
-        <v>38.076339653353465</v>
+        <v>444.32633965335344</v>
       </c>
       <c r="K111">
         <f t="shared" si="14"/>
-        <v>44.326339653353465</v>
+        <v>491.20133965335344</v>
       </c>
       <c r="L111">
         <f t="shared" si="14"/>
-        <v>50.576339653353465</v>
+        <v>538.07633965335344</v>
       </c>
       <c r="M111">
         <f t="shared" si="14"/>
-        <v>56.826339653353465</v>
+        <v>584.95133965335344</v>
       </c>
       <c r="N111">
         <f t="shared" si="14"/>
-        <v>63.076339653353465</v>
+        <v>631.82633965335344</v>
       </c>
       <c r="O111">
         <f t="shared" si="14"/>
-        <v>69.326339653353472</v>
+        <v>678.70133965335344</v>
       </c>
       <c r="P111">
         <f t="shared" si="14"/>
-        <v>75.576339653353472</v>
+        <v>725.57633965335344</v>
       </c>
       <c r="Q111">
         <f t="shared" si="14"/>
-        <v>81.826339653353472</v>
+        <v>772.45133965335344</v>
       </c>
       <c r="R111">
         <f t="shared" si="14"/>
-        <v>88.076339653353472</v>
+        <v>819.32633965335344</v>
       </c>
       <c r="S111">
         <f t="shared" si="14"/>
-        <v>94.326339653353472</v>
+        <v>866.20133965335344</v>
       </c>
       <c r="T111">
         <f t="shared" si="14"/>
-        <v>100.57633965335347</v>
+        <v>913.07633965335344</v>
       </c>
       <c r="U111">
         <f t="shared" si="14"/>
-        <v>100.57633965335347</v>
+        <v>913.07633965335344</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -3350,83 +3319,83 @@
       </c>
       <c r="B112">
         <f t="shared" si="15"/>
-        <v>-17.94370214406964</v>
+        <v>63.30629785593036</v>
       </c>
       <c r="C112">
         <f t="shared" si="14"/>
-        <v>-11.69370214406964</v>
+        <v>110.18129785593035</v>
       </c>
       <c r="D112">
         <f t="shared" si="14"/>
-        <v>-5.4437021440696398</v>
+        <v>157.05629785593035</v>
       </c>
       <c r="E112">
         <f t="shared" si="14"/>
-        <v>0.80629785593036019</v>
+        <v>203.93129785593035</v>
       </c>
       <c r="F112">
         <f t="shared" si="14"/>
-        <v>7.0562978559303602</v>
+        <v>250.80629785593035</v>
       </c>
       <c r="G112">
         <f t="shared" si="14"/>
-        <v>13.30629785593036</v>
+        <v>297.68129785593038</v>
       </c>
       <c r="H112">
         <f t="shared" si="14"/>
-        <v>19.55629785593036</v>
+        <v>344.55629785593038</v>
       </c>
       <c r="I112">
         <f t="shared" si="14"/>
-        <v>25.80629785593036</v>
+        <v>391.43129785593038</v>
       </c>
       <c r="J112">
         <f t="shared" si="14"/>
-        <v>32.05629785593036</v>
+        <v>438.30629785593038</v>
       </c>
       <c r="K112">
         <f t="shared" si="14"/>
-        <v>38.30629785593036</v>
+        <v>485.18129785593038</v>
       </c>
       <c r="L112">
         <f t="shared" si="14"/>
-        <v>44.55629785593036</v>
+        <v>532.05629785593032</v>
       </c>
       <c r="M112">
         <f t="shared" si="14"/>
-        <v>50.80629785593036</v>
+        <v>578.93129785593032</v>
       </c>
       <c r="N112">
         <f t="shared" si="14"/>
-        <v>57.05629785593036</v>
+        <v>625.80629785593032</v>
       </c>
       <c r="O112">
         <f t="shared" si="14"/>
-        <v>63.30629785593036</v>
+        <v>672.68129785593032</v>
       </c>
       <c r="P112">
         <f t="shared" si="14"/>
-        <v>69.556297855930353</v>
+        <v>719.55629785593032</v>
       </c>
       <c r="Q112">
         <f t="shared" si="14"/>
-        <v>75.806297855930353</v>
+        <v>766.43129785593032</v>
       </c>
       <c r="R112">
         <f t="shared" si="14"/>
-        <v>82.056297855930353</v>
+        <v>813.30629785593032</v>
       </c>
       <c r="S112">
         <f t="shared" si="14"/>
-        <v>88.306297855930353</v>
+        <v>860.18129785593032</v>
       </c>
       <c r="T112">
         <f t="shared" si="14"/>
-        <v>94.556297855930353</v>
+        <v>907.05629785593032</v>
       </c>
       <c r="U112">
         <f t="shared" si="14"/>
-        <v>94.556297855930353</v>
+        <v>907.05629785593032</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -3435,83 +3404,83 @@
       </c>
       <c r="B113">
         <f t="shared" si="15"/>
-        <v>-24.474228963249615</v>
+        <v>56.775771036750385</v>
       </c>
       <c r="C113">
         <f t="shared" si="14"/>
-        <v>-18.224228963249615</v>
+        <v>103.65077103675038</v>
       </c>
       <c r="D113">
         <f t="shared" si="14"/>
-        <v>-11.974228963249615</v>
+        <v>150.52577103675037</v>
       </c>
       <c r="E113">
         <f t="shared" si="14"/>
-        <v>-5.7242289632496153</v>
+        <v>197.40077103675037</v>
       </c>
       <c r="F113">
         <f t="shared" si="14"/>
-        <v>0.52577103675038472</v>
+        <v>244.27577103675037</v>
       </c>
       <c r="G113">
         <f t="shared" si="14"/>
-        <v>6.7757710367503847</v>
+        <v>291.15077103675037</v>
       </c>
       <c r="H113">
         <f t="shared" si="14"/>
-        <v>13.025771036750385</v>
+        <v>338.02577103675037</v>
       </c>
       <c r="I113">
         <f t="shared" si="14"/>
-        <v>19.275771036750385</v>
+        <v>384.90077103675037</v>
       </c>
       <c r="J113">
         <f t="shared" si="14"/>
-        <v>25.525771036750385</v>
+        <v>431.77577103675037</v>
       </c>
       <c r="K113">
         <f t="shared" si="14"/>
-        <v>31.775771036750385</v>
+        <v>478.65077103675037</v>
       </c>
       <c r="L113">
         <f t="shared" si="14"/>
-        <v>38.025771036750385</v>
+        <v>525.52577103675037</v>
       </c>
       <c r="M113">
         <f t="shared" si="14"/>
-        <v>44.275771036750385</v>
+        <v>572.40077103675037</v>
       </c>
       <c r="N113">
         <f t="shared" si="14"/>
-        <v>50.525771036750385</v>
+        <v>619.27577103675037</v>
       </c>
       <c r="O113">
         <f t="shared" si="14"/>
-        <v>56.775771036750385</v>
+        <v>666.15077103675037</v>
       </c>
       <c r="P113">
         <f t="shared" si="14"/>
-        <v>63.025771036750385</v>
+        <v>713.02577103675037</v>
       </c>
       <c r="Q113">
         <f t="shared" si="14"/>
-        <v>69.275771036750385</v>
+        <v>759.90077103675037</v>
       </c>
       <c r="R113">
         <f t="shared" si="14"/>
-        <v>75.525771036750385</v>
+        <v>806.77577103675037</v>
       </c>
       <c r="S113">
         <f t="shared" si="14"/>
-        <v>81.775771036750385</v>
+        <v>853.65077103675037</v>
       </c>
       <c r="T113">
         <f t="shared" si="14"/>
-        <v>88.025771036750385</v>
+        <v>900.52577103675037</v>
       </c>
       <c r="U113">
         <f t="shared" si="14"/>
-        <v>88.025771036750385</v>
+        <v>900.52577103675037</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -3520,83 +3489,83 @@
       </c>
       <c r="B114">
         <f t="shared" si="15"/>
-        <v>-31.494560720759772</v>
+        <v>49.755439279240228</v>
       </c>
       <c r="C114">
         <f t="shared" si="14"/>
-        <v>-25.244560720759772</v>
+        <v>96.630439279240221</v>
       </c>
       <c r="D114">
         <f t="shared" si="14"/>
-        <v>-18.994560720759772</v>
+        <v>143.50543927924022</v>
       </c>
       <c r="E114">
         <f t="shared" si="14"/>
-        <v>-12.744560720759772</v>
+        <v>190.38043927924022</v>
       </c>
       <c r="F114">
         <f t="shared" si="14"/>
-        <v>-6.4945607207597718</v>
+        <v>237.25543927924022</v>
       </c>
       <c r="G114">
         <f t="shared" si="14"/>
-        <v>-0.24456072075977175</v>
+        <v>284.13043927924025</v>
       </c>
       <c r="H114">
         <f t="shared" si="14"/>
-        <v>6.0054392792402282</v>
+        <v>331.00543927924025</v>
       </c>
       <c r="I114">
         <f t="shared" si="14"/>
-        <v>12.255439279240228</v>
+        <v>377.88043927924025</v>
       </c>
       <c r="J114">
         <f t="shared" si="14"/>
-        <v>18.505439279240228</v>
+        <v>424.75543927924025</v>
       </c>
       <c r="K114">
         <f t="shared" si="14"/>
-        <v>24.755439279240228</v>
+        <v>471.63043927924025</v>
       </c>
       <c r="L114">
         <f t="shared" si="14"/>
-        <v>31.005439279240228</v>
+        <v>518.50543927924025</v>
       </c>
       <c r="M114">
         <f t="shared" si="14"/>
-        <v>37.255439279240228</v>
+        <v>565.38043927924025</v>
       </c>
       <c r="N114">
         <f t="shared" si="14"/>
-        <v>43.505439279240228</v>
+        <v>612.25543927924025</v>
       </c>
       <c r="O114">
         <f t="shared" si="14"/>
-        <v>49.755439279240228</v>
+        <v>659.13043927924025</v>
       </c>
       <c r="P114">
         <f t="shared" si="14"/>
-        <v>56.005439279240228</v>
+        <v>706.00543927924025</v>
       </c>
       <c r="Q114">
         <f t="shared" si="14"/>
-        <v>62.255439279240228</v>
+        <v>752.88043927924025</v>
       </c>
       <c r="R114">
         <f t="shared" si="14"/>
-        <v>68.505439279240221</v>
+        <v>799.75543927924025</v>
       </c>
       <c r="S114">
         <f t="shared" si="14"/>
-        <v>74.755439279240221</v>
+        <v>846.63043927924025</v>
       </c>
       <c r="T114">
         <f t="shared" si="14"/>
-        <v>81.005439279240221</v>
+        <v>893.50543927924025</v>
       </c>
       <c r="U114">
         <f t="shared" si="14"/>
-        <v>81.005439279240221</v>
+        <v>893.50543927924025</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -3605,83 +3574,83 @@
       </c>
       <c r="B115">
         <f t="shared" si="15"/>
-        <v>-38.986920419229612</v>
+        <v>42.263079580770388</v>
       </c>
       <c r="C115">
         <f t="shared" si="14"/>
-        <v>-32.736920419229612</v>
+        <v>89.138079580770381</v>
       </c>
       <c r="D115">
         <f t="shared" si="14"/>
-        <v>-26.486920419229612</v>
+        <v>136.01307958077038</v>
       </c>
       <c r="E115">
         <f t="shared" si="14"/>
-        <v>-20.236920419229612</v>
+        <v>182.88807958077038</v>
       </c>
       <c r="F115">
         <f t="shared" si="14"/>
-        <v>-13.986920419229612</v>
+        <v>229.76307958077038</v>
       </c>
       <c r="G115">
         <f t="shared" si="14"/>
-        <v>-7.7369204192296124</v>
+        <v>276.63807958077041</v>
       </c>
       <c r="H115">
         <f t="shared" si="14"/>
-        <v>-1.4869204192296124</v>
+        <v>323.51307958077041</v>
       </c>
       <c r="I115">
         <f t="shared" si="14"/>
-        <v>4.7630795807703876</v>
+        <v>370.38807958077041</v>
       </c>
       <c r="J115">
         <f t="shared" si="14"/>
-        <v>11.013079580770388</v>
+        <v>417.26307958077041</v>
       </c>
       <c r="K115">
         <f t="shared" si="14"/>
-        <v>17.263079580770388</v>
+        <v>464.13807958077041</v>
       </c>
       <c r="L115">
         <f t="shared" si="14"/>
-        <v>23.513079580770388</v>
+        <v>511.01307958077041</v>
       </c>
       <c r="M115">
         <f t="shared" si="14"/>
-        <v>29.763079580770388</v>
+        <v>557.88807958077041</v>
       </c>
       <c r="N115">
         <f t="shared" si="14"/>
-        <v>36.013079580770388</v>
+        <v>604.76307958077041</v>
       </c>
       <c r="O115">
         <f t="shared" si="14"/>
-        <v>42.263079580770388</v>
+        <v>651.63807958077041</v>
       </c>
       <c r="P115">
         <f t="shared" si="14"/>
-        <v>48.513079580770388</v>
+        <v>698.51307958077041</v>
       </c>
       <c r="Q115">
         <f t="shared" si="14"/>
-        <v>54.763079580770388</v>
+        <v>745.38807958077041</v>
       </c>
       <c r="R115">
         <f t="shared" si="14"/>
-        <v>61.013079580770388</v>
+        <v>792.26307958077041</v>
       </c>
       <c r="S115">
         <f t="shared" si="14"/>
-        <v>67.263079580770381</v>
+        <v>839.13807958077041</v>
       </c>
       <c r="T115">
         <f t="shared" si="14"/>
-        <v>73.513079580770381</v>
+        <v>886.01307958077041</v>
       </c>
       <c r="U115">
         <f t="shared" si="14"/>
-        <v>73.513079580770381</v>
+        <v>886.01307958077041</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -3690,83 +3659,83 @@
       </c>
       <c r="B116">
         <f t="shared" si="15"/>
-        <v>-46.935790286974395</v>
+        <v>34.314209713025605</v>
       </c>
       <c r="C116">
         <f t="shared" si="14"/>
-        <v>-40.685790286974395</v>
+        <v>81.189209713025605</v>
       </c>
       <c r="D116">
         <f t="shared" si="14"/>
-        <v>-34.435790286974395</v>
+        <v>128.0642097130256</v>
       </c>
       <c r="E116">
         <f t="shared" si="14"/>
-        <v>-28.185790286974395</v>
+        <v>174.9392097130256</v>
       </c>
       <c r="F116">
         <f t="shared" si="14"/>
-        <v>-21.935790286974395</v>
+        <v>221.8142097130256</v>
       </c>
       <c r="G116">
         <f t="shared" si="14"/>
-        <v>-15.685790286974395</v>
+        <v>268.6892097130256</v>
       </c>
       <c r="H116">
         <f t="shared" si="14"/>
-        <v>-9.4357902869743953</v>
+        <v>315.5642097130256</v>
       </c>
       <c r="I116">
         <f t="shared" si="14"/>
-        <v>-3.1857902869743953</v>
+        <v>362.4392097130256</v>
       </c>
       <c r="J116">
         <f t="shared" si="14"/>
-        <v>3.0642097130256047</v>
+        <v>409.3142097130256</v>
       </c>
       <c r="K116">
         <f t="shared" si="14"/>
-        <v>9.3142097130256047</v>
+        <v>456.1892097130256</v>
       </c>
       <c r="L116">
         <f t="shared" si="14"/>
-        <v>15.564209713025605</v>
+        <v>503.0642097130256</v>
       </c>
       <c r="M116">
         <f t="shared" si="14"/>
-        <v>21.814209713025605</v>
+        <v>549.93920971302555</v>
       </c>
       <c r="N116">
         <f t="shared" si="14"/>
-        <v>28.064209713025605</v>
+        <v>596.81420971302555</v>
       </c>
       <c r="O116">
         <f t="shared" si="14"/>
-        <v>34.314209713025605</v>
+        <v>643.68920971302555</v>
       </c>
       <c r="P116">
         <f t="shared" si="14"/>
-        <v>40.564209713025605</v>
+        <v>690.56420971302555</v>
       </c>
       <c r="Q116">
         <f t="shared" si="14"/>
-        <v>46.814209713025605</v>
+        <v>737.43920971302555</v>
       </c>
       <c r="R116">
         <f t="shared" si="14"/>
-        <v>53.064209713025605</v>
+        <v>784.31420971302555</v>
       </c>
       <c r="S116">
         <f t="shared" si="14"/>
-        <v>59.314209713025605</v>
+        <v>831.18920971302555</v>
       </c>
       <c r="T116">
         <f t="shared" si="14"/>
-        <v>65.564209713025605</v>
+        <v>878.06420971302555</v>
       </c>
       <c r="U116">
         <f t="shared" si="14"/>
-        <v>65.564209713025605</v>
+        <v>878.06420971302555</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -3775,83 +3744,83 @@
       </c>
       <c r="B117">
         <f t="shared" si="15"/>
-        <v>-55.327454232362129</v>
+        <v>25.922545767637871</v>
       </c>
       <c r="C117">
         <f t="shared" si="14"/>
-        <v>-49.077454232362129</v>
+        <v>72.797545767637871</v>
       </c>
       <c r="D117">
         <f t="shared" si="14"/>
-        <v>-42.827454232362129</v>
+        <v>119.67254576763787</v>
       </c>
       <c r="E117">
         <f t="shared" si="14"/>
-        <v>-36.577454232362129</v>
+        <v>166.54754576763787</v>
       </c>
       <c r="F117">
         <f t="shared" si="14"/>
-        <v>-30.327454232362129</v>
+        <v>213.42254576763787</v>
       </c>
       <c r="G117">
         <f t="shared" si="14"/>
-        <v>-24.077454232362129</v>
+        <v>260.29754576763787</v>
       </c>
       <c r="H117">
         <f t="shared" si="14"/>
-        <v>-17.827454232362129</v>
+        <v>307.17254576763787</v>
       </c>
       <c r="I117">
         <f t="shared" si="14"/>
-        <v>-11.577454232362129</v>
+        <v>354.04754576763787</v>
       </c>
       <c r="J117">
         <f t="shared" si="14"/>
-        <v>-5.327454232362129</v>
+        <v>400.92254576763787</v>
       </c>
       <c r="K117">
         <f t="shared" si="14"/>
-        <v>0.92254576763787099</v>
+        <v>447.79754576763787</v>
       </c>
       <c r="L117">
         <f t="shared" si="14"/>
-        <v>7.172545767637871</v>
+        <v>494.67254576763787</v>
       </c>
       <c r="M117">
         <f t="shared" si="14"/>
-        <v>13.422545767637871</v>
+        <v>541.54754576763787</v>
       </c>
       <c r="N117">
         <f t="shared" si="14"/>
-        <v>19.672545767637871</v>
+        <v>588.42254576763787</v>
       </c>
       <c r="O117">
         <f t="shared" si="14"/>
-        <v>25.922545767637871</v>
+        <v>635.29754576763787</v>
       </c>
       <c r="P117">
         <f t="shared" si="14"/>
-        <v>32.172545767637871</v>
+        <v>682.17254576763787</v>
       </c>
       <c r="Q117">
         <f t="shared" si="14"/>
-        <v>38.422545767637871</v>
+        <v>729.04754576763787</v>
       </c>
       <c r="R117">
         <f t="shared" si="14"/>
-        <v>44.672545767637871</v>
+        <v>775.92254576763787</v>
       </c>
       <c r="S117">
         <f t="shared" si="14"/>
-        <v>50.922545767637871</v>
+        <v>822.79754576763787</v>
       </c>
       <c r="T117">
         <f t="shared" si="14"/>
-        <v>57.172545767637871</v>
+        <v>869.67254576763787</v>
       </c>
       <c r="U117">
         <f t="shared" si="14"/>
-        <v>57.172545767637871</v>
+        <v>869.67254576763787</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -3860,83 +3829,83 @@
       </c>
       <c r="B118">
         <f t="shared" si="15"/>
-        <v>-64.14966208164131</v>
+        <v>17.10033791835869</v>
       </c>
       <c r="C118">
         <f t="shared" si="14"/>
-        <v>-57.89966208164131</v>
+        <v>63.97533791835869</v>
       </c>
       <c r="D118">
         <f t="shared" si="14"/>
-        <v>-51.64966208164131</v>
+        <v>110.85033791835869</v>
       </c>
       <c r="E118">
         <f t="shared" si="14"/>
-        <v>-45.39966208164131</v>
+        <v>157.72533791835869</v>
       </c>
       <c r="F118">
         <f t="shared" si="14"/>
-        <v>-39.14966208164131</v>
+        <v>204.60033791835869</v>
       </c>
       <c r="G118">
         <f t="shared" si="14"/>
-        <v>-32.89966208164131</v>
+        <v>251.47533791835869</v>
       </c>
       <c r="H118">
         <f t="shared" si="14"/>
-        <v>-26.64966208164131</v>
+        <v>298.35033791835872</v>
       </c>
       <c r="I118">
         <f t="shared" si="14"/>
-        <v>-20.39966208164131</v>
+        <v>345.22533791835872</v>
       </c>
       <c r="J118">
         <f t="shared" si="14"/>
-        <v>-14.14966208164131</v>
+        <v>392.10033791835872</v>
       </c>
       <c r="K118">
         <f t="shared" si="14"/>
-        <v>-7.8996620816413099</v>
+        <v>438.97533791835872</v>
       </c>
       <c r="L118">
         <f t="shared" si="14"/>
-        <v>-1.6496620816413099</v>
+        <v>485.85033791835872</v>
       </c>
       <c r="M118">
         <f t="shared" si="14"/>
-        <v>4.6003379183586901</v>
+        <v>532.72533791835872</v>
       </c>
       <c r="N118">
         <f t="shared" si="14"/>
-        <v>10.85033791835869</v>
+        <v>579.60033791835872</v>
       </c>
       <c r="O118">
         <f t="shared" si="14"/>
-        <v>17.10033791835869</v>
+        <v>626.47533791835872</v>
       </c>
       <c r="P118">
         <f t="shared" si="14"/>
-        <v>23.35033791835869</v>
+        <v>673.35033791835872</v>
       </c>
       <c r="Q118">
         <f t="shared" si="14"/>
-        <v>29.60033791835869</v>
+        <v>720.22533791835872</v>
       </c>
       <c r="R118">
         <f t="shared" si="14"/>
-        <v>35.85033791835869</v>
+        <v>767.10033791835872</v>
       </c>
       <c r="S118">
         <f t="shared" si="14"/>
-        <v>42.10033791835869</v>
+        <v>813.97533791835872</v>
       </c>
       <c r="T118">
         <f t="shared" si="14"/>
-        <v>48.35033791835869</v>
+        <v>860.85033791835872</v>
       </c>
       <c r="U118">
         <f t="shared" si="14"/>
-        <v>48.35033791835869</v>
+        <v>860.85033791835872</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -3945,83 +3914,83 @@
       </c>
       <c r="B119">
         <f t="shared" si="15"/>
-        <v>-73.3913765609812</v>
+        <v>7.8586234390187997</v>
       </c>
       <c r="C119">
         <f t="shared" si="14"/>
-        <v>-67.1413765609812</v>
+        <v>54.7336234390188</v>
       </c>
       <c r="D119">
         <f t="shared" si="14"/>
-        <v>-60.8913765609812</v>
+        <v>101.6086234390188</v>
       </c>
       <c r="E119">
         <f t="shared" si="14"/>
-        <v>-54.6413765609812</v>
+        <v>148.4836234390188</v>
       </c>
       <c r="F119">
         <f t="shared" si="14"/>
-        <v>-48.3913765609812</v>
+        <v>195.3586234390188</v>
       </c>
       <c r="G119">
         <f t="shared" si="14"/>
-        <v>-42.1413765609812</v>
+        <v>242.2336234390188</v>
       </c>
       <c r="H119">
         <f t="shared" si="14"/>
-        <v>-35.8913765609812</v>
+        <v>289.1086234390188</v>
       </c>
       <c r="I119">
         <f t="shared" si="14"/>
-        <v>-29.6413765609812</v>
+        <v>335.9836234390188</v>
       </c>
       <c r="J119">
         <f t="shared" si="14"/>
-        <v>-23.3913765609812</v>
+        <v>382.8586234390188</v>
       </c>
       <c r="K119">
         <f t="shared" si="14"/>
-        <v>-17.1413765609812</v>
+        <v>429.7336234390188</v>
       </c>
       <c r="L119">
         <f t="shared" si="14"/>
-        <v>-10.8913765609812</v>
+        <v>476.6086234390188</v>
       </c>
       <c r="M119">
         <f t="shared" si="14"/>
-        <v>-4.6413765609812003</v>
+        <v>523.48362343901886</v>
       </c>
       <c r="N119">
         <f t="shared" si="14"/>
-        <v>1.6086234390187997</v>
+        <v>570.35862343901886</v>
       </c>
       <c r="O119">
         <f t="shared" si="14"/>
-        <v>7.8586234390187997</v>
+        <v>617.23362343901886</v>
       </c>
       <c r="P119">
         <f t="shared" si="14"/>
-        <v>14.1086234390188</v>
+        <v>664.10862343901886</v>
       </c>
       <c r="Q119">
         <f t="shared" si="14"/>
-        <v>20.3586234390188</v>
+        <v>710.98362343901886</v>
       </c>
       <c r="R119">
         <f t="shared" si="14"/>
-        <v>26.6086234390188</v>
+        <v>757.85862343901886</v>
       </c>
       <c r="S119">
         <f t="shared" si="14"/>
-        <v>32.8586234390188</v>
+        <v>804.73362343901886</v>
       </c>
       <c r="T119">
         <f t="shared" si="14"/>
-        <v>39.1086234390188</v>
+        <v>851.60862343901886</v>
       </c>
       <c r="U119">
         <f t="shared" si="14"/>
-        <v>39.1086234390188</v>
+        <v>851.60862343901886</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -4030,83 +3999,83 @@
       </c>
       <c r="B120">
         <f t="shared" si="15"/>
-        <v>-83.042578333368994</v>
+        <v>-1.7925783333689935</v>
       </c>
       <c r="C120">
         <f t="shared" si="14"/>
-        <v>-76.792578333368994</v>
+        <v>45.082421666631006</v>
       </c>
       <c r="D120">
         <f t="shared" si="14"/>
-        <v>-70.542578333368994</v>
+        <v>91.957421666631006</v>
       </c>
       <c r="E120">
         <f t="shared" si="14"/>
-        <v>-64.292578333368994</v>
+        <v>138.83242166663101</v>
       </c>
       <c r="F120">
         <f t="shared" si="14"/>
-        <v>-58.042578333368994</v>
+        <v>185.70742166663101</v>
       </c>
       <c r="G120">
         <f t="shared" si="14"/>
-        <v>-51.792578333368994</v>
+        <v>232.58242166663101</v>
       </c>
       <c r="H120">
         <f t="shared" si="14"/>
-        <v>-45.542578333368994</v>
+        <v>279.45742166663103</v>
       </c>
       <c r="I120">
         <f t="shared" si="14"/>
-        <v>-39.292578333368994</v>
+        <v>326.33242166663103</v>
       </c>
       <c r="J120">
         <f t="shared" si="14"/>
-        <v>-33.042578333368994</v>
+        <v>373.20742166663103</v>
       </c>
       <c r="K120">
         <f t="shared" si="14"/>
-        <v>-26.792578333368994</v>
+        <v>420.08242166663103</v>
       </c>
       <c r="L120">
         <f t="shared" si="14"/>
-        <v>-20.542578333368994</v>
+        <v>466.95742166663103</v>
       </c>
       <c r="M120">
-        <f t="shared" ref="C120:V133" si="16">M$106*$F$82*$F$83/8-$A120^1.65/10</f>
-        <v>-14.292578333368994</v>
+        <f t="shared" ref="C120:U133" si="16">M$106*$F$82*$F$83/8-$A120^1.65/10</f>
+        <v>513.83242166663103</v>
       </c>
       <c r="N120">
         <f t="shared" si="16"/>
-        <v>-8.0425783333689935</v>
+        <v>560.70742166663103</v>
       </c>
       <c r="O120">
         <f t="shared" si="16"/>
-        <v>-1.7925783333689935</v>
+        <v>607.58242166663103</v>
       </c>
       <c r="P120">
         <f t="shared" si="16"/>
-        <v>4.4574216666310065</v>
+        <v>654.45742166663103</v>
       </c>
       <c r="Q120">
         <f t="shared" si="16"/>
-        <v>10.707421666631006</v>
+        <v>701.33242166663103</v>
       </c>
       <c r="R120">
         <f t="shared" si="16"/>
-        <v>16.957421666631006</v>
+        <v>748.20742166663103</v>
       </c>
       <c r="S120">
         <f t="shared" si="16"/>
-        <v>23.207421666631006</v>
+        <v>795.08242166663103</v>
       </c>
       <c r="T120">
         <f t="shared" si="16"/>
-        <v>29.457421666631006</v>
+        <v>841.95742166663103</v>
       </c>
       <c r="U120">
         <f t="shared" si="16"/>
-        <v>29.457421666631006</v>
+        <v>841.95742166663103</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -4115,83 +4084,83 @@
       </c>
       <c r="B121">
         <f t="shared" si="15"/>
-        <v>-93.094112887480307</v>
+        <v>-11.844112887480307</v>
       </c>
       <c r="C121">
         <f t="shared" si="16"/>
-        <v>-86.844112887480307</v>
+        <v>35.030887112519693</v>
       </c>
       <c r="D121">
         <f t="shared" si="16"/>
-        <v>-80.594112887480307</v>
+        <v>81.905887112519693</v>
       </c>
       <c r="E121">
         <f t="shared" si="16"/>
-        <v>-74.344112887480307</v>
+        <v>128.78088711251968</v>
       </c>
       <c r="F121">
         <f t="shared" si="16"/>
-        <v>-68.094112887480307</v>
+        <v>175.65588711251968</v>
       </c>
       <c r="G121">
         <f t="shared" si="16"/>
-        <v>-61.844112887480307</v>
+        <v>222.53088711251968</v>
       </c>
       <c r="H121">
         <f t="shared" si="16"/>
-        <v>-55.594112887480307</v>
+        <v>269.40588711251968</v>
       </c>
       <c r="I121">
         <f t="shared" si="16"/>
-        <v>-49.344112887480307</v>
+        <v>316.28088711251968</v>
       </c>
       <c r="J121">
         <f t="shared" si="16"/>
-        <v>-43.094112887480307</v>
+        <v>363.15588711251968</v>
       </c>
       <c r="K121">
         <f t="shared" si="16"/>
-        <v>-36.844112887480307</v>
+        <v>410.03088711251968</v>
       </c>
       <c r="L121">
         <f t="shared" si="16"/>
-        <v>-30.594112887480307</v>
+        <v>456.90588711251968</v>
       </c>
       <c r="M121">
         <f t="shared" si="16"/>
-        <v>-24.344112887480307</v>
+        <v>503.78088711251968</v>
       </c>
       <c r="N121">
         <f t="shared" si="16"/>
-        <v>-18.094112887480307</v>
+        <v>550.65588711251974</v>
       </c>
       <c r="O121">
         <f t="shared" si="16"/>
-        <v>-11.844112887480307</v>
+        <v>597.53088711251974</v>
       </c>
       <c r="P121">
         <f t="shared" si="16"/>
-        <v>-5.594112887480307</v>
+        <v>644.40588711251974</v>
       </c>
       <c r="Q121">
         <f t="shared" si="16"/>
-        <v>0.65588711251969301</v>
+        <v>691.28088711251974</v>
       </c>
       <c r="R121">
         <f t="shared" si="16"/>
-        <v>6.905887112519693</v>
+        <v>738.15588711251974</v>
       </c>
       <c r="S121">
         <f t="shared" si="16"/>
-        <v>13.155887112519693</v>
+        <v>785.03088711251974</v>
       </c>
       <c r="T121">
         <f t="shared" si="16"/>
-        <v>19.405887112519693</v>
+        <v>831.90588711251974</v>
       </c>
       <c r="U121">
         <f t="shared" si="16"/>
-        <v>19.405887112519693</v>
+        <v>831.90588711251974</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -4200,83 +4169,83 @@
       </c>
       <c r="B122">
         <f t="shared" si="15"/>
-        <v>-103.53756830623649</v>
+        <v>-22.287568306236494</v>
       </c>
       <c r="C122">
         <f t="shared" si="16"/>
-        <v>-97.287568306236494</v>
+        <v>24.587431693763506</v>
       </c>
       <c r="D122">
         <f t="shared" si="16"/>
-        <v>-91.037568306236494</v>
+        <v>71.462431693763506</v>
       </c>
       <c r="E122">
         <f t="shared" si="16"/>
-        <v>-84.787568306236494</v>
+        <v>118.33743169376351</v>
       </c>
       <c r="F122">
         <f t="shared" si="16"/>
-        <v>-78.537568306236494</v>
+        <v>165.21243169376351</v>
       </c>
       <c r="G122">
         <f t="shared" si="16"/>
-        <v>-72.287568306236494</v>
+        <v>212.08743169376351</v>
       </c>
       <c r="H122">
         <f t="shared" si="16"/>
-        <v>-66.037568306236494</v>
+        <v>258.96243169376351</v>
       </c>
       <c r="I122">
         <f t="shared" si="16"/>
-        <v>-59.787568306236494</v>
+        <v>305.83743169376351</v>
       </c>
       <c r="J122">
         <f t="shared" si="16"/>
-        <v>-53.537568306236494</v>
+        <v>352.71243169376351</v>
       </c>
       <c r="K122">
         <f t="shared" si="16"/>
-        <v>-47.287568306236494</v>
+        <v>399.58743169376351</v>
       </c>
       <c r="L122">
         <f t="shared" si="16"/>
-        <v>-41.037568306236494</v>
+        <v>446.46243169376351</v>
       </c>
       <c r="M122">
         <f t="shared" si="16"/>
-        <v>-34.787568306236494</v>
+        <v>493.33743169376351</v>
       </c>
       <c r="N122">
         <f t="shared" si="16"/>
-        <v>-28.537568306236494</v>
+        <v>540.21243169376351</v>
       </c>
       <c r="O122">
         <f t="shared" si="16"/>
-        <v>-22.287568306236494</v>
+        <v>587.08743169376351</v>
       </c>
       <c r="P122">
         <f t="shared" si="16"/>
-        <v>-16.037568306236494</v>
+        <v>633.96243169376351</v>
       </c>
       <c r="Q122">
         <f t="shared" si="16"/>
-        <v>-9.7875683062364942</v>
+        <v>680.83743169376351</v>
       </c>
       <c r="R122">
         <f t="shared" si="16"/>
-        <v>-3.5375683062364942</v>
+        <v>727.71243169376351</v>
       </c>
       <c r="S122">
         <f t="shared" si="16"/>
-        <v>2.7124316937635058</v>
+        <v>774.58743169376351</v>
       </c>
       <c r="T122">
         <f t="shared" si="16"/>
-        <v>8.9624316937635058</v>
+        <v>821.46243169376351</v>
       </c>
       <c r="U122">
         <f t="shared" si="16"/>
-        <v>8.9624316937635058</v>
+        <v>821.46243169376351</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -4285,83 +4254,83 @@
       </c>
       <c r="B123">
         <f t="shared" si="15"/>
-        <v>-114.36517628190953</v>
+        <v>-33.115176281909527</v>
       </c>
       <c r="C123">
         <f t="shared" si="16"/>
-        <v>-108.11517628190953</v>
+        <v>13.759823718090473</v>
       </c>
       <c r="D123">
         <f t="shared" si="16"/>
-        <v>-101.86517628190953</v>
+        <v>60.634823718090473</v>
       </c>
       <c r="E123">
         <f t="shared" si="16"/>
-        <v>-95.615176281909527</v>
+        <v>107.50982371809047</v>
       </c>
       <c r="F123">
         <f t="shared" si="16"/>
-        <v>-89.365176281909527</v>
+        <v>154.38482371809047</v>
       </c>
       <c r="G123">
         <f t="shared" si="16"/>
-        <v>-83.115176281909527</v>
+        <v>201.25982371809047</v>
       </c>
       <c r="H123">
         <f t="shared" si="16"/>
-        <v>-76.865176281909527</v>
+        <v>248.13482371809047</v>
       </c>
       <c r="I123">
         <f t="shared" si="16"/>
-        <v>-70.615176281909527</v>
+        <v>295.0098237180905</v>
       </c>
       <c r="J123">
         <f t="shared" si="16"/>
-        <v>-64.365176281909527</v>
+        <v>341.8848237180905</v>
       </c>
       <c r="K123">
         <f t="shared" si="16"/>
-        <v>-58.115176281909527</v>
+        <v>388.7598237180905</v>
       </c>
       <c r="L123">
         <f t="shared" si="16"/>
-        <v>-51.865176281909527</v>
+        <v>435.6348237180905</v>
       </c>
       <c r="M123">
         <f t="shared" si="16"/>
-        <v>-45.615176281909527</v>
+        <v>482.5098237180905</v>
       </c>
       <c r="N123">
         <f t="shared" si="16"/>
-        <v>-39.365176281909527</v>
+        <v>529.3848237180905</v>
       </c>
       <c r="O123">
         <f t="shared" si="16"/>
-        <v>-33.115176281909527</v>
+        <v>576.2598237180905</v>
       </c>
       <c r="P123">
         <f t="shared" si="16"/>
-        <v>-26.865176281909527</v>
+        <v>623.1348237180905</v>
       </c>
       <c r="Q123">
         <f t="shared" si="16"/>
-        <v>-20.615176281909527</v>
+        <v>670.0098237180905</v>
       </c>
       <c r="R123">
         <f t="shared" si="16"/>
-        <v>-14.365176281909527</v>
+        <v>716.8848237180905</v>
       </c>
       <c r="S123">
         <f t="shared" si="16"/>
-        <v>-8.1151762819095268</v>
+        <v>763.7598237180905</v>
       </c>
       <c r="T123">
         <f t="shared" si="16"/>
-        <v>-1.8651762819095268</v>
+        <v>810.6348237180905</v>
       </c>
       <c r="U123">
         <f t="shared" si="16"/>
-        <v>-1.8651762819095268</v>
+        <v>810.6348237180905</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -4370,83 +4339,83 @@
       </c>
       <c r="B124">
         <f t="shared" si="15"/>
-        <v>-125.56973094184448</v>
+        <v>-44.319730941844483</v>
       </c>
       <c r="C124">
         <f t="shared" si="16"/>
-        <v>-119.31973094184448</v>
+        <v>2.5552690581555169</v>
       </c>
       <c r="D124">
         <f t="shared" si="16"/>
-        <v>-113.06973094184448</v>
+        <v>49.430269058155517</v>
       </c>
       <c r="E124">
         <f t="shared" si="16"/>
-        <v>-106.81973094184448</v>
+        <v>96.305269058155517</v>
       </c>
       <c r="F124">
         <f t="shared" si="16"/>
-        <v>-100.56973094184448</v>
+        <v>143.18026905815552</v>
       </c>
       <c r="G124">
         <f t="shared" si="16"/>
-        <v>-94.319730941844483</v>
+        <v>190.05526905815552</v>
       </c>
       <c r="H124">
         <f t="shared" si="16"/>
-        <v>-88.069730941844483</v>
+        <v>236.93026905815552</v>
       </c>
       <c r="I124">
         <f t="shared" si="16"/>
-        <v>-81.819730941844483</v>
+        <v>283.80526905815555</v>
       </c>
       <c r="J124">
         <f t="shared" si="16"/>
-        <v>-75.569730941844483</v>
+        <v>330.68026905815555</v>
       </c>
       <c r="K124">
         <f t="shared" si="16"/>
-        <v>-69.319730941844483</v>
+        <v>377.55526905815555</v>
       </c>
       <c r="L124">
         <f t="shared" si="16"/>
-        <v>-63.069730941844483</v>
+        <v>424.43026905815555</v>
       </c>
       <c r="M124">
         <f t="shared" si="16"/>
-        <v>-56.819730941844483</v>
+        <v>471.30526905815555</v>
       </c>
       <c r="N124">
         <f t="shared" si="16"/>
-        <v>-50.569730941844483</v>
+        <v>518.18026905815555</v>
       </c>
       <c r="O124">
         <f t="shared" si="16"/>
-        <v>-44.319730941844483</v>
+        <v>565.05526905815555</v>
       </c>
       <c r="P124">
         <f t="shared" si="16"/>
-        <v>-38.069730941844483</v>
+        <v>611.93026905815555</v>
       </c>
       <c r="Q124">
         <f t="shared" si="16"/>
-        <v>-31.819730941844483</v>
+        <v>658.80526905815555</v>
       </c>
       <c r="R124">
         <f t="shared" si="16"/>
-        <v>-25.569730941844483</v>
+        <v>705.68026905815555</v>
       </c>
       <c r="S124">
         <f t="shared" si="16"/>
-        <v>-19.319730941844483</v>
+        <v>752.55526905815555</v>
       </c>
       <c r="T124">
         <f t="shared" si="16"/>
-        <v>-13.069730941844483</v>
+        <v>799.43026905815555</v>
       </c>
       <c r="U124">
         <f t="shared" si="16"/>
-        <v>-13.069730941844483</v>
+        <v>799.43026905815555</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -4455,83 +4424,83 @@
       </c>
       <c r="B125">
         <f t="shared" si="15"/>
-        <v>-137.14452153330922</v>
+        <v>-55.894521533309216</v>
       </c>
       <c r="C125">
         <f t="shared" si="16"/>
-        <v>-130.89452153330922</v>
+        <v>-9.0195215333092165</v>
       </c>
       <c r="D125">
         <f t="shared" si="16"/>
-        <v>-124.64452153330922</v>
+        <v>37.855478466690784</v>
       </c>
       <c r="E125">
         <f t="shared" si="16"/>
-        <v>-118.39452153330922</v>
+        <v>84.730478466690784</v>
       </c>
       <c r="F125">
         <f t="shared" si="16"/>
-        <v>-112.14452153330922</v>
+        <v>131.60547846669078</v>
       </c>
       <c r="G125">
         <f t="shared" si="16"/>
-        <v>-105.89452153330922</v>
+        <v>178.48047846669078</v>
       </c>
       <c r="H125">
         <f t="shared" si="16"/>
-        <v>-99.644521533309216</v>
+        <v>225.35547846669078</v>
       </c>
       <c r="I125">
         <f t="shared" si="16"/>
-        <v>-93.394521533309216</v>
+        <v>272.23047846669078</v>
       </c>
       <c r="J125">
         <f t="shared" si="16"/>
-        <v>-87.144521533309216</v>
+        <v>319.10547846669078</v>
       </c>
       <c r="K125">
         <f t="shared" si="16"/>
-        <v>-80.894521533309216</v>
+        <v>365.98047846669078</v>
       </c>
       <c r="L125">
         <f t="shared" si="16"/>
-        <v>-74.644521533309216</v>
+        <v>412.85547846669078</v>
       </c>
       <c r="M125">
         <f t="shared" si="16"/>
-        <v>-68.394521533309216</v>
+        <v>459.73047846669078</v>
       </c>
       <c r="N125">
         <f t="shared" si="16"/>
-        <v>-62.144521533309216</v>
+        <v>506.60547846669078</v>
       </c>
       <c r="O125">
         <f t="shared" si="16"/>
-        <v>-55.894521533309216</v>
+        <v>553.48047846669078</v>
       </c>
       <c r="P125">
         <f t="shared" si="16"/>
-        <v>-49.644521533309216</v>
+        <v>600.35547846669078</v>
       </c>
       <c r="Q125">
         <f t="shared" si="16"/>
-        <v>-43.394521533309216</v>
+        <v>647.23047846669078</v>
       </c>
       <c r="R125">
         <f t="shared" si="16"/>
-        <v>-37.144521533309216</v>
+        <v>694.10547846669078</v>
       </c>
       <c r="S125">
         <f t="shared" si="16"/>
-        <v>-30.894521533309216</v>
+        <v>740.98047846669078</v>
       </c>
       <c r="T125">
         <f t="shared" si="16"/>
-        <v>-24.644521533309216</v>
+        <v>787.85547846669078</v>
       </c>
       <c r="U125">
         <f t="shared" si="16"/>
-        <v>-24.644521533309216</v>
+        <v>787.85547846669078</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -4540,83 +4509,83 @@
       </c>
       <c r="B126">
         <f t="shared" si="15"/>
-        <v>-149.08327604241236</v>
+        <v>-67.833276042412365</v>
       </c>
       <c r="C126">
         <f t="shared" si="16"/>
-        <v>-142.83327604241236</v>
+        <v>-20.958276042412365</v>
       </c>
       <c r="D126">
         <f t="shared" si="16"/>
-        <v>-136.58327604241236</v>
+        <v>25.916723957587635</v>
       </c>
       <c r="E126">
         <f t="shared" si="16"/>
-        <v>-130.33327604241236</v>
+        <v>72.791723957587635</v>
       </c>
       <c r="F126">
         <f t="shared" si="16"/>
-        <v>-124.08327604241236</v>
+        <v>119.66672395758764</v>
       </c>
       <c r="G126">
         <f t="shared" si="16"/>
-        <v>-117.83327604241236</v>
+        <v>166.54172395758764</v>
       </c>
       <c r="H126">
         <f t="shared" si="16"/>
-        <v>-111.58327604241236</v>
+        <v>213.41672395758764</v>
       </c>
       <c r="I126">
         <f t="shared" si="16"/>
-        <v>-105.33327604241236</v>
+        <v>260.29172395758764</v>
       </c>
       <c r="J126">
         <f t="shared" si="16"/>
-        <v>-99.083276042412365</v>
+        <v>307.16672395758764</v>
       </c>
       <c r="K126">
         <f t="shared" si="16"/>
-        <v>-92.833276042412365</v>
+        <v>354.04172395758764</v>
       </c>
       <c r="L126">
         <f t="shared" si="16"/>
-        <v>-86.583276042412365</v>
+        <v>400.91672395758764</v>
       </c>
       <c r="M126">
         <f t="shared" si="16"/>
-        <v>-80.333276042412365</v>
+        <v>447.79172395758764</v>
       </c>
       <c r="N126">
         <f t="shared" si="16"/>
-        <v>-74.083276042412365</v>
+        <v>494.66672395758764</v>
       </c>
       <c r="O126">
         <f t="shared" si="16"/>
-        <v>-67.833276042412365</v>
+        <v>541.54172395758769</v>
       </c>
       <c r="P126">
         <f t="shared" si="16"/>
-        <v>-61.583276042412365</v>
+        <v>588.41672395758769</v>
       </c>
       <c r="Q126">
         <f t="shared" si="16"/>
-        <v>-55.333276042412365</v>
+        <v>635.29172395758769</v>
       </c>
       <c r="R126">
         <f t="shared" si="16"/>
-        <v>-49.083276042412365</v>
+        <v>682.16672395758769</v>
       </c>
       <c r="S126">
         <f t="shared" si="16"/>
-        <v>-42.833276042412365</v>
+        <v>729.04172395758769</v>
       </c>
       <c r="T126">
         <f t="shared" si="16"/>
-        <v>-36.583276042412365</v>
+        <v>775.91672395758769</v>
       </c>
       <c r="U126">
         <f t="shared" si="16"/>
-        <v>-36.583276042412365</v>
+        <v>775.91672395758769</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -4625,83 +4594,83 @@
       </c>
       <c r="B127">
         <f t="shared" si="15"/>
-        <v>-161.38011354650774</v>
+        <v>-80.130113546507744</v>
       </c>
       <c r="C127">
         <f t="shared" si="16"/>
-        <v>-155.13011354650774</v>
+        <v>-33.255113546507744</v>
       </c>
       <c r="D127">
         <f t="shared" si="16"/>
-        <v>-148.88011354650774</v>
+        <v>13.619886453492256</v>
       </c>
       <c r="E127">
         <f t="shared" si="16"/>
-        <v>-142.63011354650774</v>
+        <v>60.494886453492256</v>
       </c>
       <c r="F127">
         <f t="shared" si="16"/>
-        <v>-136.38011354650774</v>
+        <v>107.36988645349226</v>
       </c>
       <c r="G127">
         <f t="shared" si="16"/>
-        <v>-130.13011354650774</v>
+        <v>154.24488645349226</v>
       </c>
       <c r="H127">
         <f t="shared" si="16"/>
-        <v>-123.88011354650774</v>
+        <v>201.11988645349226</v>
       </c>
       <c r="I127">
         <f t="shared" si="16"/>
-        <v>-117.63011354650774</v>
+        <v>247.99488645349226</v>
       </c>
       <c r="J127">
         <f t="shared" si="16"/>
-        <v>-111.38011354650774</v>
+        <v>294.86988645349226</v>
       </c>
       <c r="K127">
         <f t="shared" si="16"/>
-        <v>-105.13011354650774</v>
+        <v>341.74488645349226</v>
       </c>
       <c r="L127">
         <f t="shared" si="16"/>
-        <v>-98.880113546507744</v>
+        <v>388.61988645349226</v>
       </c>
       <c r="M127">
         <f t="shared" si="16"/>
-        <v>-92.630113546507744</v>
+        <v>435.49488645349226</v>
       </c>
       <c r="N127">
         <f t="shared" si="16"/>
-        <v>-86.380113546507744</v>
+        <v>482.36988645349226</v>
       </c>
       <c r="O127">
         <f t="shared" si="16"/>
-        <v>-80.130113546507744</v>
+        <v>529.2448864534922</v>
       </c>
       <c r="P127">
         <f t="shared" si="16"/>
-        <v>-73.880113546507744</v>
+        <v>576.1198864534922</v>
       </c>
       <c r="Q127">
         <f t="shared" si="16"/>
-        <v>-67.630113546507744</v>
+        <v>622.9948864534922</v>
       </c>
       <c r="R127">
         <f t="shared" si="16"/>
-        <v>-61.380113546507744</v>
+        <v>669.8698864534922</v>
       </c>
       <c r="S127">
         <f t="shared" si="16"/>
-        <v>-55.130113546507744</v>
+        <v>716.7448864534922</v>
       </c>
       <c r="T127">
         <f t="shared" si="16"/>
-        <v>-48.880113546507744</v>
+        <v>763.6198864534922</v>
       </c>
       <c r="U127">
         <f t="shared" si="16"/>
-        <v>-48.880113546507744</v>
+        <v>763.6198864534922</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -4710,83 +4679,83 @@
       </c>
       <c r="B128">
         <f t="shared" si="15"/>
-        <v>-174.029503620345</v>
+        <v>-92.779503620344997</v>
       </c>
       <c r="C128">
         <f t="shared" si="16"/>
-        <v>-167.779503620345</v>
+        <v>-45.904503620344997</v>
       </c>
       <c r="D128">
         <f t="shared" si="16"/>
-        <v>-161.529503620345</v>
+        <v>0.97049637965500324</v>
       </c>
       <c r="E128">
         <f t="shared" si="16"/>
-        <v>-155.279503620345</v>
+        <v>47.845496379655003</v>
       </c>
       <c r="F128">
         <f t="shared" si="16"/>
-        <v>-149.029503620345</v>
+        <v>94.720496379655003</v>
       </c>
       <c r="G128">
         <f t="shared" si="16"/>
-        <v>-142.779503620345</v>
+        <v>141.595496379655</v>
       </c>
       <c r="H128">
         <f t="shared" si="16"/>
-        <v>-136.529503620345</v>
+        <v>188.470496379655</v>
       </c>
       <c r="I128">
         <f t="shared" si="16"/>
-        <v>-130.279503620345</v>
+        <v>235.345496379655</v>
       </c>
       <c r="J128">
         <f t="shared" si="16"/>
-        <v>-124.029503620345</v>
+        <v>282.220496379655</v>
       </c>
       <c r="K128">
         <f t="shared" si="16"/>
-        <v>-117.779503620345</v>
+        <v>329.095496379655</v>
       </c>
       <c r="L128">
         <f t="shared" si="16"/>
-        <v>-111.529503620345</v>
+        <v>375.970496379655</v>
       </c>
       <c r="M128">
         <f t="shared" si="16"/>
-        <v>-105.279503620345</v>
+        <v>422.845496379655</v>
       </c>
       <c r="N128">
         <f t="shared" si="16"/>
-        <v>-99.029503620344997</v>
+        <v>469.720496379655</v>
       </c>
       <c r="O128">
         <f t="shared" si="16"/>
-        <v>-92.779503620344997</v>
+        <v>516.59549637965506</v>
       </c>
       <c r="P128">
         <f t="shared" si="16"/>
-        <v>-86.529503620344997</v>
+        <v>563.47049637965506</v>
       </c>
       <c r="Q128">
         <f t="shared" si="16"/>
-        <v>-80.279503620344997</v>
+        <v>610.34549637965506</v>
       </c>
       <c r="R128">
         <f t="shared" si="16"/>
-        <v>-74.029503620344997</v>
+        <v>657.22049637965506</v>
       </c>
       <c r="S128">
         <f t="shared" si="16"/>
-        <v>-67.779503620344997</v>
+        <v>704.09549637965506</v>
       </c>
       <c r="T128">
         <f t="shared" si="16"/>
-        <v>-61.529503620344997</v>
+        <v>750.97049637965506</v>
       </c>
       <c r="U128">
         <f t="shared" si="16"/>
-        <v>-61.529503620344997</v>
+        <v>750.97049637965506</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -4795,83 +4764,83 @@
       </c>
       <c r="B129">
         <f t="shared" si="15"/>
-        <v>-187.02623149688804</v>
+        <v>-105.77623149688804</v>
       </c>
       <c r="C129">
         <f t="shared" si="16"/>
-        <v>-180.77623149688804</v>
+        <v>-58.901231496888045</v>
       </c>
       <c r="D129">
         <f t="shared" si="16"/>
-        <v>-174.52623149688804</v>
+        <v>-12.026231496888045</v>
       </c>
       <c r="E129">
         <f t="shared" si="16"/>
-        <v>-168.27623149688804</v>
+        <v>34.848768503111955</v>
       </c>
       <c r="F129">
         <f t="shared" si="16"/>
-        <v>-162.02623149688804</v>
+        <v>81.723768503111955</v>
       </c>
       <c r="G129">
         <f t="shared" si="16"/>
-        <v>-155.77623149688804</v>
+        <v>128.59876850311196</v>
       </c>
       <c r="H129">
         <f t="shared" si="16"/>
-        <v>-149.52623149688804</v>
+        <v>175.47376850311196</v>
       </c>
       <c r="I129">
         <f t="shared" si="16"/>
-        <v>-143.27623149688804</v>
+        <v>222.34876850311196</v>
       </c>
       <c r="J129">
         <f t="shared" si="16"/>
-        <v>-137.02623149688804</v>
+        <v>269.22376850311196</v>
       </c>
       <c r="K129">
         <f t="shared" si="16"/>
-        <v>-130.77623149688804</v>
+        <v>316.09876850311196</v>
       </c>
       <c r="L129">
         <f t="shared" si="16"/>
-        <v>-124.52623149688804</v>
+        <v>362.97376850311196</v>
       </c>
       <c r="M129">
         <f t="shared" si="16"/>
-        <v>-118.27623149688804</v>
+        <v>409.84876850311196</v>
       </c>
       <c r="N129">
         <f t="shared" si="16"/>
-        <v>-112.02623149688804</v>
+        <v>456.72376850311196</v>
       </c>
       <c r="O129">
         <f t="shared" si="16"/>
-        <v>-105.77623149688804</v>
+        <v>503.59876850311196</v>
       </c>
       <c r="P129">
         <f t="shared" si="16"/>
-        <v>-99.526231496888045</v>
+        <v>550.47376850311196</v>
       </c>
       <c r="Q129">
         <f t="shared" si="16"/>
-        <v>-93.276231496888045</v>
+        <v>597.34876850311196</v>
       </c>
       <c r="R129">
         <f t="shared" si="16"/>
-        <v>-87.026231496888045</v>
+        <v>644.22376850311196</v>
       </c>
       <c r="S129">
         <f t="shared" si="16"/>
-        <v>-80.776231496888045</v>
+        <v>691.09876850311196</v>
       </c>
       <c r="T129">
         <f t="shared" si="16"/>
-        <v>-74.526231496888045</v>
+        <v>737.97376850311196</v>
       </c>
       <c r="U129">
         <f t="shared" si="16"/>
-        <v>-74.526231496888045</v>
+        <v>737.97376850311196</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -4880,83 +4849,83 @@
       </c>
       <c r="B130">
         <f t="shared" si="15"/>
-        <v>-200.3653679661239</v>
+        <v>-119.1153679661239</v>
       </c>
       <c r="C130">
         <f t="shared" si="16"/>
-        <v>-194.1153679661239</v>
+        <v>-72.240367966123898</v>
       </c>
       <c r="D130">
         <f t="shared" si="16"/>
-        <v>-187.8653679661239</v>
+        <v>-25.365367966123898</v>
       </c>
       <c r="E130">
         <f t="shared" si="16"/>
-        <v>-181.6153679661239</v>
+        <v>21.509632033876102</v>
       </c>
       <c r="F130">
         <f t="shared" si="16"/>
-        <v>-175.3653679661239</v>
+        <v>68.384632033876102</v>
       </c>
       <c r="G130">
         <f t="shared" si="16"/>
-        <v>-169.1153679661239</v>
+        <v>115.2596320338761</v>
       </c>
       <c r="H130">
         <f t="shared" si="16"/>
-        <v>-162.8653679661239</v>
+        <v>162.1346320338761</v>
       </c>
       <c r="I130">
         <f t="shared" si="16"/>
-        <v>-156.6153679661239</v>
+        <v>209.0096320338761</v>
       </c>
       <c r="J130">
         <f t="shared" si="16"/>
-        <v>-150.3653679661239</v>
+        <v>255.8846320338761</v>
       </c>
       <c r="K130">
         <f t="shared" si="16"/>
-        <v>-144.1153679661239</v>
+        <v>302.75963203387607</v>
       </c>
       <c r="L130">
         <f t="shared" si="16"/>
-        <v>-137.8653679661239</v>
+        <v>349.63463203387607</v>
       </c>
       <c r="M130">
         <f t="shared" si="16"/>
-        <v>-131.6153679661239</v>
+        <v>396.50963203387607</v>
       </c>
       <c r="N130">
         <f t="shared" si="16"/>
-        <v>-125.3653679661239</v>
+        <v>443.38463203387607</v>
       </c>
       <c r="O130">
         <f t="shared" si="16"/>
-        <v>-119.1153679661239</v>
+        <v>490.25963203387607</v>
       </c>
       <c r="P130">
         <f t="shared" si="16"/>
-        <v>-112.8653679661239</v>
+        <v>537.13463203387607</v>
       </c>
       <c r="Q130">
         <f t="shared" si="16"/>
-        <v>-106.6153679661239</v>
+        <v>584.00963203387607</v>
       </c>
       <c r="R130">
         <f t="shared" si="16"/>
-        <v>-100.3653679661239</v>
+        <v>630.88463203387607</v>
       </c>
       <c r="S130">
         <f t="shared" si="16"/>
-        <v>-94.115367966123898</v>
+        <v>677.75963203387607</v>
       </c>
       <c r="T130">
         <f t="shared" si="16"/>
-        <v>-87.865367966123898</v>
+        <v>724.63463203387607</v>
       </c>
       <c r="U130">
         <f t="shared" si="16"/>
-        <v>-87.865367966123898</v>
+        <v>724.63463203387607</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -4965,83 +4934,83 @@
       </c>
       <c r="B131">
         <f t="shared" si="15"/>
-        <v>-214.04224320754685</v>
+        <v>-132.79224320754685</v>
       </c>
       <c r="C131">
         <f t="shared" si="16"/>
-        <v>-207.79224320754685</v>
+        <v>-85.917243207546846</v>
       </c>
       <c r="D131">
         <f t="shared" si="16"/>
-        <v>-201.54224320754685</v>
+        <v>-39.042243207546846</v>
       </c>
       <c r="E131">
         <f t="shared" si="16"/>
-        <v>-195.29224320754685</v>
+        <v>7.8327567924531536</v>
       </c>
       <c r="F131">
         <f t="shared" si="16"/>
-        <v>-189.04224320754685</v>
+        <v>54.707756792453154</v>
       </c>
       <c r="G131">
         <f t="shared" si="16"/>
-        <v>-182.79224320754685</v>
+        <v>101.58275679245315</v>
       </c>
       <c r="H131">
         <f t="shared" si="16"/>
-        <v>-176.54224320754685</v>
+        <v>148.45775679245315</v>
       </c>
       <c r="I131">
         <f t="shared" si="16"/>
-        <v>-170.29224320754685</v>
+        <v>195.33275679245315</v>
       </c>
       <c r="J131">
         <f t="shared" si="16"/>
-        <v>-164.04224320754685</v>
+        <v>242.20775679245315</v>
       </c>
       <c r="K131">
         <f t="shared" si="16"/>
-        <v>-157.79224320754685</v>
+        <v>289.08275679245315</v>
       </c>
       <c r="L131">
         <f t="shared" si="16"/>
-        <v>-151.54224320754685</v>
+        <v>335.95775679245315</v>
       </c>
       <c r="M131">
         <f t="shared" si="16"/>
-        <v>-145.29224320754685</v>
+        <v>382.83275679245315</v>
       </c>
       <c r="N131">
         <f t="shared" si="16"/>
-        <v>-139.04224320754685</v>
+        <v>429.70775679245315</v>
       </c>
       <c r="O131">
         <f t="shared" si="16"/>
-        <v>-132.79224320754685</v>
+        <v>476.58275679245315</v>
       </c>
       <c r="P131">
         <f t="shared" si="16"/>
-        <v>-126.54224320754685</v>
+        <v>523.45775679245321</v>
       </c>
       <c r="Q131">
         <f t="shared" si="16"/>
-        <v>-120.29224320754685</v>
+        <v>570.33275679245321</v>
       </c>
       <c r="R131">
         <f t="shared" si="16"/>
-        <v>-114.04224320754685</v>
+        <v>617.20775679245321</v>
       </c>
       <c r="S131">
         <f t="shared" si="16"/>
-        <v>-107.79224320754685</v>
+        <v>664.08275679245321</v>
       </c>
       <c r="T131">
         <f t="shared" si="16"/>
-        <v>-101.54224320754685</v>
+        <v>710.95775679245321</v>
       </c>
       <c r="U131">
         <f t="shared" si="16"/>
-        <v>-101.54224320754685</v>
+        <v>710.95775679245321</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -5050,83 +5019,83 @@
       </c>
       <c r="B132">
         <f t="shared" si="15"/>
-        <v>-228.05242391366102</v>
+        <v>-146.80242391366102</v>
       </c>
       <c r="C132">
         <f t="shared" si="16"/>
-        <v>-221.80242391366102</v>
+        <v>-99.927423913661016</v>
       </c>
       <c r="D132">
         <f t="shared" si="16"/>
-        <v>-215.55242391366102</v>
+        <v>-53.052423913661016</v>
       </c>
       <c r="E132">
         <f t="shared" si="16"/>
-        <v>-209.30242391366102</v>
+        <v>-6.1774239136610163</v>
       </c>
       <c r="F132">
         <f t="shared" si="16"/>
-        <v>-203.05242391366102</v>
+        <v>40.697576086338984</v>
       </c>
       <c r="G132">
         <f t="shared" si="16"/>
-        <v>-196.80242391366102</v>
+        <v>87.572576086338984</v>
       </c>
       <c r="H132">
         <f t="shared" si="16"/>
-        <v>-190.55242391366102</v>
+        <v>134.44757608633898</v>
       </c>
       <c r="I132">
         <f t="shared" si="16"/>
-        <v>-184.30242391366102</v>
+        <v>181.32257608633898</v>
       </c>
       <c r="J132">
         <f t="shared" si="16"/>
-        <v>-178.05242391366102</v>
+        <v>228.19757608633898</v>
       </c>
       <c r="K132">
         <f t="shared" si="16"/>
-        <v>-171.80242391366102</v>
+        <v>275.07257608633898</v>
       </c>
       <c r="L132">
         <f t="shared" si="16"/>
-        <v>-165.55242391366102</v>
+        <v>321.94757608633898</v>
       </c>
       <c r="M132">
         <f t="shared" si="16"/>
-        <v>-159.30242391366102</v>
+        <v>368.82257608633898</v>
       </c>
       <c r="N132">
         <f t="shared" si="16"/>
-        <v>-153.05242391366102</v>
+        <v>415.69757608633898</v>
       </c>
       <c r="O132">
         <f t="shared" si="16"/>
-        <v>-146.80242391366102</v>
+        <v>462.57257608633898</v>
       </c>
       <c r="P132">
         <f t="shared" si="16"/>
-        <v>-140.55242391366102</v>
+        <v>509.44757608633898</v>
       </c>
       <c r="Q132">
         <f t="shared" si="16"/>
-        <v>-134.30242391366102</v>
+        <v>556.32257608633904</v>
       </c>
       <c r="R132">
         <f t="shared" si="16"/>
-        <v>-128.05242391366102</v>
+        <v>603.19757608633904</v>
       </c>
       <c r="S132">
         <f t="shared" si="16"/>
-        <v>-121.80242391366102</v>
+        <v>650.07257608633904</v>
       </c>
       <c r="T132">
         <f t="shared" si="16"/>
-        <v>-115.55242391366102</v>
+        <v>696.94757608633904</v>
       </c>
       <c r="U132">
         <f t="shared" si="16"/>
-        <v>-115.55242391366102</v>
+        <v>696.94757608633904</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -5135,83 +5104,83 @@
       </c>
       <c r="B133">
         <f t="shared" si="15"/>
-        <v>-242.39169318635467</v>
+        <v>-161.14169318635467</v>
       </c>
       <c r="C133">
         <f t="shared" si="16"/>
-        <v>-236.14169318635467</v>
+        <v>-114.26669318635467</v>
       </c>
       <c r="D133">
         <f t="shared" si="16"/>
-        <v>-229.89169318635467</v>
+        <v>-67.391693186354672</v>
       </c>
       <c r="E133">
         <f t="shared" si="16"/>
-        <v>-223.64169318635467</v>
+        <v>-20.516693186354672</v>
       </c>
       <c r="F133">
         <f t="shared" si="16"/>
-        <v>-217.39169318635467</v>
+        <v>26.358306813645328</v>
       </c>
       <c r="G133">
         <f t="shared" si="16"/>
-        <v>-211.14169318635467</v>
+        <v>73.233306813645328</v>
       </c>
       <c r="H133">
-        <f t="shared" ref="C133:V145" si="17">H$106*$F$82*$F$83/8-$A133^1.65/10</f>
-        <v>-204.89169318635467</v>
+        <f t="shared" ref="C133:U145" si="17">H$106*$F$82*$F$83/8-$A133^1.65/10</f>
+        <v>120.10830681364533</v>
       </c>
       <c r="I133">
         <f t="shared" si="17"/>
-        <v>-198.64169318635467</v>
+        <v>166.98330681364533</v>
       </c>
       <c r="J133">
         <f t="shared" si="17"/>
-        <v>-192.39169318635467</v>
+        <v>213.85830681364533</v>
       </c>
       <c r="K133">
         <f t="shared" si="17"/>
-        <v>-186.14169318635467</v>
+        <v>260.7333068136453</v>
       </c>
       <c r="L133">
         <f t="shared" si="17"/>
-        <v>-179.89169318635467</v>
+        <v>307.6083068136453</v>
       </c>
       <c r="M133">
         <f t="shared" si="17"/>
-        <v>-173.64169318635467</v>
+        <v>354.4833068136453</v>
       </c>
       <c r="N133">
         <f t="shared" si="17"/>
-        <v>-167.39169318635467</v>
+        <v>401.3583068136453</v>
       </c>
       <c r="O133">
         <f t="shared" si="17"/>
-        <v>-161.14169318635467</v>
+        <v>448.2333068136453</v>
       </c>
       <c r="P133">
         <f t="shared" si="17"/>
-        <v>-154.89169318635467</v>
+        <v>495.1083068136453</v>
       </c>
       <c r="Q133">
         <f t="shared" si="17"/>
-        <v>-148.64169318635467</v>
+        <v>541.9833068136453</v>
       </c>
       <c r="R133">
         <f t="shared" si="17"/>
-        <v>-142.39169318635467</v>
+        <v>588.8583068136453</v>
       </c>
       <c r="S133">
         <f t="shared" si="17"/>
-        <v>-136.14169318635467</v>
+        <v>635.7333068136453</v>
       </c>
       <c r="T133">
         <f t="shared" si="17"/>
-        <v>-129.89169318635467</v>
+        <v>682.6083068136453</v>
       </c>
       <c r="U133">
         <f t="shared" si="17"/>
-        <v>-129.89169318635467</v>
+        <v>682.6083068136453</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -5220,83 +5189,83 @@
       </c>
       <c r="B134">
         <f t="shared" si="15"/>
-        <v>-257.05603278483039</v>
+        <v>-175.80603278483039</v>
       </c>
       <c r="C134">
         <f t="shared" si="17"/>
-        <v>-250.80603278483039</v>
+        <v>-128.93103278483039</v>
       </c>
       <c r="D134">
         <f t="shared" si="17"/>
-        <v>-244.55603278483039</v>
+        <v>-82.056032784830393</v>
       </c>
       <c r="E134">
         <f t="shared" si="17"/>
-        <v>-238.30603278483039</v>
+        <v>-35.181032784830393</v>
       </c>
       <c r="F134">
         <f t="shared" si="17"/>
-        <v>-232.05603278483039</v>
+        <v>11.693967215169607</v>
       </c>
       <c r="G134">
         <f t="shared" si="17"/>
-        <v>-225.80603278483039</v>
+        <v>58.568967215169607</v>
       </c>
       <c r="H134">
         <f t="shared" si="17"/>
-        <v>-219.55603278483039</v>
+        <v>105.44396721516961</v>
       </c>
       <c r="I134">
         <f t="shared" si="17"/>
-        <v>-213.30603278483039</v>
+        <v>152.31896721516961</v>
       </c>
       <c r="J134">
         <f t="shared" si="17"/>
-        <v>-207.05603278483039</v>
+        <v>199.19396721516961</v>
       </c>
       <c r="K134">
         <f t="shared" si="17"/>
-        <v>-200.80603278483039</v>
+        <v>246.06896721516961</v>
       </c>
       <c r="L134">
         <f t="shared" si="17"/>
-        <v>-194.55603278483039</v>
+        <v>292.94396721516961</v>
       </c>
       <c r="M134">
         <f t="shared" si="17"/>
-        <v>-188.30603278483039</v>
+        <v>339.81896721516961</v>
       </c>
       <c r="N134">
         <f t="shared" si="17"/>
-        <v>-182.05603278483039</v>
+        <v>386.69396721516961</v>
       </c>
       <c r="O134">
         <f t="shared" si="17"/>
-        <v>-175.80603278483039</v>
+        <v>433.56896721516961</v>
       </c>
       <c r="P134">
         <f t="shared" si="17"/>
-        <v>-169.55603278483039</v>
+        <v>480.44396721516961</v>
       </c>
       <c r="Q134">
         <f t="shared" si="17"/>
-        <v>-163.30603278483039</v>
+        <v>527.31896721516955</v>
       </c>
       <c r="R134">
         <f t="shared" si="17"/>
-        <v>-157.05603278483039</v>
+        <v>574.19396721516955</v>
       </c>
       <c r="S134">
         <f t="shared" si="17"/>
-        <v>-150.80603278483039</v>
+        <v>621.06896721516955</v>
       </c>
       <c r="T134">
         <f t="shared" si="17"/>
-        <v>-144.55603278483039</v>
+        <v>667.94396721516955</v>
       </c>
       <c r="U134">
         <f t="shared" si="17"/>
-        <v>-144.55603278483039</v>
+        <v>667.94396721516955</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -5305,83 +5274,83 @@
       </c>
       <c r="B135">
         <f t="shared" si="15"/>
-        <v>-272.04160737989019</v>
+        <v>-190.79160737989019</v>
       </c>
       <c r="C135">
         <f t="shared" si="17"/>
-        <v>-265.79160737989019</v>
+        <v>-143.91660737989019</v>
       </c>
       <c r="D135">
         <f t="shared" si="17"/>
-        <v>-259.54160737989019</v>
+        <v>-97.041607379890195</v>
       </c>
       <c r="E135">
         <f t="shared" si="17"/>
-        <v>-253.29160737989019</v>
+        <v>-50.166607379890195</v>
       </c>
       <c r="F135">
         <f t="shared" si="17"/>
-        <v>-247.04160737989019</v>
+        <v>-3.2916073798901948</v>
       </c>
       <c r="G135">
         <f t="shared" si="17"/>
-        <v>-240.79160737989019</v>
+        <v>43.583392620109805</v>
       </c>
       <c r="H135">
         <f t="shared" si="17"/>
-        <v>-234.54160737989019</v>
+        <v>90.458392620109805</v>
       </c>
       <c r="I135">
         <f t="shared" si="17"/>
-        <v>-228.29160737989019</v>
+        <v>137.33339262010981</v>
       </c>
       <c r="J135">
         <f t="shared" si="17"/>
-        <v>-222.04160737989019</v>
+        <v>184.20839262010981</v>
       </c>
       <c r="K135">
         <f t="shared" si="17"/>
-        <v>-215.79160737989019</v>
+        <v>231.08339262010981</v>
       </c>
       <c r="L135">
         <f t="shared" si="17"/>
-        <v>-209.54160737989019</v>
+        <v>277.95839262010981</v>
       </c>
       <c r="M135">
         <f t="shared" si="17"/>
-        <v>-203.29160737989019</v>
+        <v>324.83339262010981</v>
       </c>
       <c r="N135">
         <f t="shared" si="17"/>
-        <v>-197.04160737989019</v>
+        <v>371.70839262010981</v>
       </c>
       <c r="O135">
         <f t="shared" si="17"/>
-        <v>-190.79160737989019</v>
+        <v>418.58339262010981</v>
       </c>
       <c r="P135">
         <f t="shared" si="17"/>
-        <v>-184.54160737989019</v>
+        <v>465.45839262010981</v>
       </c>
       <c r="Q135">
         <f t="shared" si="17"/>
-        <v>-178.29160737989019</v>
+        <v>512.33339262010986</v>
       </c>
       <c r="R135">
         <f t="shared" si="17"/>
-        <v>-172.04160737989019</v>
+        <v>559.20839262010986</v>
       </c>
       <c r="S135">
         <f t="shared" si="17"/>
-        <v>-165.79160737989019</v>
+        <v>606.08339262010986</v>
       </c>
       <c r="T135">
         <f t="shared" si="17"/>
-        <v>-159.54160737989019</v>
+        <v>652.95839262010986</v>
       </c>
       <c r="U135">
         <f t="shared" si="17"/>
-        <v>-159.54160737989019</v>
+        <v>652.95839262010986</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -5390,83 +5359,83 @@
       </c>
       <c r="B136">
         <f t="shared" si="15"/>
-        <v>-287.34475052966371</v>
+        <v>-206.09475052966371</v>
       </c>
       <c r="C136">
         <f t="shared" si="17"/>
-        <v>-281.09475052966371</v>
+        <v>-159.21975052966371</v>
       </c>
       <c r="D136">
         <f t="shared" si="17"/>
-        <v>-274.84475052966371</v>
+        <v>-112.34475052966371</v>
       </c>
       <c r="E136">
         <f t="shared" si="17"/>
-        <v>-268.59475052966371</v>
+        <v>-65.469750529663713</v>
       </c>
       <c r="F136">
         <f t="shared" si="17"/>
-        <v>-262.34475052966371</v>
+        <v>-18.594750529663713</v>
       </c>
       <c r="G136">
         <f t="shared" si="17"/>
-        <v>-256.09475052966371</v>
+        <v>28.280249470336287</v>
       </c>
       <c r="H136">
         <f t="shared" si="17"/>
-        <v>-249.84475052966371</v>
+        <v>75.155249470336287</v>
       </c>
       <c r="I136">
         <f t="shared" si="17"/>
-        <v>-243.59475052966371</v>
+        <v>122.03024947033629</v>
       </c>
       <c r="J136">
         <f t="shared" si="17"/>
-        <v>-237.34475052966371</v>
+        <v>168.90524947033629</v>
       </c>
       <c r="K136">
         <f t="shared" si="17"/>
-        <v>-231.09475052966371</v>
+        <v>215.78024947033629</v>
       </c>
       <c r="L136">
         <f t="shared" si="17"/>
-        <v>-224.84475052966371</v>
+        <v>262.65524947033629</v>
       </c>
       <c r="M136">
         <f t="shared" si="17"/>
-        <v>-218.59475052966371</v>
+        <v>309.53024947033629</v>
       </c>
       <c r="N136">
         <f t="shared" si="17"/>
-        <v>-212.34475052966371</v>
+        <v>356.40524947033629</v>
       </c>
       <c r="O136">
         <f t="shared" si="17"/>
-        <v>-206.09475052966371</v>
+        <v>403.28024947033629</v>
       </c>
       <c r="P136">
         <f t="shared" si="17"/>
-        <v>-199.84475052966371</v>
+        <v>450.15524947033629</v>
       </c>
       <c r="Q136">
         <f t="shared" si="17"/>
-        <v>-193.59475052966371</v>
+        <v>497.03024947033629</v>
       </c>
       <c r="R136">
         <f t="shared" si="17"/>
-        <v>-187.34475052966371</v>
+        <v>543.90524947033623</v>
       </c>
       <c r="S136">
         <f t="shared" si="17"/>
-        <v>-181.09475052966371</v>
+        <v>590.78024947033623</v>
       </c>
       <c r="T136">
         <f t="shared" si="17"/>
-        <v>-174.84475052966371</v>
+        <v>637.65524947033623</v>
       </c>
       <c r="U136">
         <f t="shared" si="17"/>
-        <v>-174.84475052966371</v>
+        <v>637.65524947033623</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -5475,83 +5444,83 @@
       </c>
       <c r="B137">
         <f t="shared" si="15"/>
-        <v>-302.96195214007173</v>
+        <v>-221.71195214007173</v>
       </c>
       <c r="C137">
         <f t="shared" si="17"/>
-        <v>-296.71195214007173</v>
+        <v>-174.83695214007173</v>
       </c>
       <c r="D137">
         <f t="shared" si="17"/>
-        <v>-290.46195214007173</v>
+        <v>-127.96195214007173</v>
       </c>
       <c r="E137">
         <f t="shared" si="17"/>
-        <v>-284.21195214007173</v>
+        <v>-81.08695214007173</v>
       </c>
       <c r="F137">
         <f t="shared" si="17"/>
-        <v>-277.96195214007173</v>
+        <v>-34.21195214007173</v>
       </c>
       <c r="G137">
         <f t="shared" si="17"/>
-        <v>-271.71195214007173</v>
+        <v>12.66304785992827</v>
       </c>
       <c r="H137">
         <f t="shared" si="17"/>
-        <v>-265.46195214007173</v>
+        <v>59.53804785992827</v>
       </c>
       <c r="I137">
         <f t="shared" si="17"/>
-        <v>-259.21195214007173</v>
+        <v>106.41304785992827</v>
       </c>
       <c r="J137">
         <f t="shared" si="17"/>
-        <v>-252.96195214007173</v>
+        <v>153.28804785992827</v>
       </c>
       <c r="K137">
         <f t="shared" si="17"/>
-        <v>-246.71195214007173</v>
+        <v>200.16304785992827</v>
       </c>
       <c r="L137">
         <f t="shared" si="17"/>
-        <v>-240.46195214007173</v>
+        <v>247.03804785992827</v>
       </c>
       <c r="M137">
         <f t="shared" si="17"/>
-        <v>-234.21195214007173</v>
+        <v>293.91304785992827</v>
       </c>
       <c r="N137">
         <f t="shared" si="17"/>
-        <v>-227.96195214007173</v>
+        <v>340.78804785992827</v>
       </c>
       <c r="O137">
         <f t="shared" si="17"/>
-        <v>-221.71195214007173</v>
+        <v>387.66304785992827</v>
       </c>
       <c r="P137">
         <f t="shared" si="17"/>
-        <v>-215.46195214007173</v>
+        <v>434.53804785992827</v>
       </c>
       <c r="Q137">
         <f t="shared" si="17"/>
-        <v>-209.21195214007173</v>
+        <v>481.41304785992827</v>
       </c>
       <c r="R137">
         <f t="shared" si="17"/>
-        <v>-202.96195214007173</v>
+        <v>528.28804785992827</v>
       </c>
       <c r="S137">
         <f t="shared" si="17"/>
-        <v>-196.71195214007173</v>
+        <v>575.16304785992827</v>
       </c>
       <c r="T137">
         <f t="shared" si="17"/>
-        <v>-190.46195214007173</v>
+        <v>622.03804785992827</v>
       </c>
       <c r="U137">
         <f t="shared" si="17"/>
-        <v>-190.46195214007173</v>
+        <v>622.03804785992827</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -5560,83 +5529,83 @@
       </c>
       <c r="B138">
         <f t="shared" si="15"/>
-        <v>-318.8898472121258</v>
+        <v>-237.6398472121258</v>
       </c>
       <c r="C138">
         <f t="shared" si="17"/>
-        <v>-312.6398472121258</v>
+        <v>-190.7648472121258</v>
       </c>
       <c r="D138">
         <f t="shared" si="17"/>
-        <v>-306.3898472121258</v>
+        <v>-143.8898472121258</v>
       </c>
       <c r="E138">
         <f t="shared" si="17"/>
-        <v>-300.1398472121258</v>
+        <v>-97.014847212125801</v>
       </c>
       <c r="F138">
         <f t="shared" si="17"/>
-        <v>-293.8898472121258</v>
+        <v>-50.139847212125801</v>
       </c>
       <c r="G138">
         <f t="shared" si="17"/>
-        <v>-287.6398472121258</v>
+        <v>-3.264847212125801</v>
       </c>
       <c r="H138">
         <f t="shared" si="17"/>
-        <v>-281.3898472121258</v>
+        <v>43.610152787874199</v>
       </c>
       <c r="I138">
         <f t="shared" si="17"/>
-        <v>-275.1398472121258</v>
+        <v>90.485152787874199</v>
       </c>
       <c r="J138">
         <f t="shared" si="17"/>
-        <v>-268.8898472121258</v>
+        <v>137.3601527878742</v>
       </c>
       <c r="K138">
         <f t="shared" si="17"/>
-        <v>-262.6398472121258</v>
+        <v>184.2351527878742</v>
       </c>
       <c r="L138">
         <f t="shared" si="17"/>
-        <v>-256.3898472121258</v>
+        <v>231.1101527878742</v>
       </c>
       <c r="M138">
         <f t="shared" si="17"/>
-        <v>-250.1398472121258</v>
+        <v>277.9851527878742</v>
       </c>
       <c r="N138">
         <f t="shared" si="17"/>
-        <v>-243.8898472121258</v>
+        <v>324.8601527878742</v>
       </c>
       <c r="O138">
         <f t="shared" si="17"/>
-        <v>-237.6398472121258</v>
+        <v>371.7351527878742</v>
       </c>
       <c r="P138">
         <f t="shared" si="17"/>
-        <v>-231.3898472121258</v>
+        <v>418.6101527878742</v>
       </c>
       <c r="Q138">
         <f t="shared" si="17"/>
-        <v>-225.1398472121258</v>
+        <v>465.4851527878742</v>
       </c>
       <c r="R138">
         <f t="shared" si="17"/>
-        <v>-218.8898472121258</v>
+        <v>512.3601527878742</v>
       </c>
       <c r="S138">
         <f t="shared" si="17"/>
-        <v>-212.6398472121258</v>
+        <v>559.2351527878742</v>
       </c>
       <c r="T138">
         <f t="shared" si="17"/>
-        <v>-206.3898472121258</v>
+        <v>606.1101527878742</v>
       </c>
       <c r="U138">
         <f t="shared" si="17"/>
-        <v>-206.3898472121258</v>
+        <v>606.1101527878742</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -5645,83 +5614,83 @@
       </c>
       <c r="B139">
         <f t="shared" si="15"/>
-        <v>-335.12520570964909</v>
+        <v>-253.87520570964909</v>
       </c>
       <c r="C139">
         <f t="shared" si="17"/>
-        <v>-328.87520570964909</v>
+        <v>-207.00020570964909</v>
       </c>
       <c r="D139">
         <f t="shared" si="17"/>
-        <v>-322.62520570964909</v>
+        <v>-160.12520570964909</v>
       </c>
       <c r="E139">
         <f t="shared" si="17"/>
-        <v>-316.37520570964909</v>
+        <v>-113.25020570964909</v>
       </c>
       <c r="F139">
         <f t="shared" si="17"/>
-        <v>-310.12520570964909</v>
+        <v>-66.375205709649094</v>
       </c>
       <c r="G139">
         <f t="shared" si="17"/>
-        <v>-303.87520570964909</v>
+        <v>-19.500205709649094</v>
       </c>
       <c r="H139">
         <f t="shared" si="17"/>
-        <v>-297.62520570964909</v>
+        <v>27.374794290350906</v>
       </c>
       <c r="I139">
         <f t="shared" si="17"/>
-        <v>-291.37520570964909</v>
+        <v>74.249794290350906</v>
       </c>
       <c r="J139">
         <f t="shared" si="17"/>
-        <v>-285.12520570964909</v>
+        <v>121.12479429035091</v>
       </c>
       <c r="K139">
         <f t="shared" si="17"/>
-        <v>-278.87520570964909</v>
+        <v>167.99979429035091</v>
       </c>
       <c r="L139">
         <f t="shared" si="17"/>
-        <v>-272.62520570964909</v>
+        <v>214.87479429035091</v>
       </c>
       <c r="M139">
         <f t="shared" si="17"/>
-        <v>-266.37520570964909</v>
+        <v>261.74979429035091</v>
       </c>
       <c r="N139">
         <f t="shared" si="17"/>
-        <v>-260.12520570964909</v>
+        <v>308.62479429035091</v>
       </c>
       <c r="O139">
         <f t="shared" si="17"/>
-        <v>-253.87520570964909</v>
+        <v>355.49979429035091</v>
       </c>
       <c r="P139">
         <f t="shared" si="17"/>
-        <v>-247.62520570964909</v>
+        <v>402.37479429035091</v>
       </c>
       <c r="Q139">
         <f t="shared" si="17"/>
-        <v>-241.37520570964909</v>
+        <v>449.24979429035091</v>
       </c>
       <c r="R139">
         <f t="shared" si="17"/>
-        <v>-235.12520570964909</v>
+        <v>496.12479429035091</v>
       </c>
       <c r="S139">
         <f t="shared" si="17"/>
-        <v>-228.87520570964909</v>
+        <v>542.99979429035091</v>
       </c>
       <c r="T139">
         <f t="shared" si="17"/>
-        <v>-222.62520570964909</v>
+        <v>589.87479429035091</v>
       </c>
       <c r="U139">
         <f t="shared" si="17"/>
-        <v>-222.62520570964909</v>
+        <v>589.87479429035091</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -5730,83 +5699,83 @@
       </c>
       <c r="B140">
         <f t="shared" si="15"/>
-        <v>-351.6649234067242</v>
+        <v>-270.4149234067242</v>
       </c>
       <c r="C140">
         <f t="shared" si="17"/>
-        <v>-345.4149234067242</v>
+        <v>-223.5399234067242</v>
       </c>
       <c r="D140">
         <f t="shared" si="17"/>
-        <v>-339.1649234067242</v>
+        <v>-176.6649234067242</v>
       </c>
       <c r="E140">
         <f t="shared" si="17"/>
-        <v>-332.9149234067242</v>
+        <v>-129.7899234067242</v>
       </c>
       <c r="F140">
         <f t="shared" si="17"/>
-        <v>-326.6649234067242</v>
+        <v>-82.914923406724199</v>
       </c>
       <c r="G140">
         <f t="shared" si="17"/>
-        <v>-320.4149234067242</v>
+        <v>-36.039923406724199</v>
       </c>
       <c r="H140">
         <f t="shared" si="17"/>
-        <v>-314.1649234067242</v>
+        <v>10.835076593275801</v>
       </c>
       <c r="I140">
         <f t="shared" si="17"/>
-        <v>-307.9149234067242</v>
+        <v>57.710076593275801</v>
       </c>
       <c r="J140">
         <f t="shared" si="17"/>
-        <v>-301.6649234067242</v>
+        <v>104.5850765932758</v>
       </c>
       <c r="K140">
         <f t="shared" si="17"/>
-        <v>-295.4149234067242</v>
+        <v>151.4600765932758</v>
       </c>
       <c r="L140">
         <f t="shared" si="17"/>
-        <v>-289.1649234067242</v>
+        <v>198.3350765932758</v>
       </c>
       <c r="M140">
         <f t="shared" si="17"/>
-        <v>-282.9149234067242</v>
+        <v>245.2100765932758</v>
       </c>
       <c r="N140">
         <f t="shared" si="17"/>
-        <v>-276.6649234067242</v>
+        <v>292.0850765932758</v>
       </c>
       <c r="O140">
         <f t="shared" si="17"/>
-        <v>-270.4149234067242</v>
+        <v>338.9600765932758</v>
       </c>
       <c r="P140">
         <f t="shared" si="17"/>
-        <v>-264.1649234067242</v>
+        <v>385.8350765932758</v>
       </c>
       <c r="Q140">
         <f t="shared" si="17"/>
-        <v>-257.9149234067242</v>
+        <v>432.7100765932758</v>
       </c>
       <c r="R140">
         <f t="shared" si="17"/>
-        <v>-251.6649234067242</v>
+        <v>479.5850765932758</v>
       </c>
       <c r="S140">
         <f t="shared" si="17"/>
-        <v>-245.4149234067242</v>
+        <v>526.46007659327574</v>
       </c>
       <c r="T140">
         <f t="shared" si="17"/>
-        <v>-239.1649234067242</v>
+        <v>573.33507659327574</v>
       </c>
       <c r="U140">
         <f t="shared" si="17"/>
-        <v>-239.1649234067242</v>
+        <v>573.33507659327574</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -5815,83 +5784,83 @@
       </c>
       <c r="B141">
         <f t="shared" si="15"/>
-        <v>-368.50601359526411</v>
+        <v>-287.25601359526411</v>
       </c>
       <c r="C141">
         <f t="shared" si="17"/>
-        <v>-362.25601359526411</v>
+        <v>-240.38101359526411</v>
       </c>
       <c r="D141">
         <f t="shared" si="17"/>
-        <v>-356.00601359526411</v>
+        <v>-193.50601359526411</v>
       </c>
       <c r="E141">
         <f t="shared" si="17"/>
-        <v>-349.75601359526411</v>
+        <v>-146.63101359526411</v>
       </c>
       <c r="F141">
         <f t="shared" si="17"/>
-        <v>-343.50601359526411</v>
+        <v>-99.756013595264108</v>
       </c>
       <c r="G141">
         <f t="shared" si="17"/>
-        <v>-337.25601359526411</v>
+        <v>-52.881013595264108</v>
       </c>
       <c r="H141">
         <f t="shared" si="17"/>
-        <v>-331.00601359526411</v>
+        <v>-6.0060135952641076</v>
       </c>
       <c r="I141">
         <f t="shared" si="17"/>
-        <v>-324.75601359526411</v>
+        <v>40.868986404735892</v>
       </c>
       <c r="J141">
         <f t="shared" si="17"/>
-        <v>-318.50601359526411</v>
+        <v>87.743986404735892</v>
       </c>
       <c r="K141">
         <f t="shared" si="17"/>
-        <v>-312.25601359526411</v>
+        <v>134.61898640473589</v>
       </c>
       <c r="L141">
         <f t="shared" si="17"/>
-        <v>-306.00601359526411</v>
+        <v>181.49398640473589</v>
       </c>
       <c r="M141">
         <f t="shared" si="17"/>
-        <v>-299.75601359526411</v>
+        <v>228.36898640473589</v>
       </c>
       <c r="N141">
         <f t="shared" si="17"/>
-        <v>-293.50601359526411</v>
+        <v>275.24398640473589</v>
       </c>
       <c r="O141">
         <f t="shared" si="17"/>
-        <v>-287.25601359526411</v>
+        <v>322.11898640473589</v>
       </c>
       <c r="P141">
         <f t="shared" si="17"/>
-        <v>-281.00601359526411</v>
+        <v>368.99398640473589</v>
       </c>
       <c r="Q141">
         <f t="shared" si="17"/>
-        <v>-274.75601359526411</v>
+        <v>415.86898640473589</v>
       </c>
       <c r="R141">
         <f t="shared" si="17"/>
-        <v>-268.50601359526411</v>
+        <v>462.74398640473589</v>
       </c>
       <c r="S141">
         <f t="shared" si="17"/>
-        <v>-262.25601359526411</v>
+        <v>509.61898640473589</v>
       </c>
       <c r="T141">
         <f t="shared" si="17"/>
-        <v>-256.00601359526411</v>
+        <v>556.49398640473589</v>
       </c>
       <c r="U141">
         <f t="shared" si="17"/>
-        <v>-256.00601359526411</v>
+        <v>556.49398640473589</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -5900,83 +5869,83 @@
       </c>
       <c r="B142">
         <f t="shared" si="15"/>
-        <v>-385.64559955061725</v>
+        <v>-304.39559955061725</v>
       </c>
       <c r="C142">
         <f t="shared" si="17"/>
-        <v>-379.39559955061725</v>
+        <v>-257.52059955061725</v>
       </c>
       <c r="D142">
         <f t="shared" si="17"/>
-        <v>-373.14559955061725</v>
+        <v>-210.64559955061725</v>
       </c>
       <c r="E142">
         <f t="shared" si="17"/>
-        <v>-366.89559955061725</v>
+        <v>-163.77059955061725</v>
       </c>
       <c r="F142">
         <f t="shared" si="17"/>
-        <v>-360.64559955061725</v>
+        <v>-116.89559955061725</v>
       </c>
       <c r="G142">
         <f t="shared" si="17"/>
-        <v>-354.39559955061725</v>
+        <v>-70.020599550617248</v>
       </c>
       <c r="H142">
         <f t="shared" si="17"/>
-        <v>-348.14559955061725</v>
+        <v>-23.145599550617248</v>
       </c>
       <c r="I142">
         <f t="shared" si="17"/>
-        <v>-341.89559955061725</v>
+        <v>23.729400449382752</v>
       </c>
       <c r="J142">
         <f t="shared" si="17"/>
-        <v>-335.64559955061725</v>
+        <v>70.604400449382752</v>
       </c>
       <c r="K142">
         <f t="shared" si="17"/>
-        <v>-329.39559955061725</v>
+        <v>117.47940044938275</v>
       </c>
       <c r="L142">
         <f t="shared" si="17"/>
-        <v>-323.14559955061725</v>
+        <v>164.35440044938275</v>
       </c>
       <c r="M142">
         <f t="shared" si="17"/>
-        <v>-316.89559955061725</v>
+        <v>211.22940044938275</v>
       </c>
       <c r="N142">
         <f t="shared" si="17"/>
-        <v>-310.64559955061725</v>
+        <v>258.10440044938275</v>
       </c>
       <c r="O142">
         <f t="shared" si="17"/>
-        <v>-304.39559955061725</v>
+        <v>304.97940044938275</v>
       </c>
       <c r="P142">
         <f t="shared" si="17"/>
-        <v>-298.14559955061725</v>
+        <v>351.85440044938275</v>
       </c>
       <c r="Q142">
         <f t="shared" si="17"/>
-        <v>-291.89559955061725</v>
+        <v>398.72940044938275</v>
       </c>
       <c r="R142">
         <f t="shared" si="17"/>
-        <v>-285.64559955061725</v>
+        <v>445.60440044938275</v>
       </c>
       <c r="S142">
         <f t="shared" si="17"/>
-        <v>-279.39559955061725</v>
+        <v>492.47940044938275</v>
       </c>
       <c r="T142">
         <f t="shared" si="17"/>
-        <v>-273.14559955061725</v>
+        <v>539.35440044938275</v>
       </c>
       <c r="U142">
         <f t="shared" si="17"/>
-        <v>-273.14559955061725</v>
+        <v>539.35440044938275</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -5985,83 +5954,83 @@
       </c>
       <c r="B143">
         <f t="shared" si="15"/>
-        <v>-403.08090766758869</v>
+        <v>-321.83090766758869</v>
       </c>
       <c r="C143">
         <f t="shared" si="17"/>
-        <v>-396.83090766758869</v>
+        <v>-274.95590766758869</v>
       </c>
       <c r="D143">
         <f t="shared" si="17"/>
-        <v>-390.58090766758869</v>
+        <v>-228.08090766758869</v>
       </c>
       <c r="E143">
         <f t="shared" si="17"/>
-        <v>-384.33090766758869</v>
+        <v>-181.20590766758869</v>
       </c>
       <c r="F143">
         <f t="shared" si="17"/>
-        <v>-378.08090766758869</v>
+        <v>-134.33090766758869</v>
       </c>
       <c r="G143">
         <f t="shared" si="17"/>
-        <v>-371.83090766758869</v>
+        <v>-87.45590766758869</v>
       </c>
       <c r="H143">
         <f t="shared" si="17"/>
-        <v>-365.58090766758869</v>
+        <v>-40.58090766758869</v>
       </c>
       <c r="I143">
         <f t="shared" si="17"/>
-        <v>-359.33090766758869</v>
+        <v>6.2940923324113101</v>
       </c>
       <c r="J143">
         <f t="shared" si="17"/>
-        <v>-353.08090766758869</v>
+        <v>53.16909233241131</v>
       </c>
       <c r="K143">
         <f t="shared" si="17"/>
-        <v>-346.83090766758869</v>
+        <v>100.04409233241131</v>
       </c>
       <c r="L143">
         <f t="shared" si="17"/>
-        <v>-340.58090766758869</v>
+        <v>146.91909233241131</v>
       </c>
       <c r="M143">
         <f t="shared" si="17"/>
-        <v>-334.33090766758869</v>
+        <v>193.79409233241131</v>
       </c>
       <c r="N143">
         <f t="shared" si="17"/>
-        <v>-328.08090766758869</v>
+        <v>240.66909233241131</v>
       </c>
       <c r="O143">
         <f t="shared" si="17"/>
-        <v>-321.83090766758869</v>
+        <v>287.54409233241131</v>
       </c>
       <c r="P143">
         <f t="shared" si="17"/>
-        <v>-315.58090766758869</v>
+        <v>334.41909233241131</v>
       </c>
       <c r="Q143">
         <f t="shared" si="17"/>
-        <v>-309.33090766758869</v>
+        <v>381.29409233241131</v>
       </c>
       <c r="R143">
         <f t="shared" si="17"/>
-        <v>-303.08090766758869</v>
+        <v>428.16909233241131</v>
       </c>
       <c r="S143">
         <f t="shared" si="17"/>
-        <v>-296.83090766758869</v>
+        <v>475.04409233241131</v>
       </c>
       <c r="T143">
         <f t="shared" si="17"/>
-        <v>-290.58090766758869</v>
+        <v>521.91909233241131</v>
       </c>
       <c r="U143">
         <f t="shared" si="17"/>
-        <v>-290.58090766758869</v>
+        <v>521.91909233241131</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -6070,83 +6039,83 @@
       </c>
       <c r="B144">
         <f t="shared" si="15"/>
-        <v>-420.8092611914164</v>
+        <v>-339.5592611914164</v>
       </c>
       <c r="C144">
         <f t="shared" si="17"/>
-        <v>-414.5592611914164</v>
+        <v>-292.6842611914164</v>
       </c>
       <c r="D144">
         <f t="shared" si="17"/>
-        <v>-408.3092611914164</v>
+        <v>-245.8092611914164</v>
       </c>
       <c r="E144">
         <f t="shared" si="17"/>
-        <v>-402.0592611914164</v>
+        <v>-198.9342611914164</v>
       </c>
       <c r="F144">
         <f t="shared" si="17"/>
-        <v>-395.8092611914164</v>
+        <v>-152.0592611914164</v>
       </c>
       <c r="G144">
         <f t="shared" si="17"/>
-        <v>-389.5592611914164</v>
+        <v>-105.1842611914164</v>
       </c>
       <c r="H144">
         <f t="shared" si="17"/>
-        <v>-383.3092611914164</v>
+        <v>-58.309261191416397</v>
       </c>
       <c r="I144">
         <f t="shared" si="17"/>
-        <v>-377.0592611914164</v>
+        <v>-11.434261191416397</v>
       </c>
       <c r="J144">
         <f t="shared" si="17"/>
-        <v>-370.8092611914164</v>
+        <v>35.440738808583603</v>
       </c>
       <c r="K144">
         <f t="shared" si="17"/>
-        <v>-364.5592611914164</v>
+        <v>82.315738808583603</v>
       </c>
       <c r="L144">
         <f t="shared" si="17"/>
-        <v>-358.3092611914164</v>
+        <v>129.1907388085836</v>
       </c>
       <c r="M144">
         <f t="shared" si="17"/>
-        <v>-352.0592611914164</v>
+        <v>176.0657388085836</v>
       </c>
       <c r="N144">
         <f t="shared" si="17"/>
-        <v>-345.8092611914164</v>
+        <v>222.9407388085836</v>
       </c>
       <c r="O144">
         <f t="shared" si="17"/>
-        <v>-339.5592611914164</v>
+        <v>269.8157388085836</v>
       </c>
       <c r="P144">
         <f t="shared" si="17"/>
-        <v>-333.3092611914164</v>
+        <v>316.6907388085836</v>
       </c>
       <c r="Q144">
         <f t="shared" si="17"/>
-        <v>-327.0592611914164</v>
+        <v>363.5657388085836</v>
       </c>
       <c r="R144">
         <f t="shared" si="17"/>
-        <v>-320.8092611914164</v>
+        <v>410.4407388085836</v>
       </c>
       <c r="S144">
         <f t="shared" si="17"/>
-        <v>-314.5592611914164</v>
+        <v>457.3157388085836</v>
       </c>
       <c r="T144">
         <f t="shared" si="17"/>
-        <v>-308.3092611914164</v>
+        <v>504.1907388085836</v>
       </c>
       <c r="U144">
         <f t="shared" si="17"/>
-        <v>-308.3092611914164</v>
+        <v>504.1907388085836</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -6155,83 +6124,83 @@
       </c>
       <c r="B145">
         <f t="shared" si="15"/>
-        <v>-438.82807447841742</v>
+        <v>-357.57807447841742</v>
       </c>
       <c r="C145">
         <f t="shared" si="17"/>
-        <v>-432.57807447841742</v>
+        <v>-310.70307447841742</v>
       </c>
       <c r="D145">
         <f t="shared" si="17"/>
-        <v>-426.32807447841742</v>
+        <v>-263.82807447841742</v>
       </c>
       <c r="E145">
         <f t="shared" si="17"/>
-        <v>-420.07807447841742</v>
+        <v>-216.95307447841742</v>
       </c>
       <c r="F145">
         <f t="shared" si="17"/>
-        <v>-413.82807447841742</v>
+        <v>-170.07807447841742</v>
       </c>
       <c r="G145">
         <f t="shared" si="17"/>
-        <v>-407.57807447841742</v>
+        <v>-123.20307447841742</v>
       </c>
       <c r="H145">
         <f t="shared" si="17"/>
-        <v>-401.32807447841742</v>
+        <v>-76.32807447841742</v>
       </c>
       <c r="I145">
         <f t="shared" si="17"/>
-        <v>-395.07807447841742</v>
+        <v>-29.45307447841742</v>
       </c>
       <c r="J145">
         <f t="shared" si="17"/>
-        <v>-388.82807447841742</v>
+        <v>17.42192552158258</v>
       </c>
       <c r="K145">
         <f t="shared" si="17"/>
-        <v>-382.57807447841742</v>
+        <v>64.29692552158258</v>
       </c>
       <c r="L145">
         <f t="shared" si="17"/>
-        <v>-376.32807447841742</v>
+        <v>111.17192552158258</v>
       </c>
       <c r="M145">
         <f t="shared" si="17"/>
-        <v>-370.07807447841742</v>
+        <v>158.04692552158258</v>
       </c>
       <c r="N145">
         <f t="shared" si="17"/>
-        <v>-363.82807447841742</v>
+        <v>204.92192552158258</v>
       </c>
       <c r="O145">
         <f t="shared" si="17"/>
-        <v>-357.57807447841742</v>
+        <v>251.79692552158258</v>
       </c>
       <c r="P145">
         <f t="shared" si="17"/>
-        <v>-351.32807447841742</v>
+        <v>298.67192552158258</v>
       </c>
       <c r="Q145">
         <f t="shared" si="17"/>
-        <v>-345.07807447841742</v>
+        <v>345.54692552158258</v>
       </c>
       <c r="R145">
         <f t="shared" si="17"/>
-        <v>-338.82807447841742</v>
+        <v>392.42192552158258</v>
       </c>
       <c r="S145">
         <f t="shared" si="17"/>
-        <v>-332.57807447841742</v>
+        <v>439.29692552158258</v>
       </c>
       <c r="T145">
         <f t="shared" si="17"/>
-        <v>-326.32807447841742</v>
+        <v>486.17192552158258</v>
       </c>
       <c r="U145">
         <f t="shared" si="17"/>
-        <v>-326.32807447841742</v>
+        <v>486.17192552158258</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
@@ -6240,83 +6209,83 @@
       </c>
       <c r="B146">
         <f t="shared" si="15"/>
-        <v>-457.13484772960908</v>
+        <v>-375.88484772960908</v>
       </c>
       <c r="C146">
-        <f t="shared" ref="C146:V151" si="18">C$106*$F$82*$F$83/8-$A146^1.65/10</f>
-        <v>-450.88484772960908</v>
+        <f t="shared" ref="C146:U151" si="18">C$106*$F$82*$F$83/8-$A146^1.65/10</f>
+        <v>-329.00984772960908</v>
       </c>
       <c r="D146">
         <f t="shared" si="18"/>
-        <v>-444.63484772960908</v>
+        <v>-282.13484772960908</v>
       </c>
       <c r="E146">
         <f t="shared" si="18"/>
-        <v>-438.38484772960908</v>
+        <v>-235.25984772960908</v>
       </c>
       <c r="F146">
         <f t="shared" si="18"/>
-        <v>-432.13484772960908</v>
+        <v>-188.38484772960908</v>
       </c>
       <c r="G146">
         <f t="shared" si="18"/>
-        <v>-425.88484772960908</v>
+        <v>-141.50984772960908</v>
       </c>
       <c r="H146">
         <f t="shared" si="18"/>
-        <v>-419.63484772960908</v>
+        <v>-94.634847729609078</v>
       </c>
       <c r="I146">
         <f t="shared" si="18"/>
-        <v>-413.38484772960908</v>
+        <v>-47.759847729609078</v>
       </c>
       <c r="J146">
         <f t="shared" si="18"/>
-        <v>-407.13484772960908</v>
+        <v>-0.88484772960907776</v>
       </c>
       <c r="K146">
         <f t="shared" si="18"/>
-        <v>-400.88484772960908</v>
+        <v>45.990152270390922</v>
       </c>
       <c r="L146">
         <f t="shared" si="18"/>
-        <v>-394.63484772960908</v>
+        <v>92.865152270390922</v>
       </c>
       <c r="M146">
         <f t="shared" si="18"/>
-        <v>-388.38484772960908</v>
+        <v>139.74015227039092</v>
       </c>
       <c r="N146">
         <f t="shared" si="18"/>
-        <v>-382.13484772960908</v>
+        <v>186.61515227039092</v>
       </c>
       <c r="O146">
         <f t="shared" si="18"/>
-        <v>-375.88484772960908</v>
+        <v>233.49015227039092</v>
       </c>
       <c r="P146">
         <f t="shared" si="18"/>
-        <v>-369.63484772960908</v>
+        <v>280.36515227039092</v>
       </c>
       <c r="Q146">
         <f t="shared" si="18"/>
-        <v>-363.38484772960908</v>
+        <v>327.24015227039092</v>
       </c>
       <c r="R146">
         <f t="shared" si="18"/>
-        <v>-357.13484772960908</v>
+        <v>374.11515227039092</v>
       </c>
       <c r="S146">
         <f t="shared" si="18"/>
-        <v>-350.88484772960908</v>
+        <v>420.99015227039092</v>
       </c>
       <c r="T146">
         <f t="shared" si="18"/>
-        <v>-344.63484772960908</v>
+        <v>467.86515227039092</v>
       </c>
       <c r="U146">
         <f t="shared" si="18"/>
-        <v>-344.63484772960908</v>
+        <v>467.86515227039092</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -6325,83 +6294,83 @@
       </c>
       <c r="B147">
         <f t="shared" si="15"/>
-        <v>-475.72716214791882</v>
+        <v>-394.47716214791882</v>
       </c>
       <c r="C147">
         <f t="shared" si="18"/>
-        <v>-469.47716214791882</v>
+        <v>-347.60216214791882</v>
       </c>
       <c r="D147">
         <f t="shared" si="18"/>
-        <v>-463.22716214791882</v>
+        <v>-300.72716214791882</v>
       </c>
       <c r="E147">
         <f t="shared" si="18"/>
-        <v>-456.97716214791882</v>
+        <v>-253.85216214791882</v>
       </c>
       <c r="F147">
         <f t="shared" si="18"/>
-        <v>-450.72716214791882</v>
+        <v>-206.97716214791882</v>
       </c>
       <c r="G147">
         <f t="shared" si="18"/>
-        <v>-444.47716214791882</v>
+        <v>-160.10216214791882</v>
       </c>
       <c r="H147">
         <f t="shared" si="18"/>
-        <v>-438.22716214791882</v>
+        <v>-113.22716214791882</v>
       </c>
       <c r="I147">
         <f t="shared" si="18"/>
-        <v>-431.97716214791882</v>
+        <v>-66.352162147918818</v>
       </c>
       <c r="J147">
         <f t="shared" si="18"/>
-        <v>-425.72716214791882</v>
+        <v>-19.477162147918818</v>
       </c>
       <c r="K147">
         <f t="shared" si="18"/>
-        <v>-419.47716214791882</v>
+        <v>27.397837852081182</v>
       </c>
       <c r="L147">
         <f t="shared" si="18"/>
-        <v>-413.22716214791882</v>
+        <v>74.272837852081182</v>
       </c>
       <c r="M147">
         <f t="shared" si="18"/>
-        <v>-406.97716214791882</v>
+        <v>121.14783785208118</v>
       </c>
       <c r="N147">
         <f t="shared" si="18"/>
-        <v>-400.72716214791882</v>
+        <v>168.02283785208118</v>
       </c>
       <c r="O147">
         <f t="shared" si="18"/>
-        <v>-394.47716214791882</v>
+        <v>214.89783785208118</v>
       </c>
       <c r="P147">
         <f t="shared" si="18"/>
-        <v>-388.22716214791882</v>
+        <v>261.77283785208118</v>
       </c>
       <c r="Q147">
         <f t="shared" si="18"/>
-        <v>-381.97716214791882</v>
+        <v>308.64783785208118</v>
       </c>
       <c r="R147">
         <f t="shared" si="18"/>
-        <v>-375.72716214791882</v>
+        <v>355.52283785208118</v>
       </c>
       <c r="S147">
         <f t="shared" si="18"/>
-        <v>-369.47716214791882</v>
+        <v>402.39783785208118</v>
       </c>
       <c r="T147">
         <f t="shared" si="18"/>
-        <v>-363.22716214791882</v>
+        <v>449.27283785208118</v>
       </c>
       <c r="U147">
         <f t="shared" si="18"/>
-        <v>-363.22716214791882</v>
+        <v>449.27283785208118</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -6410,83 +6379,83 @@
       </c>
       <c r="B148">
         <f t="shared" si="15"/>
-        <v>-494.60267547574995</v>
+        <v>-413.35267547574995</v>
       </c>
       <c r="C148">
         <f t="shared" si="18"/>
-        <v>-488.35267547574995</v>
+        <v>-366.47767547574995</v>
       </c>
       <c r="D148">
         <f t="shared" si="18"/>
-        <v>-482.10267547574995</v>
+        <v>-319.60267547574995</v>
       </c>
       <c r="E148">
         <f t="shared" si="18"/>
-        <v>-475.85267547574995</v>
+        <v>-272.72767547574995</v>
       </c>
       <c r="F148">
         <f t="shared" si="18"/>
-        <v>-469.60267547574995</v>
+        <v>-225.85267547574995</v>
       </c>
       <c r="G148">
         <f t="shared" si="18"/>
-        <v>-463.35267547574995</v>
+        <v>-178.97767547574995</v>
       </c>
       <c r="H148">
         <f t="shared" si="18"/>
-        <v>-457.10267547574995</v>
+        <v>-132.10267547574995</v>
       </c>
       <c r="I148">
         <f t="shared" si="18"/>
-        <v>-450.85267547574995</v>
+        <v>-85.227675475749948</v>
       </c>
       <c r="J148">
         <f t="shared" si="18"/>
-        <v>-444.60267547574995</v>
+        <v>-38.352675475749948</v>
       </c>
       <c r="K148">
         <f t="shared" si="18"/>
-        <v>-438.35267547574995</v>
+        <v>8.5223245242500525</v>
       </c>
       <c r="L148">
         <f t="shared" si="18"/>
-        <v>-432.10267547574995</v>
+        <v>55.397324524250052</v>
       </c>
       <c r="M148">
         <f t="shared" si="18"/>
-        <v>-425.85267547574995</v>
+        <v>102.27232452425005</v>
       </c>
       <c r="N148">
         <f t="shared" si="18"/>
-        <v>-419.60267547574995</v>
+        <v>149.14732452425005</v>
       </c>
       <c r="O148">
         <f t="shared" si="18"/>
-        <v>-413.35267547574995</v>
+        <v>196.02232452425005</v>
       </c>
       <c r="P148">
         <f t="shared" si="18"/>
-        <v>-407.10267547574995</v>
+        <v>242.89732452425005</v>
       </c>
       <c r="Q148">
         <f t="shared" si="18"/>
-        <v>-400.85267547574995</v>
+        <v>289.77232452425005</v>
       </c>
       <c r="R148">
         <f t="shared" si="18"/>
-        <v>-394.60267547574995</v>
+        <v>336.64732452425005</v>
       </c>
       <c r="S148">
         <f t="shared" si="18"/>
-        <v>-388.35267547574995</v>
+        <v>383.52232452425005</v>
       </c>
       <c r="T148">
         <f t="shared" si="18"/>
-        <v>-382.10267547574995</v>
+        <v>430.39732452425005</v>
       </c>
       <c r="U148">
         <f t="shared" si="18"/>
-        <v>-382.10267547574995</v>
+        <v>430.39732452425005</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -6495,83 +6464,83 @@
       </c>
       <c r="B149">
         <f t="shared" si="15"/>
-        <v>-513.75911787502048</v>
+        <v>-432.50911787502048</v>
       </c>
       <c r="C149">
         <f t="shared" si="18"/>
-        <v>-507.50911787502048</v>
+        <v>-385.63411787502048</v>
       </c>
       <c r="D149">
         <f t="shared" si="18"/>
-        <v>-501.25911787502048</v>
+        <v>-338.75911787502048</v>
       </c>
       <c r="E149">
         <f t="shared" si="18"/>
-        <v>-495.00911787502048</v>
+        <v>-291.88411787502048</v>
       </c>
       <c r="F149">
         <f t="shared" si="18"/>
-        <v>-488.75911787502048</v>
+        <v>-245.00911787502048</v>
       </c>
       <c r="G149">
         <f t="shared" si="18"/>
-        <v>-482.50911787502048</v>
+        <v>-198.13411787502048</v>
       </c>
       <c r="H149">
         <f t="shared" si="18"/>
-        <v>-476.25911787502048</v>
+        <v>-151.25911787502048</v>
       </c>
       <c r="I149">
         <f t="shared" si="18"/>
-        <v>-470.00911787502048</v>
+        <v>-104.38411787502048</v>
       </c>
       <c r="J149">
         <f t="shared" si="18"/>
-        <v>-463.75911787502048</v>
+        <v>-57.509117875020479</v>
       </c>
       <c r="K149">
         <f t="shared" si="18"/>
-        <v>-457.50911787502048</v>
+        <v>-10.634117875020479</v>
       </c>
       <c r="L149">
         <f t="shared" si="18"/>
-        <v>-451.25911787502048</v>
+        <v>36.240882124979521</v>
       </c>
       <c r="M149">
         <f t="shared" si="18"/>
-        <v>-445.00911787502048</v>
+        <v>83.115882124979521</v>
       </c>
       <c r="N149">
         <f t="shared" si="18"/>
-        <v>-438.75911787502048</v>
+        <v>129.99088212497952</v>
       </c>
       <c r="O149">
         <f t="shared" si="18"/>
-        <v>-432.50911787502048</v>
+        <v>176.86588212497952</v>
       </c>
       <c r="P149">
         <f t="shared" si="18"/>
-        <v>-426.25911787502048</v>
+        <v>223.74088212497952</v>
       </c>
       <c r="Q149">
         <f t="shared" si="18"/>
-        <v>-420.00911787502048</v>
+        <v>270.61588212497952</v>
       </c>
       <c r="R149">
         <f t="shared" si="18"/>
-        <v>-413.75911787502048</v>
+        <v>317.49088212497952</v>
       </c>
       <c r="S149">
         <f t="shared" si="18"/>
-        <v>-407.50911787502048</v>
+        <v>364.36588212497952</v>
       </c>
       <c r="T149">
         <f t="shared" si="18"/>
-        <v>-401.25911787502048</v>
+        <v>411.24088212497952</v>
       </c>
       <c r="U149">
         <f t="shared" si="18"/>
-        <v>-401.25911787502048</v>
+        <v>411.24088212497952</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
@@ -6580,83 +6549,83 @@
       </c>
       <c r="B150">
         <f t="shared" si="15"/>
-        <v>-533.19428811628529</v>
+        <v>-451.94428811628529</v>
       </c>
       <c r="C150">
         <f t="shared" si="18"/>
-        <v>-526.94428811628529</v>
+        <v>-405.06928811628529</v>
       </c>
       <c r="D150">
         <f t="shared" si="18"/>
-        <v>-520.69428811628529</v>
+        <v>-358.19428811628529</v>
       </c>
       <c r="E150">
         <f t="shared" si="18"/>
-        <v>-514.44428811628529</v>
+        <v>-311.31928811628529</v>
       </c>
       <c r="F150">
         <f t="shared" si="18"/>
-        <v>-508.19428811628529</v>
+        <v>-264.44428811628529</v>
       </c>
       <c r="G150">
         <f t="shared" si="18"/>
-        <v>-501.94428811628529</v>
+        <v>-217.56928811628529</v>
       </c>
       <c r="H150">
         <f t="shared" si="18"/>
-        <v>-495.69428811628529</v>
+        <v>-170.69428811628529</v>
       </c>
       <c r="I150">
         <f t="shared" si="18"/>
-        <v>-489.44428811628529</v>
+        <v>-123.81928811628529</v>
       </c>
       <c r="J150">
         <f t="shared" si="18"/>
-        <v>-483.19428811628529</v>
+        <v>-76.944288116285293</v>
       </c>
       <c r="K150">
         <f t="shared" si="18"/>
-        <v>-476.94428811628529</v>
+        <v>-30.069288116285293</v>
       </c>
       <c r="L150">
         <f t="shared" si="18"/>
-        <v>-470.69428811628529</v>
+        <v>16.805711883714707</v>
       </c>
       <c r="M150">
         <f t="shared" si="18"/>
-        <v>-464.44428811628529</v>
+        <v>63.680711883714707</v>
       </c>
       <c r="N150">
         <f t="shared" si="18"/>
-        <v>-458.19428811628529</v>
+        <v>110.55571188371471</v>
       </c>
       <c r="O150">
         <f t="shared" si="18"/>
-        <v>-451.94428811628529</v>
+        <v>157.43071188371471</v>
       </c>
       <c r="P150">
         <f t="shared" si="18"/>
-        <v>-445.69428811628529</v>
+        <v>204.30571188371471</v>
       </c>
       <c r="Q150">
         <f t="shared" si="18"/>
-        <v>-439.44428811628529</v>
+        <v>251.18071188371471</v>
       </c>
       <c r="R150">
         <f t="shared" si="18"/>
-        <v>-433.19428811628529</v>
+        <v>298.05571188371471</v>
       </c>
       <c r="S150">
         <f t="shared" si="18"/>
-        <v>-426.94428811628529</v>
+        <v>344.93071188371471</v>
       </c>
       <c r="T150">
         <f t="shared" si="18"/>
-        <v>-420.69428811628529</v>
+        <v>391.80571188371471</v>
       </c>
       <c r="U150">
         <f t="shared" si="18"/>
-        <v>-420.69428811628529</v>
+        <v>391.80571188371471</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
@@ -6665,83 +6634,83 @@
       </c>
       <c r="B151">
         <f t="shared" si="15"/>
-        <v>-552.90605004750807</v>
+        <v>-471.65605004750807</v>
       </c>
       <c r="C151">
         <f t="shared" si="18"/>
-        <v>-546.65605004750807</v>
+        <v>-424.78105004750807</v>
       </c>
       <c r="D151">
         <f t="shared" si="18"/>
-        <v>-540.40605004750807</v>
+        <v>-377.90605004750807</v>
       </c>
       <c r="E151">
         <f t="shared" si="18"/>
-        <v>-534.15605004750807</v>
+        <v>-331.03105004750807</v>
       </c>
       <c r="F151">
         <f t="shared" si="18"/>
-        <v>-527.90605004750807</v>
+        <v>-284.15605004750807</v>
       </c>
       <c r="G151">
         <f t="shared" si="18"/>
-        <v>-521.65605004750807</v>
+        <v>-237.28105004750807</v>
       </c>
       <c r="H151">
         <f t="shared" si="18"/>
-        <v>-515.40605004750807</v>
+        <v>-190.40605004750807</v>
       </c>
       <c r="I151">
         <f t="shared" si="18"/>
-        <v>-509.15605004750807</v>
+        <v>-143.53105004750807</v>
       </c>
       <c r="J151">
         <f t="shared" si="18"/>
-        <v>-502.90605004750807</v>
+        <v>-96.656050047508074</v>
       </c>
       <c r="K151">
         <f t="shared" si="18"/>
-        <v>-496.65605004750807</v>
+        <v>-49.781050047508074</v>
       </c>
       <c r="L151">
         <f t="shared" si="18"/>
-        <v>-490.40605004750807</v>
+        <v>-2.9060500475080744</v>
       </c>
       <c r="M151">
         <f t="shared" si="18"/>
-        <v>-484.15605004750807</v>
+        <v>43.968949952491926</v>
       </c>
       <c r="N151">
         <f t="shared" si="18"/>
-        <v>-477.90605004750807</v>
+        <v>90.843949952491926</v>
       </c>
       <c r="O151">
         <f t="shared" si="18"/>
-        <v>-471.65605004750807</v>
+        <v>137.71894995249193</v>
       </c>
       <c r="P151">
         <f t="shared" si="18"/>
-        <v>-465.40605004750807</v>
+        <v>184.59394995249193</v>
       </c>
       <c r="Q151">
         <f t="shared" si="18"/>
-        <v>-459.15605004750807</v>
+        <v>231.46894995249193</v>
       </c>
       <c r="R151">
         <f t="shared" si="18"/>
-        <v>-452.90605004750807</v>
+        <v>278.34394995249193</v>
       </c>
       <c r="S151">
         <f t="shared" si="18"/>
-        <v>-446.65605004750807</v>
+        <v>325.21894995249193</v>
       </c>
       <c r="T151">
         <f t="shared" si="18"/>
-        <v>-440.40605004750807</v>
+        <v>372.09394995249193</v>
       </c>
       <c r="U151">
         <f t="shared" si="18"/>
-        <v>-440.40605004750807</v>
+        <v>372.09394995249193</v>
       </c>
     </row>
   </sheetData>
@@ -6958,10 +6927,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,252 +7163,272 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>54</v>
+      <c r="C62" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" t="s">
         <v>24</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D82" t="s">
         <v>79</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>0</v>
       </c>
-      <c r="B79">
+      <c r="B83">
         <v>34</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>1</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <v>1</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G83" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1</v>
       </c>
-      <c r="B80">
+      <c r="B84">
         <v>68</v>
       </c>
-      <c r="C80">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="D84">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>2</v>
       </c>
-      <c r="B81">
+      <c r="B85">
         <v>76</v>
       </c>
-      <c r="C81">
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>3</v>
       </c>
-      <c r="B82">
+      <c r="B86">
         <v>84</v>
       </c>
-      <c r="C82">
+      <c r="C86">
         <v>4</v>
       </c>
-      <c r="D82">
+      <c r="D86">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>4</v>
       </c>
-      <c r="B83">
+      <c r="B87">
         <v>92</v>
       </c>
-      <c r="C83">
+      <c r="C87">
         <v>5</v>
       </c>
-      <c r="D83">
+      <c r="D87">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>5</v>
       </c>
-      <c r="B84">
+      <c r="B88">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>28</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>10</v>
       </c>
     </row>

--- a/game_design/TreeWars_balancing.xlsx
+++ b/game_design/TreeWars_balancing.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="153">
   <si>
     <t>Basics</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>Costs 10 Hazard points to activate</t>
+  </si>
+  <si>
+    <t>This chance is divided by 2 for every tree the storm has already hit</t>
   </si>
 </sst>
 </file>
@@ -6929,8 +6932,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7323,7 +7326,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
